--- a/src/test/resources/check_sheet.xlsx
+++ b/src/test/resources/check_sheet.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="14820" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25440" windowHeight="14820" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Target" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="169">
   <si>
     <t>#</t>
   </si>
@@ -524,23 +524,29 @@
   </si>
   <si>
     <t>total</t>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>oracle_module</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>Linux</t>
+    <phoneticPr fontId="7"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -548,374 +554,62 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="メイリオ"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Meiryo UI"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="メイリオ"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="128"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -960,379 +654,104 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="54">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+  </cellStyleXfs>
+  <cellXfs count="20">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="17">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="27">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="45" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="45" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="45" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="3" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="45" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="45" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="27" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="45" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="38" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="38" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="54">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Currency" xfId="3" builtinId="4"/>
-    <cellStyle name="Comma[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Percent" xfId="5" builtinId="5"/>
-    <cellStyle name="Currency[0]" xfId="6" builtinId="7"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="標準" xfId="27"/>
-    <cellStyle name="Linked Cell" xfId="28" builtinId="24"/>
-    <cellStyle name="Total" xfId="29" builtinId="25"/>
-    <cellStyle name="Bad" xfId="30" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="31" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="32" builtinId="29"/>
-    <cellStyle name="標準 4" xfId="33"/>
-    <cellStyle name="20% - Accent5" xfId="34" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="35" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="36" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="37" builtinId="34"/>
-    <cellStyle name="標準 5" xfId="38"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="40" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="41" builtinId="37"/>
-    <cellStyle name="標準 2" xfId="42"/>
-    <cellStyle name="20% - Accent3" xfId="43" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="44" builtinId="41"/>
-    <cellStyle name="標準 3" xfId="45"/>
-    <cellStyle name="20% - Accent4" xfId="46" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="47" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="48" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="49" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="50" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="51" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="52" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="53" builtinId="52"/>
+  <cellStyles count="6">
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="4"/>
+    <cellStyle name="標準 3" xfId="5"/>
+    <cellStyle name="標準 4" xfId="2"/>
+    <cellStyle name="標準 5" xfId="3"/>
+    <cellStyle name="標準 6" xfId="1"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1622,22 +1041,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="4" width="26" customWidth="1"/>
     <col min="5" max="8" width="16.875" customWidth="1"/>
     <col min="9" max="9" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" ht="16.5" spans="2:9">
+    <row r="4" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B4" s="11" t="s">
         <v>0</v>
       </c>
@@ -1663,7 +1081,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="2:9">
+    <row r="5" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B5" s="11">
         <v>1</v>
       </c>
@@ -1689,7 +1107,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="2:9">
+    <row r="6" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B6" s="11">
         <v>2</v>
       </c>
@@ -1715,7 +1133,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" ht="16.5" spans="2:9">
+    <row r="7" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B7" s="11">
         <v>3</v>
       </c>
@@ -1741,7 +1159,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" ht="16.5" spans="2:9">
+    <row r="8" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
@@ -1751,7 +1169,7 @@
       <c r="H8" s="11"/>
       <c r="I8" s="16"/>
     </row>
-    <row r="9" ht="16.5" spans="2:9">
+    <row r="9" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
@@ -1761,7 +1179,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="16"/>
     </row>
-    <row r="10" ht="16.5" spans="2:9">
+    <row r="10" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -1771,7 +1189,7 @@
       <c r="H10" s="11"/>
       <c r="I10" s="16"/>
     </row>
-    <row r="11" ht="16.5" spans="2:9">
+    <row r="11" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
@@ -1781,7 +1199,7 @@
       <c r="H11" s="11"/>
       <c r="I11" s="16"/>
     </row>
-    <row r="12" ht="16.5" spans="2:9">
+    <row r="12" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
@@ -1791,7 +1209,7 @@
       <c r="H12" s="11"/>
       <c r="I12" s="16"/>
     </row>
-    <row r="13" ht="16.5" spans="2:9">
+    <row r="13" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
@@ -1801,7 +1219,7 @@
       <c r="H13" s="11"/>
       <c r="I13" s="16"/>
     </row>
-    <row r="14" ht="16.5" spans="2:9">
+    <row r="14" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
@@ -1811,7 +1229,7 @@
       <c r="H14" s="11"/>
       <c r="I14" s="16"/>
     </row>
-    <row r="15" ht="16.5" spans="2:9">
+    <row r="15" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
@@ -1821,7 +1239,7 @@
       <c r="H15" s="11"/>
       <c r="I15" s="16"/>
     </row>
-    <row r="16" ht="16.5" spans="2:9">
+    <row r="16" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
@@ -1831,7 +1249,7 @@
       <c r="H16" s="11"/>
       <c r="I16" s="16"/>
     </row>
-    <row r="17" ht="16.5" spans="2:9">
+    <row r="17" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
@@ -1841,7 +1259,7 @@
       <c r="H17" s="11"/>
       <c r="I17" s="16"/>
     </row>
-    <row r="18" ht="16.5" spans="2:9">
+    <row r="18" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
@@ -1852,22 +1270,21 @@
       <c r="I18" s="16"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="7"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A4:F49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:F50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="20.625" customWidth="1"/>
     <col min="3" max="3" width="28" customWidth="1"/>
@@ -1877,7 +1294,7 @@
     <col min="7" max="10" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
         <v>11</v>
       </c>
@@ -1897,7 +1314,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
         <v>25</v>
       </c>
@@ -1915,7 +1332,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="8"/>
       <c r="B6" s="9" t="s">
         <v>30</v>
@@ -1929,7 +1346,7 @@
       <c r="E6" s="9"/>
       <c r="F6" s="10"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="8"/>
       <c r="B7" s="9" t="s">
         <v>32</v>
@@ -1943,7 +1360,7 @@
       <c r="E7" s="9"/>
       <c r="F7" s="10"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="8"/>
       <c r="B8" s="9" t="s">
         <v>34</v>
@@ -1957,7 +1374,7 @@
       <c r="E8" s="9"/>
       <c r="F8" s="10"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="8"/>
       <c r="B9" s="9" t="s">
         <v>36</v>
@@ -1971,7 +1388,7 @@
       <c r="E9" s="9"/>
       <c r="F9" s="10"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="8"/>
       <c r="B10" s="9" t="s">
         <v>38</v>
@@ -1985,7 +1402,7 @@
       <c r="E10" s="9"/>
       <c r="F10" s="10"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="8" t="s">
         <v>25</v>
       </c>
@@ -2003,7 +1420,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="8" t="s">
         <v>25</v>
       </c>
@@ -2021,7 +1438,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="8" t="s">
         <v>25</v>
       </c>
@@ -2039,7 +1456,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="8" t="s">
         <v>25</v>
       </c>
@@ -2057,7 +1474,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="8" t="s">
         <v>25</v>
       </c>
@@ -2075,7 +1492,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="8" t="s">
         <v>25</v>
       </c>
@@ -2093,7 +1510,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" ht="28.5" spans="1:6">
+    <row r="17" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A17" s="8" t="s">
         <v>25</v>
       </c>
@@ -2111,7 +1528,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="8"/>
       <c r="B18" s="9" t="s">
         <v>60</v>
@@ -2125,7 +1542,7 @@
       <c r="E18" s="9"/>
       <c r="F18" s="10"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" s="8"/>
       <c r="B19" s="9" t="s">
         <v>62</v>
@@ -2139,7 +1556,7 @@
       <c r="E19" s="9"/>
       <c r="F19" s="10"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A20" s="8"/>
       <c r="B20" s="9" t="s">
         <v>64</v>
@@ -2153,7 +1570,7 @@
       <c r="E20" s="9"/>
       <c r="F20" s="10"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A21" s="8"/>
       <c r="B21" s="9" t="s">
         <v>66</v>
@@ -2167,7 +1584,7 @@
       <c r="E21" s="9"/>
       <c r="F21" s="10"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A22" s="8"/>
       <c r="B22" s="9" t="s">
         <v>68</v>
@@ -2181,7 +1598,7 @@
       <c r="E22" s="9"/>
       <c r="F22" s="10"/>
     </row>
-    <row r="23" ht="42.75" spans="1:6">
+    <row r="23" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A23" s="8" t="s">
         <v>25</v>
       </c>
@@ -2199,7 +1616,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="24" ht="28.5" spans="1:6">
+    <row r="24" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A24" s="8" t="s">
         <v>25</v>
       </c>
@@ -2217,7 +1634,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A25" s="8"/>
       <c r="B25" s="9" t="s">
         <v>76</v>
@@ -2229,7 +1646,7 @@
       <c r="E25" s="9"/>
       <c r="F25" s="10"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A26" s="8"/>
       <c r="B26" s="9" t="s">
         <v>77</v>
@@ -2241,7 +1658,7 @@
       <c r="E26" s="9"/>
       <c r="F26" s="10"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A27" s="8" t="s">
         <v>25</v>
       </c>
@@ -2261,7 +1678,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A28" s="8"/>
       <c r="B28" s="9" t="s">
         <v>81</v>
@@ -2275,7 +1692,7 @@
       <c r="E28" s="9"/>
       <c r="F28" s="10"/>
     </row>
-    <row r="29" ht="28.5" spans="1:6">
+    <row r="29" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A29" s="8" t="s">
         <v>25</v>
       </c>
@@ -2293,7 +1710,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="30" ht="42.75" spans="1:6">
+    <row r="30" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A30" s="8" t="s">
         <v>86</v>
       </c>
@@ -2311,7 +1728,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="31" ht="42.75" spans="1:6">
+    <row r="31" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A31" s="8" t="s">
         <v>25</v>
       </c>
@@ -2329,7 +1746,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="32" ht="71.25" spans="1:6">
+    <row r="32" spans="1:6" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A32" s="9" t="s">
         <v>25</v>
       </c>
@@ -2349,7 +1766,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="33" ht="42.75" spans="1:6">
+    <row r="33" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A33" s="9" t="s">
         <v>25</v>
       </c>
@@ -2367,7 +1784,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A34" s="9" t="s">
         <v>25</v>
       </c>
@@ -2385,7 +1802,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A35" s="9" t="s">
         <v>25</v>
       </c>
@@ -2405,7 +1822,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A36" s="9"/>
       <c r="B36" s="9" t="s">
         <v>105</v>
@@ -2417,7 +1834,7 @@
       <c r="E36" s="9"/>
       <c r="F36" s="10"/>
     </row>
-    <row r="37" ht="16.5" spans="1:6">
+    <row r="37" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A37" s="9" t="s">
         <v>25</v>
       </c>
@@ -2435,7 +1852,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="38" ht="33" spans="1:6">
+    <row r="38" spans="1:6" ht="33" x14ac:dyDescent="0.15">
       <c r="A38" s="9"/>
       <c r="B38" s="9" t="s">
         <v>109</v>
@@ -2451,7 +1868,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A39" s="9" t="s">
         <v>25</v>
       </c>
@@ -2465,7 +1882,7 @@
       <c r="E39" s="9"/>
       <c r="F39" s="10"/>
     </row>
-    <row r="40" ht="16.5" spans="1:6">
+    <row r="40" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A40" s="13" t="s">
         <v>25</v>
       </c>
@@ -2483,7 +1900,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="41" ht="16.5" spans="1:6">
+    <row r="41" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A41" s="13" t="s">
         <v>25</v>
       </c>
@@ -2501,7 +1918,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="42" ht="16.5" spans="1:6">
+    <row r="42" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A42" s="13" t="s">
         <v>25</v>
       </c>
@@ -2519,7 +1936,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="43" ht="33" spans="1:6">
+    <row r="43" spans="1:6" ht="33" x14ac:dyDescent="0.15">
       <c r="A43" s="13" t="s">
         <v>25</v>
       </c>
@@ -2537,7 +1954,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="44" ht="49.5" spans="1:6">
+    <row r="44" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A44" s="13" t="s">
         <v>25</v>
       </c>
@@ -2555,7 +1972,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="45" ht="33" spans="1:6">
+    <row r="45" spans="1:6" ht="33" x14ac:dyDescent="0.15">
       <c r="A45" s="13" t="s">
         <v>25</v>
       </c>
@@ -2573,7 +1990,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="46" ht="16.5" spans="1:6">
+    <row r="46" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A46" s="13" t="s">
         <v>25</v>
       </c>
@@ -2589,7 +2006,7 @@
       <c r="E46" s="13"/>
       <c r="F46" s="13"/>
     </row>
-    <row r="47" ht="16.5" spans="1:6">
+    <row r="47" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A47" s="13" t="s">
         <v>25</v>
       </c>
@@ -2607,7 +2024,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A48" s="13"/>
       <c r="B48" s="13" t="s">
         <v>136</v>
@@ -2619,7 +2036,7 @@
       <c r="E48" s="13"/>
       <c r="F48" s="13"/>
     </row>
-    <row r="49" ht="33" spans="1:6">
+    <row r="49" spans="1:6" ht="33" x14ac:dyDescent="0.15">
       <c r="A49" s="13" t="s">
         <v>25</v>
       </c>
@@ -2637,23 +2054,36 @@
         <v>139</v>
       </c>
     </row>
+    <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A50" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="B50" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="C50" s="18"/>
+      <c r="D50" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="E50" s="18"/>
+      <c r="F50" s="18"/>
+    </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="7"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="17.625" customWidth="1"/>
     <col min="3" max="3" width="27.25" customWidth="1"/>
@@ -2663,7 +2093,7 @@
     <col min="7" max="7" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
         <v>11</v>
       </c>
@@ -2683,7 +2113,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
         <v>25</v>
       </c>
@@ -2701,7 +2131,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
         <v>25</v>
       </c>
@@ -2717,7 +2147,7 @@
       <c r="E6" s="9"/>
       <c r="F6" s="10"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="8" t="s">
         <v>25</v>
       </c>
@@ -2733,7 +2163,7 @@
       <c r="E7" s="9"/>
       <c r="F7" s="10"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="8" t="s">
         <v>25</v>
       </c>
@@ -2749,7 +2179,7 @@
       <c r="E8" s="9"/>
       <c r="F8" s="10"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="8" t="s">
         <v>25</v>
       </c>
@@ -2765,7 +2195,7 @@
       <c r="E9" s="9"/>
       <c r="F9" s="10"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="8" t="s">
         <v>25</v>
       </c>
@@ -2781,7 +2211,7 @@
       <c r="E10" s="9"/>
       <c r="F10" s="10"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="8" t="s">
         <v>25</v>
       </c>
@@ -2799,7 +2229,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="8" t="s">
         <v>25</v>
       </c>
@@ -2817,7 +2247,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="8" t="s">
         <v>25</v>
       </c>
@@ -2835,7 +2265,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="8"/>
       <c r="B14" s="9" t="s">
         <v>60</v>
@@ -2849,7 +2279,7 @@
       <c r="E14" s="9"/>
       <c r="F14" s="10"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="8"/>
       <c r="B15" s="9" t="s">
         <v>62</v>
@@ -2863,7 +2293,7 @@
       <c r="E15" s="9"/>
       <c r="F15" s="10"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="8"/>
       <c r="B16" s="9" t="s">
         <v>64</v>
@@ -2877,7 +2307,7 @@
       <c r="E16" s="9"/>
       <c r="F16" s="10"/>
     </row>
-    <row r="17" ht="28.5" spans="1:6">
+    <row r="17" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A17" s="8" t="s">
         <v>25</v>
       </c>
@@ -2895,7 +2325,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="8"/>
       <c r="B18" s="9" t="s">
         <v>145</v>
@@ -2907,7 +2337,7 @@
       <c r="E18" s="9"/>
       <c r="F18" s="10"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" s="8"/>
       <c r="B19" s="9" t="s">
         <v>146</v>
@@ -2919,7 +2349,7 @@
       <c r="E19" s="9"/>
       <c r="F19" s="10"/>
     </row>
-    <row r="20" ht="28.5" spans="1:6">
+    <row r="20" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A20" s="8" t="s">
         <v>25</v>
       </c>
@@ -2937,7 +2367,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A21" s="8" t="s">
         <v>25</v>
       </c>
@@ -2957,7 +2387,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A22" s="8" t="s">
         <v>25</v>
       </c>
@@ -2975,7 +2405,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A23" s="8" t="s">
         <v>25</v>
       </c>
@@ -2995,7 +2425,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A24" s="8" t="s">
         <v>25</v>
       </c>
@@ -3013,7 +2443,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A25" s="8" t="s">
         <v>25</v>
       </c>
@@ -3029,7 +2459,7 @@
       <c r="E25" s="9"/>
       <c r="F25" s="10"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A26" s="8"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
@@ -3037,7 +2467,7 @@
       <c r="E26" s="9"/>
       <c r="F26" s="10"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A27" s="8"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
@@ -3045,7 +2475,7 @@
       <c r="E27" s="9"/>
       <c r="F27" s="10"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A28" s="8"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
@@ -3053,7 +2483,7 @@
       <c r="E28" s="9"/>
       <c r="F28" s="10"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A29" s="8"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -3061,7 +2491,7 @@
       <c r="E29" s="9"/>
       <c r="F29" s="10"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A30" s="9"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
@@ -3069,7 +2499,7 @@
       <c r="E30" s="9"/>
       <c r="F30" s="10"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A31" s="9"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
@@ -3077,7 +2507,7 @@
       <c r="E31" s="9"/>
       <c r="F31" s="10"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A32" s="9"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
@@ -3085,7 +2515,7 @@
       <c r="E32" s="9"/>
       <c r="F32" s="10"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A33" s="9"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
@@ -3094,22 +2524,21 @@
       <c r="F33" s="10"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="7"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="17" customWidth="1"/>
     <col min="3" max="3" width="28" customWidth="1"/>
@@ -3118,7 +2547,7 @@
     <col min="6" max="6" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" ht="18.75" spans="1:6">
+    <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>20</v>
@@ -3136,7 +2565,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" ht="18.75" spans="1:6">
+    <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A5" s="4"/>
       <c r="B5" s="5" t="s">
         <v>26</v>
@@ -3150,7 +2579,7 @@
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" ht="18.75" spans="1:6">
+    <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
       <c r="B6" s="5" t="s">
         <v>30</v>
@@ -3168,7 +2597,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="7" ht="18.75" spans="1:6">
+    <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
       <c r="B7" s="5" t="s">
         <v>34</v>
@@ -3186,7 +2615,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="8" ht="18.75" spans="1:6">
+    <row r="8" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
       <c r="B8" s="5" t="s">
         <v>36</v>
@@ -3200,7 +2629,7 @@
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
     </row>
-    <row r="9" ht="18.75" spans="1:6">
+    <row r="9" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="B9" s="5" t="s">
         <v>38</v>
@@ -3214,7 +2643,7 @@
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
     </row>
-    <row r="10" ht="18.75" spans="1:6">
+    <row r="10" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="5" t="s">
         <v>40</v>
@@ -3228,7 +2657,7 @@
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
     </row>
-    <row r="11" ht="18.75" spans="1:6">
+    <row r="11" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="5" t="s">
         <v>43</v>
@@ -3242,7 +2671,7 @@
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
     </row>
-    <row r="12" ht="18.75" spans="1:6">
+    <row r="12" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
       <c r="B12" s="5" t="s">
         <v>46</v>
@@ -3258,7 +2687,7 @@
       </c>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" ht="18.75" spans="1:6">
+    <row r="13" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="5" t="s">
         <v>52</v>
@@ -3272,7 +2701,7 @@
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
     </row>
-    <row r="14" ht="18.75" spans="1:6">
+    <row r="14" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="5" t="s">
         <v>54</v>
@@ -3288,7 +2717,7 @@
       </c>
       <c r="F14" s="6"/>
     </row>
-    <row r="15" ht="18.75" spans="1:6">
+    <row r="15" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="5" t="s">
         <v>64</v>
@@ -3302,7 +2731,7 @@
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
     </row>
-    <row r="16" ht="18.75" spans="1:6">
+    <row r="16" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
       <c r="B16" s="5" t="s">
         <v>165</v>
@@ -3318,7 +2747,7 @@
       </c>
       <c r="F16" s="6"/>
     </row>
-    <row r="17" ht="18.75" spans="1:6">
+    <row r="17" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
       <c r="B17" s="5" t="s">
         <v>57</v>
@@ -3332,7 +2761,7 @@
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" ht="18.75" spans="1:6">
+    <row r="18" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
       <c r="B18" s="5" t="s">
         <v>143</v>
@@ -3346,7 +2775,7 @@
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
-    <row r="19" ht="18.75" spans="1:6">
+    <row r="19" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
       <c r="B19" s="5" t="s">
         <v>147</v>
@@ -3360,7 +2789,7 @@
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" ht="18.75" spans="1:6">
+    <row r="20" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A20" s="4"/>
       <c r="B20" s="5" t="s">
         <v>93</v>
@@ -3374,7 +2803,7 @@
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" ht="18.75" spans="1:6">
+    <row r="21" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
       <c r="B21" s="5" t="s">
         <v>96</v>
@@ -3388,7 +2817,7 @@
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
-    <row r="22" ht="18.75" spans="1:6">
+    <row r="22" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A22" s="4"/>
       <c r="B22" s="5" t="s">
         <v>78</v>
@@ -3402,7 +2831,7 @@
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" ht="18.75" spans="1:6">
+    <row r="23" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A23" s="4"/>
       <c r="B23" s="5" t="s">
         <v>156</v>
@@ -3417,8 +2846,8 @@
       <c r="F23" s="6"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="7"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/src/test/resources/check_sheet.xlsx
+++ b/src/test/resources/check_sheet.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25440" windowHeight="14820" activeTab="1"/>
+    <workbookView windowWidth="28695" windowHeight="14820"/>
   </bookViews>
   <sheets>
     <sheet name="Target" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155">
   <si>
     <t>#</t>
   </si>
@@ -43,124 +43,94 @@
     <t>VerifyID</t>
   </si>
   <si>
-    <t>win2012</t>
-  </si>
-  <si>
-    <t>192.168.10.1</t>
-  </si>
-  <si>
-    <t>Windows</t>
-  </si>
-  <si>
     <t>Test</t>
   </si>
   <si>
-    <t>win2012.ostrich</t>
-  </si>
-  <si>
-    <t>RuleAP</t>
-  </si>
-  <si>
-    <t>ostrich</t>
-  </si>
-  <si>
-    <t>192.168.10.2</t>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>項目</t>
+  </si>
+  <si>
+    <t>分類</t>
+  </si>
+  <si>
+    <t>デバイス</t>
+  </si>
+  <si>
+    <t>採取情報</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>vm</t>
+  </si>
+  <si>
+    <t>VMWare リソース割り当て</t>
+  </si>
+  <si>
+    <t>vCenter</t>
+  </si>
+  <si>
+    <t>VMWare CPU,メモリ割り当て、 電源On-Off、ホストIPの検索</t>
+  </si>
+  <si>
+    <t>NumCpu</t>
+  </si>
+  <si>
+    <t>CPU割り当て数</t>
+  </si>
+  <si>
+    <t>PowerState</t>
+  </si>
+  <si>
+    <t>電源状態</t>
+  </si>
+  <si>
+    <t>MemoryGB</t>
+  </si>
+  <si>
+    <t>メモリ割り当て</t>
+  </si>
+  <si>
+    <t>VMHost</t>
+  </si>
+  <si>
+    <t>ESXiホスト</t>
+  </si>
+  <si>
+    <t>Cluster</t>
+  </si>
+  <si>
+    <t>クラスター</t>
+  </si>
+  <si>
+    <t>vmwaretool</t>
+  </si>
+  <si>
+    <t>VMWare ツール</t>
+  </si>
+  <si>
+    <t>VMWare ツールの有無、アップグレードの検索</t>
+  </si>
+  <si>
+    <t>vm_timesync</t>
+  </si>
+  <si>
+    <t>VMWare 時刻同期</t>
+  </si>
+  <si>
+    <t>VMWare 時刻同期の有無</t>
+  </si>
+  <si>
+    <t>hostname</t>
+  </si>
+  <si>
+    <t>ホスト名</t>
   </si>
   <si>
     <t>Linux</t>
-  </si>
-  <si>
-    <t>RuleDB</t>
-  </si>
-  <si>
-    <t>testtestdb</t>
-  </si>
-  <si>
-    <t>192.168.10.3</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>項目</t>
-  </si>
-  <si>
-    <t>分類</t>
-  </si>
-  <si>
-    <t>デバイス</t>
-  </si>
-  <si>
-    <t>採取情報</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>vm</t>
-  </si>
-  <si>
-    <t>VMWare リソース割り当て</t>
-  </si>
-  <si>
-    <t>vCenter</t>
-  </si>
-  <si>
-    <t>VMWare CPU,メモリ割り当て、 電源On-Off、ホストIPの検索</t>
-  </si>
-  <si>
-    <t>NumCpu</t>
-  </si>
-  <si>
-    <t>CPU割り当て数</t>
-  </si>
-  <si>
-    <t>PowerState</t>
-  </si>
-  <si>
-    <t>電源状態</t>
-  </si>
-  <si>
-    <t>MemoryGB</t>
-  </si>
-  <si>
-    <t>メモリ割り当て</t>
-  </si>
-  <si>
-    <t>VMHost</t>
-  </si>
-  <si>
-    <t>ESXiホスト</t>
-  </si>
-  <si>
-    <t>Cluster</t>
-  </si>
-  <si>
-    <t>クラスター</t>
-  </si>
-  <si>
-    <t>vmwaretool</t>
-  </si>
-  <si>
-    <t>VMWare ツール</t>
-  </si>
-  <si>
-    <t>VMWare ツールの有無、アップグレードの検索</t>
-  </si>
-  <si>
-    <t>vm_timesync</t>
-  </si>
-  <si>
-    <t>VMWare 時刻同期</t>
-  </si>
-  <si>
-    <t>VMWare 時刻同期の有無</t>
-  </si>
-  <si>
-    <t>hostname</t>
-  </si>
-  <si>
-    <t>ホスト名</t>
   </si>
   <si>
     <t>ホスト名の検索</t>
@@ -448,9 +418,15 @@
     <t xml:space="preserve"> chkconfig --listコマンドで、vncserver ファイヤーウォールの自動起動設定を検索</t>
   </si>
   <si>
+    <t>oracle_module</t>
+  </si>
+  <si>
     <t>CPU情報</t>
   </si>
   <si>
+    <t>Windows</t>
+  </si>
+  <si>
     <t>Win32_Processor オブジェクトからCPU情報を検索</t>
   </si>
   <si>
@@ -508,45 +484,30 @@
     <t>ストレージタイムアウト値</t>
   </si>
   <si>
-    <t>1 &lt; x</t>
-  </si>
-  <si>
-    <t>4 &lt; x</t>
-  </si>
-  <si>
-    <t>2 &lt; x &amp;&amp; x &lt; 8</t>
-  </si>
-  <si>
-    <t>x =~ /win/</t>
-  </si>
-  <si>
-    <t>x =~ /CentOS/</t>
+    <t>RuleAP</t>
+  </si>
+  <si>
+    <t>RuleDB</t>
   </si>
   <si>
     <t>total</t>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>oracle_module</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>Linux</t>
-    <phoneticPr fontId="7"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -554,62 +515,388 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="メイリオ"/>
-      <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Meiryo UI"/>
-      <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="メイリオ"/>
-      <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
+      <name val="Calibri"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -654,104 +941,392 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="55">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="20">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="28">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="46" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="46" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="46" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="46" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="46" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="3" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="22" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="22" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="28" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="46" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="46" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="39" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="39" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="4"/>
-    <cellStyle name="標準 3" xfId="5"/>
-    <cellStyle name="標準 4" xfId="2"/>
-    <cellStyle name="標準 5" xfId="3"/>
-    <cellStyle name="標準 6" xfId="1"/>
+  <cellStyles count="55">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Currency" xfId="3" builtinId="4"/>
+    <cellStyle name="Comma[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Percent" xfId="5" builtinId="5"/>
+    <cellStyle name="Currency[0]" xfId="6" builtinId="7"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="標準 6" xfId="22"/>
+    <cellStyle name="60% - Accent3" xfId="23" builtinId="40"/>
+    <cellStyle name="Good" xfId="24" builtinId="26"/>
+    <cellStyle name="Output" xfId="25" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="27" builtinId="22"/>
+    <cellStyle name="標準" xfId="28"/>
+    <cellStyle name="Linked Cell" xfId="29" builtinId="24"/>
+    <cellStyle name="Total" xfId="30" builtinId="25"/>
+    <cellStyle name="Bad" xfId="31" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="32" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="33" builtinId="29"/>
+    <cellStyle name="標準 4" xfId="34"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="36" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="37" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="38" builtinId="34"/>
+    <cellStyle name="標準 5" xfId="39"/>
+    <cellStyle name="20% - Accent6" xfId="40" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="41" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="42" builtinId="37"/>
+    <cellStyle name="標準 2" xfId="43"/>
+    <cellStyle name="20% - Accent3" xfId="44" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="45" builtinId="41"/>
+    <cellStyle name="標準 3" xfId="46"/>
+    <cellStyle name="20% - Accent4" xfId="47" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="48" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="49" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="50" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="51" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="52" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="53" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="54" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1041,21 +1616,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="B4:I18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="4" width="26" customWidth="1"/>
     <col min="5" max="8" width="16.875" customWidth="1"/>
     <col min="9" max="9" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" ht="16.5" spans="2:9">
       <c r="B4" s="11" t="s">
         <v>0</v>
       </c>
@@ -1077,214 +1653,195 @@
       <c r="H4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="17" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" ht="16.5" spans="2:9">
       <c r="B5" s="11">
         <v>1</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="18"/>
+    </row>
+    <row r="6" ht="16.5" spans="2:9">
       <c r="B6" s="11">
         <v>2</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="18"/>
+    </row>
+    <row r="7" ht="16.5" spans="2:9">
       <c r="B7" s="11">
         <v>3</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B8" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="19"/>
+    </row>
+    <row r="8" ht="16.5" spans="2:9">
+      <c r="B8" s="11">
+        <v>4</v>
+      </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
-      <c r="I8" s="16"/>
-    </row>
-    <row r="9" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B9" s="11"/>
+      <c r="I8" s="19"/>
+    </row>
+    <row r="9" ht="16.5" spans="2:9">
+      <c r="B9" s="11">
+        <v>5</v>
+      </c>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
-      <c r="I9" s="16"/>
-    </row>
-    <row r="10" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B10" s="11"/>
+      <c r="I9" s="19"/>
+    </row>
+    <row r="10" ht="16.5" spans="2:9">
+      <c r="B10" s="11">
+        <v>6</v>
+      </c>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
-      <c r="I10" s="16"/>
-    </row>
-    <row r="11" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B11" s="11"/>
+      <c r="I10" s="19"/>
+    </row>
+    <row r="11" ht="16.5" spans="2:9">
+      <c r="B11" s="11">
+        <v>7</v>
+      </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
-      <c r="I11" s="16"/>
-    </row>
-    <row r="12" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B12" s="11"/>
+      <c r="I11" s="19"/>
+    </row>
+    <row r="12" ht="16.5" spans="2:9">
+      <c r="B12" s="11">
+        <v>8</v>
+      </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
-      <c r="I12" s="16"/>
-    </row>
-    <row r="13" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B13" s="11"/>
+      <c r="I12" s="19"/>
+    </row>
+    <row r="13" ht="16.5" spans="2:9">
+      <c r="B13" s="11">
+        <v>9</v>
+      </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
-      <c r="I13" s="16"/>
-    </row>
-    <row r="14" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B14" s="11"/>
+      <c r="I13" s="19"/>
+    </row>
+    <row r="14" ht="16.5" spans="2:9">
+      <c r="B14" s="11">
+        <v>10</v>
+      </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
-      <c r="I14" s="16"/>
-    </row>
-    <row r="15" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B15" s="11"/>
+      <c r="I14" s="19"/>
+    </row>
+    <row r="15" ht="16.5" spans="2:9">
+      <c r="B15" s="11">
+        <v>11</v>
+      </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
-      <c r="I15" s="16"/>
-    </row>
-    <row r="16" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B16" s="11"/>
+      <c r="I15" s="19"/>
+    </row>
+    <row r="16" ht="16.5" spans="2:9">
+      <c r="B16" s="11">
+        <v>12</v>
+      </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
-      <c r="I16" s="16"/>
-    </row>
-    <row r="17" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B17" s="11"/>
+      <c r="I16" s="19"/>
+    </row>
+    <row r="17" ht="16.5" spans="2:9">
+      <c r="B17" s="11">
+        <v>13</v>
+      </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
-      <c r="I17" s="16"/>
-    </row>
-    <row r="18" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B18" s="11"/>
+      <c r="I17" s="19"/>
+    </row>
+    <row r="18" ht="16.5" spans="2:9">
+      <c r="B18" s="11">
+        <v>14</v>
+      </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
-      <c r="I18" s="16"/>
+      <c r="I18" s="19"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A4:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="20.625" customWidth="1"/>
     <col min="3" max="3" width="28" customWidth="1"/>
@@ -1294,796 +1851,797 @@
     <col min="7" max="10" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6">
       <c r="A4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="E4" s="7" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="8" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="8"/>
       <c r="B6" s="9" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="10"/>
     </row>
-    <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6">
       <c r="A7" s="8"/>
       <c r="B7" s="9" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="10"/>
     </row>
-    <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6">
       <c r="A8" s="8"/>
       <c r="B8" s="9" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="10"/>
     </row>
-    <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6">
       <c r="A9" s="8"/>
       <c r="B9" s="9" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="10"/>
     </row>
-    <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6">
       <c r="A10" s="8"/>
       <c r="B10" s="9" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="10"/>
     </row>
-    <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6">
       <c r="A11" s="8" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="8" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="8" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="8" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="8" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="8" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" ht="28.5" spans="1:6">
       <c r="A17" s="8" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="8"/>
       <c r="B18" s="9" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="10"/>
     </row>
-    <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6">
       <c r="A19" s="8"/>
       <c r="B19" s="9" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="10"/>
     </row>
-    <row r="20" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6">
       <c r="A20" s="8"/>
       <c r="B20" s="9" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="10"/>
     </row>
-    <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6">
       <c r="A21" s="8"/>
       <c r="B21" s="9" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="10"/>
     </row>
-    <row r="22" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6">
       <c r="A22" s="8"/>
       <c r="B22" s="9" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="10"/>
     </row>
-    <row r="23" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
+    <row r="23" ht="42.75" spans="1:6">
       <c r="A23" s="8" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="E23" s="9"/>
       <c r="F23" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" ht="28.5" spans="1:6">
       <c r="A24" s="8" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="8"/>
       <c r="B25" s="9" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="9" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="10"/>
     </row>
-    <row r="26" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6">
       <c r="A26" s="8"/>
       <c r="B26" s="9" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="E26" s="9"/>
       <c r="F26" s="10"/>
     </row>
-    <row r="27" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6">
       <c r="A27" s="8" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="8"/>
       <c r="B28" s="9" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="E28" s="9"/>
       <c r="F28" s="10"/>
     </row>
-    <row r="29" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="29" ht="28.5" spans="1:6">
       <c r="A29" s="8" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="E29" s="9"/>
       <c r="F29" s="10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" ht="42.75" spans="1:6">
       <c r="A30" s="8" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="E30" s="9"/>
       <c r="F30" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" ht="42.75" spans="1:6">
       <c r="A31" s="8" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="E31" s="9"/>
       <c r="F31" s="10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="71.25" x14ac:dyDescent="0.15">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="32" ht="71.25" spans="1:6">
       <c r="A32" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" ht="42.75" spans="1:6">
       <c r="A33" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="E33" s="9"/>
       <c r="F33" s="10" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="E34" s="9"/>
       <c r="F34" s="10" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="9"/>
       <c r="B36" s="9" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="9" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="E36" s="9"/>
       <c r="F36" s="10"/>
     </row>
-    <row r="37" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="37" ht="16.5" spans="1:6">
       <c r="A37" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="E37" s="9"/>
       <c r="F37" s="12" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="33" x14ac:dyDescent="0.15">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="38" ht="33" spans="1:6">
       <c r="A38" s="9"/>
       <c r="B38" s="9" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="E38" s="9"/>
       <c r="F38" s="12" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C39" s="9"/>
       <c r="D39" s="9" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="E39" s="9"/>
       <c r="F39" s="10"/>
     </row>
-    <row r="40" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="40" ht="16.5" spans="1:6">
       <c r="A40" s="13" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="E40" s="13"/>
       <c r="F40" s="12" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="41" ht="16.5" spans="1:6">
       <c r="A41" s="13" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="E41" s="13"/>
       <c r="F41" s="12" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="42" ht="16.5" spans="1:6">
       <c r="A42" s="13" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="E42" s="13"/>
       <c r="F42" s="12" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="33" x14ac:dyDescent="0.15">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="43" ht="33" spans="1:6">
       <c r="A43" s="13" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="E43" s="13"/>
       <c r="F43" s="12" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="44" ht="49.5" spans="1:6">
       <c r="A44" s="13" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="E44" s="13"/>
       <c r="F44" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="33" x14ac:dyDescent="0.15">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="45" ht="33" spans="1:6">
       <c r="A45" s="13" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="E45" s="13"/>
       <c r="F45" s="12" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="46" ht="16.5" spans="1:6">
       <c r="A46" s="13" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="E46" s="13"/>
       <c r="F46" s="13"/>
     </row>
-    <row r="47" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="47" ht="16.5" spans="1:6">
       <c r="A47" s="13" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="E47" s="13"/>
       <c r="F47" s="12" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="13"/>
       <c r="B48" s="13" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="C48" s="13"/>
       <c r="D48" s="9" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="E48" s="13"/>
       <c r="F48" s="13"/>
     </row>
-    <row r="49" spans="1:6" ht="33" x14ac:dyDescent="0.15">
+    <row r="49" ht="33" spans="1:6">
       <c r="A49" s="13" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="E49" s="13"/>
       <c r="F49" s="12" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A50" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="B50" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="C50" s="18"/>
-      <c r="D50" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="E50" s="18"/>
-      <c r="F50" s="18"/>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="C50" s="15"/>
+      <c r="D50" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A4:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="17.625" customWidth="1"/>
     <col min="3" max="3" width="27.25" customWidth="1"/>
@@ -2093,373 +2651,373 @@
     <col min="7" max="7" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6">
       <c r="A4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="E4" s="7" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="8" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="8" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="10"/>
     </row>
-    <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6">
       <c r="A7" s="8" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="10"/>
     </row>
-    <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6">
       <c r="A8" s="8" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="10"/>
     </row>
-    <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6">
       <c r="A9" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>36</v>
-      </c>
       <c r="C9" s="9" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="10"/>
     </row>
-    <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6">
       <c r="A10" s="8" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="10"/>
     </row>
-    <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6">
       <c r="A11" s="8" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="8" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="8" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>10</v>
+        <v>132</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="10" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="8"/>
       <c r="B14" s="9" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>10</v>
+        <v>132</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="10"/>
     </row>
-    <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6">
       <c r="A15" s="8"/>
       <c r="B15" s="9" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>10</v>
+        <v>132</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="10"/>
     </row>
-    <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6">
       <c r="A16" s="8"/>
       <c r="B16" s="9" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>10</v>
+        <v>132</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="10"/>
     </row>
-    <row r="17" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="17" ht="28.5" spans="1:6">
       <c r="A17" s="8" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>10</v>
+        <v>132</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="10" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="8"/>
       <c r="B18" s="9" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9" t="s">
-        <v>10</v>
+        <v>132</v>
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="10"/>
     </row>
-    <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6">
       <c r="A19" s="8"/>
       <c r="B19" s="9" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="9" t="s">
-        <v>10</v>
+        <v>132</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="10"/>
     </row>
-    <row r="20" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="20" ht="28.5" spans="1:6">
       <c r="A20" s="8" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>10</v>
+        <v>132</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="10" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="8" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>10</v>
+        <v>132</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="8" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>10</v>
+        <v>132</v>
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="10" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="8" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>10</v>
+        <v>132</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="8" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>10</v>
+        <v>132</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="10" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="8" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>10</v>
+        <v>132</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="10"/>
     </row>
-    <row r="26" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6">
       <c r="A26" s="8"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
@@ -2467,7 +3025,7 @@
       <c r="E26" s="9"/>
       <c r="F26" s="10"/>
     </row>
-    <row r="27" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6">
       <c r="A27" s="8"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
@@ -2475,7 +3033,7 @@
       <c r="E27" s="9"/>
       <c r="F27" s="10"/>
     </row>
-    <row r="28" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6">
       <c r="A28" s="8"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
@@ -2483,7 +3041,7 @@
       <c r="E28" s="9"/>
       <c r="F28" s="10"/>
     </row>
-    <row r="29" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6">
       <c r="A29" s="8"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -2491,7 +3049,7 @@
       <c r="E29" s="9"/>
       <c r="F29" s="10"/>
     </row>
-    <row r="30" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6">
       <c r="A30" s="9"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
@@ -2499,7 +3057,7 @@
       <c r="E30" s="9"/>
       <c r="F30" s="10"/>
     </row>
-    <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6">
       <c r="A31" s="9"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
@@ -2507,7 +3065,7 @@
       <c r="E31" s="9"/>
       <c r="F31" s="10"/>
     </row>
-    <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6">
       <c r="A32" s="9"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
@@ -2515,7 +3073,7 @@
       <c r="E32" s="9"/>
       <c r="F32" s="10"/>
     </row>
-    <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6">
       <c r="A33" s="9"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
@@ -2524,21 +3082,22 @@
       <c r="F33" s="10"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A4:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E5" sqref="E5:F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="17" customWidth="1"/>
     <col min="3" max="3" width="28" customWidth="1"/>
@@ -2547,307 +3106,293 @@
     <col min="6" max="6" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="4" ht="18.75" spans="1:6">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>13</v>
+        <v>152</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" ht="18.75" spans="1:6">
       <c r="A5" s="4"/>
       <c r="B5" s="5" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="6" ht="18.75" spans="1:6">
       <c r="A6" s="4"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
+        <v>17</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" ht="18.75" spans="1:6">
       <c r="A7" s="4"/>
       <c r="B7" s="5" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
+        <v>17</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" ht="18.75" spans="1:6">
       <c r="A8" s="4"/>
       <c r="B8" s="5" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
     </row>
-    <row r="9" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="9" ht="18.75" spans="1:6">
       <c r="A9" s="4"/>
       <c r="B9" s="5" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
     </row>
-    <row r="10" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="10" ht="18.75" spans="1:6">
       <c r="A10" s="4"/>
       <c r="B10" s="5" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
     </row>
-    <row r="11" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="11" ht="18.75" spans="1:6">
       <c r="A11" s="4"/>
       <c r="B11" s="5" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
     </row>
-    <row r="12" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="12" ht="18.75" spans="1:6">
       <c r="A12" s="4"/>
       <c r="B12" s="5" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>163</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="E12" s="6"/>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="13" ht="18.75" spans="1:6">
       <c r="A13" s="4"/>
       <c r="B13" s="5" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
     </row>
-    <row r="14" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="14" ht="18.75" spans="1:6">
       <c r="A14" s="4"/>
       <c r="B14" s="5" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>164</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="E14" s="6"/>
       <c r="F14" s="6"/>
     </row>
-    <row r="15" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="15" ht="18.75" spans="1:6">
       <c r="A15" s="4"/>
       <c r="B15" s="5" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
     </row>
-    <row r="16" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="16" ht="18.75" spans="1:6">
       <c r="A16" s="4"/>
       <c r="B16" s="5" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>160</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="E16" s="6"/>
       <c r="F16" s="6"/>
     </row>
-    <row r="17" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="17" ht="18.75" spans="1:6">
       <c r="A17" s="4"/>
       <c r="B17" s="5" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>10</v>
+        <v>132</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="18" ht="18.75" spans="1:6">
       <c r="A18" s="4"/>
       <c r="B18" s="5" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>10</v>
+        <v>132</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
-    <row r="19" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="19" ht="18.75" spans="1:6">
       <c r="A19" s="4"/>
       <c r="B19" s="5" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>10</v>
+        <v>132</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="20" ht="18.75" spans="1:6">
       <c r="A20" s="4"/>
       <c r="B20" s="5" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>10</v>
+        <v>132</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="21" ht="18.75" spans="1:6">
       <c r="A21" s="4"/>
       <c r="B21" s="5" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>10</v>
+        <v>132</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
-    <row r="22" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="22" ht="18.75" spans="1:6">
       <c r="A22" s="4"/>
       <c r="B22" s="5" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>10</v>
+        <v>132</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="23" ht="18.75" spans="1:6">
       <c r="A23" s="4"/>
       <c r="B23" s="5" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>10</v>
+        <v>132</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/test/resources/check_sheet.xlsx
+++ b/src/test/resources/check_sheet.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowWidth="13815" windowHeight="10005" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13815" windowHeight="10005" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Target" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="171">
   <si>
     <t>#</t>
   </si>
@@ -530,23 +530,29 @@
   </si>
   <si>
     <t>total</t>
+  </si>
+  <si>
+    <t>2 &lt; x</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>x =~ /db/</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>x =~ /CentOS/</t>
+    <phoneticPr fontId="7"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -554,374 +560,62 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="メイリオ"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Meiryo UI"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="メイリオ"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -966,401 +660,117 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="55">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="23">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="28">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="46" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="46" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="46" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="6" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="46" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="6" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="46" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="6" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="22" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="22" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="28" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="46" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="46" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="39" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="4" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="55">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Currency" xfId="3" builtinId="4"/>
-    <cellStyle name="Comma[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Percent" xfId="5" builtinId="5"/>
-    <cellStyle name="Currency[0]" xfId="6" builtinId="7"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="標準 6" xfId="22"/>
-    <cellStyle name="60% - Accent3" xfId="23" builtinId="40"/>
-    <cellStyle name="Good" xfId="24" builtinId="26"/>
-    <cellStyle name="Output" xfId="25" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="27" builtinId="22"/>
-    <cellStyle name="標準" xfId="28"/>
-    <cellStyle name="Linked Cell" xfId="29" builtinId="24"/>
-    <cellStyle name="Total" xfId="30" builtinId="25"/>
-    <cellStyle name="Bad" xfId="31" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="32" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="33" builtinId="29"/>
-    <cellStyle name="標準 4" xfId="34"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="36" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="37" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="38" builtinId="34"/>
-    <cellStyle name="標準 5" xfId="39"/>
-    <cellStyle name="20% - Accent6" xfId="40" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="41" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="42" builtinId="37"/>
-    <cellStyle name="標準 2" xfId="43"/>
-    <cellStyle name="20% - Accent3" xfId="44" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="45" builtinId="41"/>
-    <cellStyle name="標準 3" xfId="46"/>
-    <cellStyle name="20% - Accent4" xfId="47" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="48" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="49" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="50" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="51" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="52" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="53" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="54" builtinId="52"/>
+  <cellStyles count="7">
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="5"/>
+    <cellStyle name="標準 3" xfId="6"/>
+    <cellStyle name="標準 4" xfId="3"/>
+    <cellStyle name="標準 5" xfId="4"/>
+    <cellStyle name="標準 6" xfId="1"/>
+    <cellStyle name="標準 7" xfId="2"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1650,22 +1060,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5:I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="4" width="26" customWidth="1"/>
     <col min="5" max="8" width="16.875" customWidth="1"/>
     <col min="9" max="9" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" ht="16.5" spans="2:9">
+    <row r="4" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B4" s="12" t="s">
         <v>0</v>
       </c>
@@ -1691,7 +1100,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="2:9">
+    <row r="5" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B5" s="18">
         <v>1</v>
       </c>
@@ -1717,7 +1126,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="2:9">
+    <row r="6" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B6" s="18">
         <v>2</v>
       </c>
@@ -1743,7 +1152,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" ht="16.5" spans="2:9">
+    <row r="7" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B7" s="18">
         <v>3</v>
       </c>
@@ -1769,7 +1178,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" ht="16.5" spans="2:9">
+    <row r="8" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B8" s="12">
         <v>4</v>
       </c>
@@ -1781,7 +1190,7 @@
       <c r="H8" s="12"/>
       <c r="I8" s="22"/>
     </row>
-    <row r="9" ht="16.5" spans="2:9">
+    <row r="9" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B9" s="12">
         <v>5</v>
       </c>
@@ -1793,7 +1202,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="22"/>
     </row>
-    <row r="10" ht="16.5" spans="2:9">
+    <row r="10" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B10" s="12">
         <v>6</v>
       </c>
@@ -1805,7 +1214,7 @@
       <c r="H10" s="12"/>
       <c r="I10" s="22"/>
     </row>
-    <row r="11" ht="16.5" spans="2:9">
+    <row r="11" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B11" s="12">
         <v>7</v>
       </c>
@@ -1817,7 +1226,7 @@
       <c r="H11" s="12"/>
       <c r="I11" s="22"/>
     </row>
-    <row r="12" ht="16.5" spans="2:9">
+    <row r="12" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B12" s="12">
         <v>8</v>
       </c>
@@ -1829,7 +1238,7 @@
       <c r="H12" s="12"/>
       <c r="I12" s="22"/>
     </row>
-    <row r="13" ht="16.5" spans="2:9">
+    <row r="13" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B13" s="12">
         <v>9</v>
       </c>
@@ -1841,7 +1250,7 @@
       <c r="H13" s="12"/>
       <c r="I13" s="22"/>
     </row>
-    <row r="14" ht="16.5" spans="2:9">
+    <row r="14" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B14" s="12">
         <v>10</v>
       </c>
@@ -1853,7 +1262,7 @@
       <c r="H14" s="12"/>
       <c r="I14" s="22"/>
     </row>
-    <row r="15" ht="16.5" spans="2:9">
+    <row r="15" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B15" s="12">
         <v>11</v>
       </c>
@@ -1865,7 +1274,7 @@
       <c r="H15" s="12"/>
       <c r="I15" s="22"/>
     </row>
-    <row r="16" ht="16.5" spans="2:9">
+    <row r="16" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B16" s="12">
         <v>12</v>
       </c>
@@ -1877,7 +1286,7 @@
       <c r="H16" s="12"/>
       <c r="I16" s="22"/>
     </row>
-    <row r="17" ht="16.5" spans="2:9">
+    <row r="17" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B17" s="12">
         <v>13</v>
       </c>
@@ -1889,7 +1298,7 @@
       <c r="H17" s="12"/>
       <c r="I17" s="22"/>
     </row>
-    <row r="18" ht="16.5" spans="2:9">
+    <row r="18" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B18" s="12">
         <v>14</v>
       </c>
@@ -1902,22 +1311,21 @@
       <c r="I18" s="22"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="7"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:F50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="20.625" customWidth="1"/>
     <col min="3" max="3" width="28" customWidth="1"/>
@@ -1927,7 +1335,7 @@
     <col min="7" max="10" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
         <v>11</v>
       </c>
@@ -1947,7 +1355,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="9" t="s">
         <v>25</v>
       </c>
@@ -1965,7 +1373,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="9"/>
       <c r="B6" s="10" t="s">
         <v>30</v>
@@ -1979,7 +1387,7 @@
       <c r="E6" s="10"/>
       <c r="F6" s="11"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
       <c r="B7" s="10" t="s">
         <v>32</v>
@@ -1993,7 +1401,7 @@
       <c r="E7" s="10"/>
       <c r="F7" s="11"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="9"/>
       <c r="B8" s="10" t="s">
         <v>34</v>
@@ -2007,7 +1415,7 @@
       <c r="E8" s="10"/>
       <c r="F8" s="11"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
       <c r="B9" s="10" t="s">
         <v>36</v>
@@ -2021,7 +1429,7 @@
       <c r="E9" s="10"/>
       <c r="F9" s="11"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="9"/>
       <c r="B10" s="10" t="s">
         <v>38</v>
@@ -2035,7 +1443,7 @@
       <c r="E10" s="10"/>
       <c r="F10" s="11"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="9" t="s">
         <v>25</v>
       </c>
@@ -2053,7 +1461,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="9" t="s">
         <v>25</v>
       </c>
@@ -2071,7 +1479,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="9" t="s">
         <v>25</v>
       </c>
@@ -2089,7 +1497,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="9" t="s">
         <v>25</v>
       </c>
@@ -2107,7 +1515,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="9" t="s">
         <v>25</v>
       </c>
@@ -2125,7 +1533,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="9" t="s">
         <v>25</v>
       </c>
@@ -2143,7 +1551,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" ht="28.5" spans="1:6">
+    <row r="17" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A17" s="9" t="s">
         <v>25</v>
       </c>
@@ -2161,7 +1569,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="9"/>
       <c r="B18" s="10" t="s">
         <v>60</v>
@@ -2175,7 +1583,7 @@
       <c r="E18" s="10"/>
       <c r="F18" s="11"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" s="9"/>
       <c r="B19" s="10" t="s">
         <v>62</v>
@@ -2189,7 +1597,7 @@
       <c r="E19" s="10"/>
       <c r="F19" s="11"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A20" s="9"/>
       <c r="B20" s="10" t="s">
         <v>64</v>
@@ -2203,7 +1611,7 @@
       <c r="E20" s="10"/>
       <c r="F20" s="11"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A21" s="9"/>
       <c r="B21" s="10" t="s">
         <v>66</v>
@@ -2217,7 +1625,7 @@
       <c r="E21" s="10"/>
       <c r="F21" s="11"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A22" s="9"/>
       <c r="B22" s="10" t="s">
         <v>68</v>
@@ -2231,7 +1639,7 @@
       <c r="E22" s="10"/>
       <c r="F22" s="11"/>
     </row>
-    <row r="23" ht="42.75" spans="1:6">
+    <row r="23" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A23" s="9" t="s">
         <v>25</v>
       </c>
@@ -2249,7 +1657,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="24" ht="28.5" spans="1:6">
+    <row r="24" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A24" s="9" t="s">
         <v>25</v>
       </c>
@@ -2267,7 +1675,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A25" s="9"/>
       <c r="B25" s="10" t="s">
         <v>76</v>
@@ -2279,7 +1687,7 @@
       <c r="E25" s="10"/>
       <c r="F25" s="11"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A26" s="9"/>
       <c r="B26" s="10" t="s">
         <v>77</v>
@@ -2291,7 +1699,7 @@
       <c r="E26" s="10"/>
       <c r="F26" s="11"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A27" s="9" t="s">
         <v>25</v>
       </c>
@@ -2311,7 +1719,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A28" s="9"/>
       <c r="B28" s="10" t="s">
         <v>81</v>
@@ -2325,7 +1733,7 @@
       <c r="E28" s="10"/>
       <c r="F28" s="11"/>
     </row>
-    <row r="29" ht="28.5" spans="1:6">
+    <row r="29" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A29" s="9" t="s">
         <v>25</v>
       </c>
@@ -2343,7 +1751,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="30" ht="42.75" spans="1:6">
+    <row r="30" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A30" s="9" t="s">
         <v>86</v>
       </c>
@@ -2361,7 +1769,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="31" ht="42.75" spans="1:6">
+    <row r="31" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A31" s="9" t="s">
         <v>25</v>
       </c>
@@ -2379,7 +1787,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="32" ht="71.25" spans="1:6">
+    <row r="32" spans="1:6" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A32" s="10" t="s">
         <v>25</v>
       </c>
@@ -2399,7 +1807,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="33" ht="42.75" spans="1:6">
+    <row r="33" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A33" s="10" t="s">
         <v>25</v>
       </c>
@@ -2417,7 +1825,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A34" s="10" t="s">
         <v>25</v>
       </c>
@@ -2435,7 +1843,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A35" s="10" t="s">
         <v>25</v>
       </c>
@@ -2455,7 +1863,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A36" s="10"/>
       <c r="B36" s="10" t="s">
         <v>105</v>
@@ -2467,7 +1875,7 @@
       <c r="E36" s="10"/>
       <c r="F36" s="11"/>
     </row>
-    <row r="37" ht="16.5" spans="1:6">
+    <row r="37" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A37" s="10" t="s">
         <v>25</v>
       </c>
@@ -2485,7 +1893,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="38" ht="33" spans="1:6">
+    <row r="38" spans="1:6" ht="33" x14ac:dyDescent="0.15">
       <c r="A38" s="10"/>
       <c r="B38" s="10" t="s">
         <v>109</v>
@@ -2501,7 +1909,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A39" s="10" t="s">
         <v>25</v>
       </c>
@@ -2515,7 +1923,7 @@
       <c r="E39" s="10"/>
       <c r="F39" s="11"/>
     </row>
-    <row r="40" ht="16.5" spans="1:6">
+    <row r="40" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A40" s="14" t="s">
         <v>25</v>
       </c>
@@ -2533,7 +1941,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="41" ht="16.5" spans="1:6">
+    <row r="41" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A41" s="14" t="s">
         <v>25</v>
       </c>
@@ -2551,7 +1959,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="42" ht="16.5" spans="1:6">
+    <row r="42" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A42" s="14" t="s">
         <v>25</v>
       </c>
@@ -2569,7 +1977,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="43" ht="33" spans="1:6">
+    <row r="43" spans="1:6" ht="33" x14ac:dyDescent="0.15">
       <c r="A43" s="14" t="s">
         <v>25</v>
       </c>
@@ -2587,7 +1995,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="44" ht="49.5" spans="1:6">
+    <row r="44" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A44" s="14" t="s">
         <v>25</v>
       </c>
@@ -2605,7 +2013,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="45" ht="33" spans="1:6">
+    <row r="45" spans="1:6" ht="33" x14ac:dyDescent="0.15">
       <c r="A45" s="14" t="s">
         <v>25</v>
       </c>
@@ -2623,7 +2031,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="46" ht="16.5" spans="1:6">
+    <row r="46" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A46" s="14" t="s">
         <v>25</v>
       </c>
@@ -2639,7 +2047,7 @@
       <c r="E46" s="14"/>
       <c r="F46" s="14"/>
     </row>
-    <row r="47" ht="16.5" spans="1:6">
+    <row r="47" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A47" s="14" t="s">
         <v>25</v>
       </c>
@@ -2657,7 +2065,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A48" s="14"/>
       <c r="B48" s="14" t="s">
         <v>136</v>
@@ -2669,7 +2077,7 @@
       <c r="E48" s="14"/>
       <c r="F48" s="14"/>
     </row>
-    <row r="49" ht="33" spans="1:6">
+    <row r="49" spans="1:6" ht="33" x14ac:dyDescent="0.15">
       <c r="A49" s="14" t="s">
         <v>25</v>
       </c>
@@ -2687,7 +2095,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A50" s="15" t="s">
         <v>25</v>
       </c>
@@ -2702,22 +2110,21 @@
       <c r="F50" s="16"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="7"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="17.625" customWidth="1"/>
     <col min="3" max="3" width="27.25" customWidth="1"/>
@@ -2727,7 +2134,7 @@
     <col min="7" max="7" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
         <v>11</v>
       </c>
@@ -2747,7 +2154,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="9" t="s">
         <v>25</v>
       </c>
@@ -2765,7 +2172,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="9" t="s">
         <v>25</v>
       </c>
@@ -2781,7 +2188,7 @@
       <c r="E6" s="10"/>
       <c r="F6" s="11"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="9" t="s">
         <v>25</v>
       </c>
@@ -2797,7 +2204,7 @@
       <c r="E7" s="10"/>
       <c r="F7" s="11"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="9" t="s">
         <v>25</v>
       </c>
@@ -2813,7 +2220,7 @@
       <c r="E8" s="10"/>
       <c r="F8" s="11"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="9" t="s">
         <v>25</v>
       </c>
@@ -2829,7 +2236,7 @@
       <c r="E9" s="10"/>
       <c r="F9" s="11"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="9" t="s">
         <v>25</v>
       </c>
@@ -2845,7 +2252,7 @@
       <c r="E10" s="10"/>
       <c r="F10" s="11"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="9" t="s">
         <v>25</v>
       </c>
@@ -2863,7 +2270,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="9" t="s">
         <v>25</v>
       </c>
@@ -2881,7 +2288,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="9" t="s">
         <v>25</v>
       </c>
@@ -2899,7 +2306,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="9"/>
       <c r="B14" s="10" t="s">
         <v>60</v>
@@ -2913,7 +2320,7 @@
       <c r="E14" s="10"/>
       <c r="F14" s="11"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="9"/>
       <c r="B15" s="10" t="s">
         <v>62</v>
@@ -2927,7 +2334,7 @@
       <c r="E15" s="10"/>
       <c r="F15" s="11"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="9"/>
       <c r="B16" s="10" t="s">
         <v>64</v>
@@ -2941,7 +2348,7 @@
       <c r="E16" s="10"/>
       <c r="F16" s="11"/>
     </row>
-    <row r="17" ht="28.5" spans="1:6">
+    <row r="17" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A17" s="9" t="s">
         <v>25</v>
       </c>
@@ -2959,7 +2366,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="9"/>
       <c r="B18" s="10" t="s">
         <v>146</v>
@@ -2971,7 +2378,7 @@
       <c r="E18" s="10"/>
       <c r="F18" s="11"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" s="9"/>
       <c r="B19" s="10" t="s">
         <v>147</v>
@@ -2983,7 +2390,7 @@
       <c r="E19" s="10"/>
       <c r="F19" s="11"/>
     </row>
-    <row r="20" ht="28.5" spans="1:6">
+    <row r="20" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A20" s="9" t="s">
         <v>25</v>
       </c>
@@ -3001,7 +2408,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A21" s="9" t="s">
         <v>25</v>
       </c>
@@ -3021,7 +2428,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A22" s="9" t="s">
         <v>25</v>
       </c>
@@ -3039,7 +2446,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A23" s="9" t="s">
         <v>25</v>
       </c>
@@ -3059,7 +2466,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A24" s="9" t="s">
         <v>25</v>
       </c>
@@ -3077,7 +2484,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A25" s="9" t="s">
         <v>25</v>
       </c>
@@ -3093,7 +2500,7 @@
       <c r="E25" s="10"/>
       <c r="F25" s="11"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A26" s="9"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
@@ -3101,7 +2508,7 @@
       <c r="E26" s="10"/>
       <c r="F26" s="11"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A27" s="9"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -3109,7 +2516,7 @@
       <c r="E27" s="10"/>
       <c r="F27" s="11"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A28" s="9"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -3117,7 +2524,7 @@
       <c r="E28" s="10"/>
       <c r="F28" s="11"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A29" s="9"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
@@ -3125,7 +2532,7 @@
       <c r="E29" s="10"/>
       <c r="F29" s="11"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A30" s="10"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
@@ -3133,7 +2540,7 @@
       <c r="E30" s="10"/>
       <c r="F30" s="11"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A31" s="10"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
@@ -3141,7 +2548,7 @@
       <c r="E31" s="10"/>
       <c r="F31" s="11"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A32" s="10"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
@@ -3149,7 +2556,7 @@
       <c r="E32" s="10"/>
       <c r="F32" s="11"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A33" s="10"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
@@ -3158,31 +2565,29 @@
       <c r="F33" s="11"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="7"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="17" customWidth="1"/>
     <col min="3" max="3" width="28" customWidth="1"/>
     <col min="4" max="4" width="9.75" customWidth="1"/>
-    <col min="5" max="5" width="16.125" customWidth="1"/>
-    <col min="6" max="6" width="16.25" customWidth="1"/>
+    <col min="5" max="6" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" ht="18.75" spans="1:6">
+    <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>20</v>
@@ -3200,7 +2605,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" ht="18.75" spans="1:6">
+    <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A5" s="4"/>
       <c r="B5" s="5" t="s">
         <v>26</v>
@@ -3214,7 +2619,7 @@
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
     </row>
-    <row r="6" ht="18.75" spans="1:6">
+    <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
       <c r="B6" s="5" t="s">
         <v>30</v>
@@ -3226,13 +2631,13 @@
         <v>28</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="7" ht="18.75" spans="1:6">
+    <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
       <c r="B7" s="5" t="s">
         <v>34</v>
@@ -3250,7 +2655,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="8" ht="18.75" spans="1:6">
+    <row r="8" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
       <c r="B8" s="5" t="s">
         <v>36</v>
@@ -3264,9 +2669,11 @@
       <c r="E8" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="F8" s="7"/>
-    </row>
-    <row r="9" ht="18.75" spans="1:6">
+      <c r="F8" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="B9" s="5" t="s">
         <v>38</v>
@@ -3280,7 +2687,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" ht="18.75" spans="1:6">
+    <row r="10" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="5" t="s">
         <v>40</v>
@@ -3294,7 +2701,7 @@
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" ht="18.75" spans="1:6">
+    <row r="11" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="5" t="s">
         <v>43</v>
@@ -3308,7 +2715,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
     </row>
-    <row r="12" ht="18.75" spans="1:6">
+    <row r="12" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
       <c r="B12" s="5" t="s">
         <v>46</v>
@@ -3322,9 +2729,11 @@
       <c r="E12" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="F12" s="7"/>
-    </row>
-    <row r="13" ht="18.75" spans="1:6">
+      <c r="F12" s="7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="5" t="s">
         <v>52</v>
@@ -3338,7 +2747,7 @@
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
     </row>
-    <row r="14" ht="18.75" spans="1:6">
+    <row r="14" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="5" t="s">
         <v>54</v>
@@ -3352,9 +2761,11 @@
       <c r="E14" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="F14" s="7"/>
-    </row>
-    <row r="15" ht="18.75" spans="1:6">
+      <c r="F14" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="5" t="s">
         <v>64</v>
@@ -3368,7 +2779,7 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" ht="18.75" spans="1:6">
+    <row r="16" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
       <c r="B16" s="5" t="s">
         <v>167</v>
@@ -3384,7 +2795,7 @@
       </c>
       <c r="F16" s="7"/>
     </row>
-    <row r="17" ht="18.75" spans="1:6">
+    <row r="17" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
       <c r="B17" s="5" t="s">
         <v>57</v>
@@ -3398,7 +2809,7 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
     </row>
-    <row r="18" ht="18.75" spans="1:6">
+    <row r="18" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
       <c r="B18" s="5" t="s">
         <v>144</v>
@@ -3412,7 +2823,7 @@
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
     </row>
-    <row r="19" ht="18.75" spans="1:6">
+    <row r="19" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
       <c r="B19" s="5" t="s">
         <v>148</v>
@@ -3426,7 +2837,7 @@
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" ht="18.75" spans="1:6">
+    <row r="20" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A20" s="4"/>
       <c r="B20" s="5" t="s">
         <v>93</v>
@@ -3440,7 +2851,7 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
     </row>
-    <row r="21" ht="18.75" spans="1:6">
+    <row r="21" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
       <c r="B21" s="5" t="s">
         <v>96</v>
@@ -3454,7 +2865,7 @@
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
     </row>
-    <row r="22" ht="18.75" spans="1:6">
+    <row r="22" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A22" s="4"/>
       <c r="B22" s="5" t="s">
         <v>78</v>
@@ -3468,7 +2879,7 @@
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
     </row>
-    <row r="23" ht="18.75" spans="1:6">
+    <row r="23" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A23" s="4"/>
       <c r="B23" s="5" t="s">
         <v>157</v>
@@ -3483,8 +2894,8 @@
       <c r="F23" s="7"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="7"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/src/test/resources/check_sheet.xlsx
+++ b/src/test/resources/check_sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13815" windowHeight="10005" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13815" windowHeight="10005"/>
   </bookViews>
   <sheets>
     <sheet name="Target" sheetId="1" r:id="rId1"/>
@@ -17,31 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="171">
-  <si>
-    <t>#</t>
-  </si>
-  <si>
-    <t>Server</t>
-  </si>
-  <si>
-    <t>IP</t>
-  </si>
-  <si>
-    <t>OS</t>
-  </si>
-  <si>
-    <t>OSAccountID</t>
-  </si>
-  <si>
-    <t>vCenterID</t>
-  </si>
-  <si>
-    <t>VM</t>
-  </si>
-  <si>
-    <t>VerifyID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="183">
   <si>
     <t>win2012</t>
   </si>
@@ -542,13 +518,178 @@
   <si>
     <t>x =~ /CentOS/</t>
     <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>定義</t>
+    <rPh sb="0" eb="2">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>チェックシートのID。設定ファイル内evidence.sheet_name_specのIDを指定</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>SSH接続、PowerShell内コマンドで接続するIPアドレス</t>
+    <rPh sb="3" eb="5">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>セツゾク</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>ローカル採取で使用するアカウントID。OSの情報採取の場合、対象サーバのOSアカウントを指定し、設定ファイル内パラメータaccount.{ドメイン}.{ID}のIDを指定する。リモート採取の場合は未記入</t>
+    <rPh sb="44" eb="46">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>検査対象サーバ名</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>シート「検証ルール」のIDを指定。検証が不要な場合は未記入</t>
+    <rPh sb="4" eb="6">
+      <t>ケンショウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ケンショウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>フヨウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="26" eb="29">
+      <t>ミキニュウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>リモート採取で使用するアカウントID。vCenterサーバなどリモートから情報採取をする場合のリモートのアカウントIDを指定する。ローカル採取の場合は未記入</t>
+    <rPh sb="69" eb="71">
+      <t>サイシュ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="75" eb="78">
+      <t>ミキニュウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>項目ID</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>server_name</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>ip</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>platform</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>os_account_id</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>verify_id</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>new_item</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>test1</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>test2</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>test3</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>リモート採取をする場合の、検査対象サーバ名のエイリアス名。vCenterの場合、vm名。ローカル採取の場合は未記入</t>
+    <rPh sb="4" eb="6">
+      <t>サイシュ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ケンサ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>サイシュ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="54" eb="57">
+      <t>ミキニュウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>remote_account_id</t>
+  </si>
+  <si>
+    <t>remote_alias</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -601,6 +742,14 @@
     </font>
     <font>
       <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -684,7 +833,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -739,20 +888,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="4" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1061,254 +1201,331 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:I18"/>
+  <dimension ref="B4:M18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:I7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="4" width="26" customWidth="1"/>
-    <col min="5" max="8" width="16.875" customWidth="1"/>
-    <col min="9" max="9" width="12.25" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.25" customWidth="1"/>
+    <col min="4" max="6" width="16.125" customWidth="1"/>
+    <col min="7" max="13" width="6.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B4" s="12" t="s">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B4" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="D4" s="18">
+        <v>1</v>
+      </c>
+      <c r="E4" s="18">
+        <v>2</v>
+      </c>
+      <c r="F4" s="18">
+        <v>3</v>
+      </c>
+      <c r="G4" s="18">
+        <v>4</v>
+      </c>
+      <c r="H4" s="18">
+        <v>5</v>
+      </c>
+      <c r="I4" s="18">
+        <v>6</v>
+      </c>
+      <c r="J4" s="18">
+        <v>7</v>
+      </c>
+      <c r="K4" s="18">
+        <v>8</v>
+      </c>
+      <c r="L4" s="18">
+        <v>9</v>
+      </c>
+      <c r="M4" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="D5" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="E5" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+    </row>
+    <row r="6" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="D6" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" s="19" t="s">
+      <c r="E6" s="18" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B5" s="18">
-        <v>1</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B6" s="18">
-        <v>2</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>16</v>
       </c>
       <c r="F6" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B7" s="18">
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+    </row>
+    <row r="7" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+    </row>
+    <row r="8" spans="2:13" ht="48" x14ac:dyDescent="0.15">
+      <c r="B8" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="D8" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B8" s="12">
+      <c r="E8" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+    </row>
+    <row r="9" spans="2:13" ht="57" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+    </row>
+    <row r="10" spans="2:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="D10" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="22"/>
-    </row>
-    <row r="9" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B9" s="12">
+      <c r="E10" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+    </row>
+    <row r="11" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="D11" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="22"/>
-    </row>
-    <row r="10" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B10" s="12">
-        <v>6</v>
-      </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="22"/>
-    </row>
-    <row r="11" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B11" s="12">
-        <v>7</v>
-      </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="22"/>
-    </row>
-    <row r="12" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B12" s="12">
-        <v>8</v>
-      </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="22"/>
-    </row>
-    <row r="13" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B13" s="12">
+      <c r="E11" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="22"/>
-    </row>
-    <row r="14" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B14" s="12">
-        <v>10</v>
-      </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="22"/>
-    </row>
-    <row r="15" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B15" s="12">
-        <v>11</v>
-      </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="22"/>
-    </row>
-    <row r="16" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B16" s="12">
-        <v>12</v>
-      </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="22"/>
-    </row>
-    <row r="17" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B17" s="12">
-        <v>13</v>
-      </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="22"/>
-    </row>
-    <row r="18" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B18" s="12">
-        <v>14</v>
-      </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="22"/>
+      <c r="F11" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B12" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7"/>
@@ -1337,52 +1554,52 @@
   <sheetData>
     <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="9" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="11" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="9"/>
       <c r="B6" s="10" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="11"/>
@@ -1390,13 +1607,13 @@
     <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
       <c r="B7" s="10" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="11"/>
@@ -1404,13 +1621,13 @@
     <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="9"/>
       <c r="B8" s="10" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="11"/>
@@ -1418,13 +1635,13 @@
     <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
       <c r="B9" s="10" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="11"/>
@@ -1432,153 +1649,153 @@
     <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="9"/>
       <c r="B10" s="10" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="11"/>
     </row>
     <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="9" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="11" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="9" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="11" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="9" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="11" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="9" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="11" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="9" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="11" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="9" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="11" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A17" s="9" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="11" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="9"/>
       <c r="B18" s="10" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="11"/>
@@ -1586,13 +1803,13 @@
     <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" s="9"/>
       <c r="B19" s="10" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="11"/>
@@ -1600,13 +1817,13 @@
     <row r="20" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A20" s="9"/>
       <c r="B20" s="10" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="11"/>
@@ -1614,13 +1831,13 @@
     <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A21" s="9"/>
       <c r="B21" s="10" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="11"/>
@@ -1628,61 +1845,61 @@
     <row r="22" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A22" s="9"/>
       <c r="B22" s="10" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E22" s="10"/>
       <c r="F22" s="11"/>
     </row>
     <row r="23" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A23" s="9" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="11" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A24" s="9" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E24" s="10"/>
       <c r="F24" s="11" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A25" s="9"/>
       <c r="B25" s="10" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="10" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E25" s="10"/>
       <c r="F25" s="11"/>
@@ -1690,421 +1907,421 @@
     <row r="26" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A26" s="9"/>
       <c r="B26" s="10" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C26" s="10"/>
       <c r="D26" s="10" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E26" s="10"/>
       <c r="F26" s="11"/>
     </row>
     <row r="27" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A27" s="9" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A28" s="9"/>
       <c r="B28" s="10" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E28" s="10"/>
       <c r="F28" s="11"/>
     </row>
     <row r="29" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A29" s="9" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E29" s="10"/>
       <c r="F29" s="11" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A30" s="9" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E30" s="10"/>
       <c r="F30" s="11" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A31" s="9" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E31" s="10"/>
       <c r="F31" s="11" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A32" s="10" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A33" s="10" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E33" s="10"/>
       <c r="F33" s="11" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A34" s="10" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E34" s="10"/>
       <c r="F34" s="11" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A35" s="10" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A36" s="10"/>
       <c r="B36" s="10" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C36" s="10"/>
       <c r="D36" s="10" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E36" s="10"/>
       <c r="F36" s="11"/>
     </row>
     <row r="37" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A37" s="10" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E37" s="10"/>
       <c r="F37" s="13" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="33" x14ac:dyDescent="0.15">
       <c r="A38" s="10"/>
       <c r="B38" s="10" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E38" s="10"/>
       <c r="F38" s="13" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A39" s="10" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C39" s="10"/>
       <c r="D39" s="10" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E39" s="10"/>
       <c r="F39" s="11"/>
     </row>
     <row r="40" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A40" s="14" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E40" s="14"/>
       <c r="F40" s="13" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A41" s="14" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E41" s="14"/>
       <c r="F41" s="13" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A42" s="14" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E42" s="14"/>
       <c r="F42" s="13" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="33" x14ac:dyDescent="0.15">
       <c r="A43" s="14" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E43" s="14"/>
       <c r="F43" s="13" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A44" s="14" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E44" s="14"/>
       <c r="F44" s="13" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="33" x14ac:dyDescent="0.15">
       <c r="A45" s="14" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E45" s="14"/>
       <c r="F45" s="13" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A46" s="14" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E46" s="14"/>
       <c r="F46" s="14"/>
     </row>
     <row r="47" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A47" s="14" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E47" s="14"/>
       <c r="F47" s="13" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A48" s="14"/>
       <c r="B48" s="14" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C48" s="14"/>
       <c r="D48" s="10" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E48" s="14"/>
       <c r="F48" s="14"/>
     </row>
     <row r="49" spans="1:6" ht="33" x14ac:dyDescent="0.15">
       <c r="A49" s="14" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E49" s="14"/>
       <c r="F49" s="13" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A50" s="15" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C50" s="16"/>
       <c r="D50" s="17" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E50" s="16"/>
       <c r="F50" s="16"/>
@@ -2136,186 +2353,186 @@
   <sheetData>
     <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="9" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="11" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="9" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="11"/>
     </row>
     <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>33</v>
-      </c>
       <c r="D7" s="10" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="11"/>
     </row>
     <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="9" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="11"/>
     </row>
     <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="9" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="11"/>
     </row>
     <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="9" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="11"/>
     </row>
     <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="9" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="11" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="9" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="11" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="9" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="11" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="9"/>
       <c r="B14" s="10" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="11"/>
@@ -2323,13 +2540,13 @@
     <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="9"/>
       <c r="B15" s="10" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="11"/>
@@ -2337,43 +2554,43 @@
     <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="9"/>
       <c r="B16" s="10" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="11"/>
     </row>
     <row r="17" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A17" s="9" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="11" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="9"/>
       <c r="B18" s="10" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="10" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="11"/>
@@ -2381,121 +2598,121 @@
     <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" s="9"/>
       <c r="B19" s="10" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="10" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="11"/>
     </row>
     <row r="20" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A20" s="9" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="11" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A21" s="9" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A22" s="9" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E22" s="10"/>
       <c r="F22" s="11" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A23" s="9" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A24" s="9" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E24" s="10"/>
       <c r="F24" s="11" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A25" s="9" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E25" s="10"/>
       <c r="F25" s="11"/>
@@ -2575,7 +2792,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
@@ -2590,31 +2807,31 @@
     <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A5" s="4"/>
       <c r="B5" s="5" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
@@ -2622,67 +2839,67 @@
     <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
       <c r="B7" s="5" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
       <c r="B8" s="5" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="B9" s="5" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
@@ -2690,13 +2907,13 @@
     <row r="10" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="5" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
@@ -2704,13 +2921,13 @@
     <row r="11" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="5" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
@@ -2718,31 +2935,31 @@
     <row r="12" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
       <c r="B12" s="5" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="5" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
@@ -2750,31 +2967,31 @@
     <row r="14" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="5" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="5" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
@@ -2782,29 +2999,29 @@
     <row r="16" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
       <c r="B16" s="5" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="F16" s="7"/>
     </row>
     <row r="17" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
       <c r="B17" s="5" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
@@ -2812,13 +3029,13 @@
     <row r="18" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
       <c r="B18" s="5" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
@@ -2826,13 +3043,13 @@
     <row r="19" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
       <c r="B19" s="5" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
@@ -2840,13 +3057,13 @@
     <row r="20" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A20" s="4"/>
       <c r="B20" s="5" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
@@ -2854,13 +3071,13 @@
     <row r="21" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
       <c r="B21" s="5" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
@@ -2868,13 +3085,13 @@
     <row r="22" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A22" s="4"/>
       <c r="B22" s="5" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
@@ -2882,13 +3099,13 @@
     <row r="23" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A23" s="4"/>
       <c r="B23" s="5" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>

--- a/src/test/resources/check_sheet.xlsx
+++ b/src/test/resources/check_sheet.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13815" windowHeight="10005"/>
+    <workbookView windowWidth="28695" windowHeight="14820" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Target" sheetId="1" r:id="rId1"/>
@@ -17,42 +17,114 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184">
+  <si>
+    <t>項目ID</t>
+  </si>
+  <si>
+    <t>定義</t>
+  </si>
+  <si>
+    <t>server_name</t>
+  </si>
+  <si>
+    <t>検査対象サーバ名</t>
+  </si>
   <si>
     <t>win2012</t>
   </si>
   <si>
+    <t>ostrich</t>
+  </si>
+  <si>
+    <t>testtestdb</t>
+  </si>
+  <si>
+    <t>ip</t>
+  </si>
+  <si>
+    <t>SSH接続、PowerShell内コマンドで接続するIPアドレス</t>
+  </si>
+  <si>
     <t>192.168.10.1</t>
   </si>
   <si>
+    <t>192.168.10.2</t>
+  </si>
+  <si>
+    <t>192.168.10.3</t>
+  </si>
+  <si>
+    <t>platform</t>
+  </si>
+  <si>
+    <t>チェックシートのID。設定ファイル内evidence.sheet_name_specのIDを指定</t>
+  </si>
+  <si>
     <t>Windows</t>
   </si>
   <si>
+    <t>Linux</t>
+  </si>
+  <si>
+    <t>os_account_id</t>
+  </si>
+  <si>
+    <t>ローカル採取で使用するアカウントID。OSの情報採取の場合、対象サーバのOSアカウントを指定し、設定ファイル内パラメータaccount.{ドメイン}.{ID}のIDを指定する。リモート採取のみの場合は未記入</t>
+  </si>
+  <si>
     <t>Test</t>
   </si>
   <si>
+    <t>remote_account_id</t>
+  </si>
+  <si>
+    <t>リモート採取で使用するアカウントID。vCenterサーバなどリモートから情報採取をする場合のリモートのアカウントIDを指定する。ローカル採取の場合は未記入</t>
+  </si>
+  <si>
+    <t>remote_alias</t>
+  </si>
+  <si>
+    <t>リモート採取をする場合の、検査対象サーバ名のエイリアス名。vCenterの場合、vm名。ローカル採取の場合は未記入</t>
+  </si>
+  <si>
     <t>win2012.ostrich</t>
   </si>
   <si>
+    <t>verify_id</t>
+  </si>
+  <si>
+    <t>シート「検証ルール」のIDを指定。検証が不要な場合は未記入</t>
+  </si>
+  <si>
     <t>RuleAP</t>
   </si>
   <si>
-    <t>ostrich</t>
-  </si>
-  <si>
-    <t>192.168.10.2</t>
-  </si>
-  <si>
-    <t>Linux</t>
-  </si>
-  <si>
     <t>RuleDB</t>
   </si>
   <si>
-    <t>testtestdb</t>
-  </si>
-  <si>
-    <t>192.168.10.3</t>
+    <t>new_item</t>
+  </si>
+  <si>
+    <t>test1</t>
+  </si>
+  <si>
+    <t>test2</t>
+  </si>
+  <si>
+    <t>test3</t>
+  </si>
+  <si>
+    <t>NumCpu</t>
+  </si>
+  <si>
+    <t>CPU割り当て検査値</t>
+  </si>
+  <si>
+    <t>MemoryGB</t>
+  </si>
+  <si>
+    <t>メモリ容量[GB]割り当て検査値</t>
   </si>
   <si>
     <t>ID</t>
@@ -85,9 +157,6 @@
     <t>VMWare CPU,メモリ割り当て、 電源On-Off、ホストIPの検索</t>
   </si>
   <si>
-    <t>NumCpu</t>
-  </si>
-  <si>
     <t>CPU割り当て数</t>
   </si>
   <si>
@@ -95,9 +164,6 @@
   </si>
   <si>
     <t>電源状態</t>
-  </si>
-  <si>
-    <t>MemoryGB</t>
   </si>
   <si>
     <t>メモリ割り当て</t>
@@ -487,213 +553,48 @@
     <t>ストレージタイムアウト値</t>
   </si>
   <si>
+    <t>2 &lt; x</t>
+  </si>
+  <si>
+    <t>4 &lt; x</t>
+  </si>
+  <si>
+    <t>2 &lt; x &amp;&amp; x &lt; 8</t>
+  </si>
+  <si>
+    <t>x =~ /rich/</t>
+  </si>
+  <si>
+    <t>x =~ /win/</t>
+  </si>
+  <si>
+    <t>x =~ /db/</t>
+  </si>
+  <si>
+    <t>x =~ /CentOS/</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
     <t>1 &lt; x</t>
-  </si>
-  <si>
-    <t>4 &lt; x</t>
-  </si>
-  <si>
-    <t>2 &lt; x &amp;&amp; x &lt; 8</t>
-  </si>
-  <si>
-    <t>x =~ /rich/</t>
-  </si>
-  <si>
-    <t>x =~ /win/</t>
-  </si>
-  <si>
-    <t>x =~ /CentOS/</t>
-  </si>
-  <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>2 &lt; x</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>x =~ /db/</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>x =~ /CentOS/</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>定義</t>
-    <rPh sb="0" eb="2">
-      <t>テイギ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>チェックシートのID。設定ファイル内evidence.sheet_name_specのIDを指定</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>SSH接続、PowerShell内コマンドで接続するIPアドレス</t>
-    <rPh sb="3" eb="5">
-      <t>セツゾク</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>セツゾク</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>ローカル採取で使用するアカウントID。OSの情報採取の場合、対象サーバのOSアカウントを指定し、設定ファイル内パラメータaccount.{ドメイン}.{ID}のIDを指定する。リモート採取の場合は未記入</t>
-    <rPh sb="44" eb="46">
-      <t>シテイ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>検査対象サーバ名</t>
-    <rPh sb="0" eb="2">
-      <t>ケンサ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>シート「検証ルール」のIDを指定。検証が不要な場合は未記入</t>
-    <rPh sb="4" eb="6">
-      <t>ケンショウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ケンショウ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>フヨウ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="26" eb="29">
-      <t>ミキニュウ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>リモート採取で使用するアカウントID。vCenterサーバなどリモートから情報採取をする場合のリモートのアカウントIDを指定する。ローカル採取の場合は未記入</t>
-    <rPh sb="69" eb="71">
-      <t>サイシュ</t>
-    </rPh>
-    <rPh sb="72" eb="74">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="75" eb="78">
-      <t>ミキニュウ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>項目ID</t>
-    <rPh sb="0" eb="2">
-      <t>コウモク</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>server_name</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>ip</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>platform</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>os_account_id</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>verify_id</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>new_item</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>test1</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>test2</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>test3</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>リモート採取をする場合の、検査対象サーバ名のエイリアス名。vCenterの場合、vm名。ローカル採取の場合は未記入</t>
-    <rPh sb="4" eb="6">
-      <t>サイシュ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ケンサ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>サイシュ</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="54" eb="57">
-      <t>ミキニュウ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>remote_account_id</t>
-  </si>
-  <si>
-    <t>remote_alias</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -701,70 +602,381 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="メイリオ"/>
-      <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Meiryo UI"/>
-      <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="メイリオ"/>
-      <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -809,108 +1021,396 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="20">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="6" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="6" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="29">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="47" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="47" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="47" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="47" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="47" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="47" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="47" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="47" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="47" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="6" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="47" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="47" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="23" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="23" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="11" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="47" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="29" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="29" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="5"/>
-    <cellStyle name="標準 3" xfId="6"/>
-    <cellStyle name="標準 4" xfId="3"/>
-    <cellStyle name="標準 5" xfId="4"/>
-    <cellStyle name="標準 6" xfId="1"/>
-    <cellStyle name="標準 7" xfId="2"/>
+  <cellStyles count="56">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Currency" xfId="3" builtinId="4"/>
+    <cellStyle name="Comma[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Percent" xfId="5" builtinId="5"/>
+    <cellStyle name="Currency[0]" xfId="6" builtinId="7"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="標準 7" xfId="11"/>
+    <cellStyle name="60% - Accent4" xfId="12" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="14" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="15" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="16" builtinId="35"/>
+    <cellStyle name="Title" xfId="17" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="18" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="19" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="20" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="21" builtinId="19"/>
+    <cellStyle name="Input" xfId="22" builtinId="20"/>
+    <cellStyle name="標準 6" xfId="23"/>
+    <cellStyle name="60% - Accent3" xfId="24" builtinId="40"/>
+    <cellStyle name="Good" xfId="25" builtinId="26"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="27" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="28" builtinId="22"/>
+    <cellStyle name="標準" xfId="29"/>
+    <cellStyle name="Linked Cell" xfId="30" builtinId="24"/>
+    <cellStyle name="Total" xfId="31" builtinId="25"/>
+    <cellStyle name="Bad" xfId="32" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="33" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="34" builtinId="29"/>
+    <cellStyle name="標準 4" xfId="35"/>
+    <cellStyle name="20% - Accent5" xfId="36" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="37" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="38" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="39" builtinId="34"/>
+    <cellStyle name="標準 5" xfId="40"/>
+    <cellStyle name="20% - Accent6" xfId="41" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="42" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="43" builtinId="37"/>
+    <cellStyle name="標準 2" xfId="44"/>
+    <cellStyle name="20% - Accent3" xfId="45" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="46" builtinId="41"/>
+    <cellStyle name="標準 3" xfId="47"/>
+    <cellStyle name="20% - Accent4" xfId="48" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="49" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="50" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="51" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="52" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="53" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="54" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="55" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1200,27 +1700,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="B4:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="36.25" customWidth="1"/>
     <col min="4" max="6" width="16.125" customWidth="1"/>
     <col min="7" max="13" width="6.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:13">
       <c r="B4" s="18" t="s">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>163</v>
+        <v>1</v>
       </c>
       <c r="D4" s="18">
         <v>1</v>
@@ -1253,21 +1754,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" ht="30" customHeight="1" spans="2:13">
       <c r="B5" s="18" t="s">
-        <v>171</v>
+        <v>2</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>167</v>
+        <v>3</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E5" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="18" t="s">
         <v>6</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>10</v>
       </c>
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
@@ -1277,18 +1778,18 @@
       <c r="L5" s="18"/>
       <c r="M5" s="18"/>
     </row>
-    <row r="6" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" ht="30" customHeight="1" spans="2:13">
       <c r="B6" s="18" t="s">
-        <v>172</v>
+        <v>7</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>165</v>
+        <v>8</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F6" s="18" t="s">
         <v>11</v>
@@ -1301,21 +1802,21 @@
       <c r="L6" s="18"/>
       <c r="M6" s="18"/>
     </row>
-    <row r="7" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" ht="30" customHeight="1" spans="2:13">
       <c r="B7" s="18" t="s">
-        <v>173</v>
+        <v>12</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>164</v>
+        <v>13</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="G7" s="18"/>
       <c r="H7" s="18"/>
@@ -1325,21 +1826,21 @@
       <c r="L7" s="18"/>
       <c r="M7" s="18"/>
     </row>
-    <row r="8" spans="2:13" ht="48" x14ac:dyDescent="0.15">
+    <row r="8" ht="62.25" spans="2:13">
       <c r="B8" s="18" t="s">
-        <v>174</v>
+        <v>16</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>166</v>
+        <v>17</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
@@ -1349,21 +1850,21 @@
       <c r="L8" s="18"/>
       <c r="M8" s="18"/>
     </row>
-    <row r="9" spans="2:13" ht="57" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" ht="57" customHeight="1" spans="2:13">
       <c r="B9" s="18" t="s">
-        <v>181</v>
+        <v>19</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>169</v>
+        <v>20</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="G9" s="18"/>
       <c r="H9" s="18"/>
@@ -1373,21 +1874,21 @@
       <c r="L9" s="18"/>
       <c r="M9" s="18"/>
     </row>
-    <row r="10" spans="2:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" ht="38.25" customHeight="1" spans="2:13">
       <c r="B10" s="18" t="s">
-        <v>182</v>
+        <v>21</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>180</v>
+        <v>22</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="E10" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="18" t="s">
         <v>6</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>10</v>
       </c>
       <c r="G10" s="18"/>
       <c r="H10" s="18"/>
@@ -1397,22 +1898,20 @@
       <c r="L10" s="18"/>
       <c r="M10" s="18"/>
     </row>
-    <row r="11" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" ht="30" customHeight="1" spans="2:13">
       <c r="B11" s="18" t="s">
-        <v>175</v>
+        <v>24</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>168</v>
+        <v>25</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>9</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="F11" s="18"/>
       <c r="G11" s="18"/>
       <c r="H11" s="18"/>
       <c r="I11" s="18"/>
@@ -1421,19 +1920,19 @@
       <c r="L11" s="18"/>
       <c r="M11" s="18"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:13">
       <c r="B12" s="18" t="s">
-        <v>176</v>
+        <v>28</v>
       </c>
       <c r="C12" s="18"/>
       <c r="D12" s="18" t="s">
-        <v>177</v>
+        <v>29</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>179</v>
+        <v>31</v>
       </c>
       <c r="G12" s="18"/>
       <c r="H12" s="18"/>
@@ -1443,12 +1942,18 @@
       <c r="L12" s="18"/>
       <c r="M12" s="18"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
+    <row r="13" spans="2:13">
+      <c r="B13" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>33</v>
+      </c>
       <c r="D13" s="18"/>
       <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
+      <c r="F13" s="18">
+        <v>2</v>
+      </c>
       <c r="G13" s="18"/>
       <c r="H13" s="18"/>
       <c r="I13" s="18"/>
@@ -1457,12 +1962,18 @@
       <c r="L13" s="18"/>
       <c r="M13" s="18"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
+    <row r="14" spans="2:13">
+      <c r="B14" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>35</v>
+      </c>
       <c r="D14" s="18"/>
       <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
+      <c r="F14" s="18">
+        <v>2</v>
+      </c>
       <c r="G14" s="18"/>
       <c r="H14" s="18"/>
       <c r="I14" s="18"/>
@@ -1471,7 +1982,7 @@
       <c r="L14" s="18"/>
       <c r="M14" s="18"/>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:13">
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
@@ -1485,7 +1996,7 @@
       <c r="L15" s="18"/>
       <c r="M15" s="18"/>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:13">
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
@@ -1499,7 +2010,7 @@
       <c r="L16" s="18"/>
       <c r="M16" s="18"/>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:13">
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
@@ -1513,7 +2024,7 @@
       <c r="L17" s="18"/>
       <c r="M17" s="18"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:13">
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
       <c r="D18" s="18"/>
@@ -1528,21 +2039,22 @@
       <c r="M18" s="18"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A4:F50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A27" workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="20.625" customWidth="1"/>
     <col min="3" max="3" width="28" customWidth="1"/>
@@ -1552,796 +2064,797 @@
     <col min="7" max="10" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6">
       <c r="A4" s="8" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="9" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="9"/>
       <c r="B6" s="10" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="11"/>
     </row>
-    <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6">
       <c r="A7" s="9"/>
       <c r="B7" s="10" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="11"/>
     </row>
-    <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6">
       <c r="A8" s="9"/>
       <c r="B8" s="10" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="11"/>
     </row>
-    <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6">
       <c r="A9" s="9"/>
       <c r="B9" s="10" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="11"/>
     </row>
-    <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6">
       <c r="A10" s="9"/>
       <c r="B10" s="10" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="11"/>
     </row>
-    <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6">
       <c r="A11" s="9" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="9" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="9" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="9" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="9" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="9" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" ht="28.5" spans="1:6">
       <c r="A17" s="9" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="9"/>
       <c r="B18" s="10" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="11"/>
     </row>
-    <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6">
       <c r="A19" s="9"/>
       <c r="B19" s="10" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="11"/>
     </row>
-    <row r="20" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6">
       <c r="A20" s="9"/>
       <c r="B20" s="10" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="11"/>
     </row>
-    <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6">
       <c r="A21" s="9"/>
       <c r="B21" s="10" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="11"/>
     </row>
-    <row r="22" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6">
       <c r="A22" s="9"/>
       <c r="B22" s="10" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E22" s="10"/>
       <c r="F22" s="11"/>
     </row>
-    <row r="23" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
+    <row r="23" ht="42.75" spans="1:6">
       <c r="A23" s="9" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" ht="28.5" spans="1:6">
       <c r="A24" s="9" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E24" s="10"/>
       <c r="F24" s="11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="9"/>
       <c r="B25" s="10" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="10" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E25" s="10"/>
       <c r="F25" s="11"/>
     </row>
-    <row r="26" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6">
       <c r="A26" s="9"/>
       <c r="B26" s="10" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="C26" s="10"/>
       <c r="D26" s="10" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E26" s="10"/>
       <c r="F26" s="11"/>
     </row>
-    <row r="27" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6">
       <c r="A27" s="9" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="9"/>
       <c r="B28" s="10" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E28" s="10"/>
       <c r="F28" s="11"/>
     </row>
-    <row r="29" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="29" ht="28.5" spans="1:6">
       <c r="A29" s="9" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E29" s="10"/>
       <c r="F29" s="11" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" ht="42.75" spans="1:6">
       <c r="A30" s="9" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E30" s="10"/>
       <c r="F30" s="11" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="31" ht="42.75" spans="1:6">
       <c r="A31" s="9" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E31" s="10"/>
       <c r="F31" s="11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="71.25" x14ac:dyDescent="0.15">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="32" ht="71.25" spans="1:6">
       <c r="A32" s="10" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="33" ht="42.75" spans="1:6">
       <c r="A33" s="10" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E33" s="10"/>
       <c r="F33" s="11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="10" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E34" s="10"/>
       <c r="F34" s="11" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="10" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="10"/>
       <c r="B36" s="10" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="C36" s="10"/>
       <c r="D36" s="10" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E36" s="10"/>
       <c r="F36" s="11"/>
     </row>
-    <row r="37" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="37" ht="16.5" spans="1:6">
       <c r="A37" s="10" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E37" s="10"/>
       <c r="F37" s="13" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="33" x14ac:dyDescent="0.15">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="38" ht="33" spans="1:6">
       <c r="A38" s="10"/>
       <c r="B38" s="10" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E38" s="10"/>
       <c r="F38" s="13" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="10" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="C39" s="10"/>
       <c r="D39" s="10" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E39" s="10"/>
       <c r="F39" s="11"/>
     </row>
-    <row r="40" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="40" ht="16.5" spans="1:6">
       <c r="A40" s="14" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E40" s="14"/>
       <c r="F40" s="13" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="41" ht="16.5" spans="1:6">
       <c r="A41" s="14" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E41" s="14"/>
       <c r="F41" s="13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="42" ht="16.5" spans="1:6">
       <c r="A42" s="14" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E42" s="14"/>
       <c r="F42" s="13" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="33" x14ac:dyDescent="0.15">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="43" ht="33" spans="1:6">
       <c r="A43" s="14" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E43" s="14"/>
       <c r="F43" s="13" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="44" ht="49.5" spans="1:6">
       <c r="A44" s="14" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E44" s="14"/>
       <c r="F44" s="13" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="33" x14ac:dyDescent="0.15">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="45" ht="33" spans="1:6">
       <c r="A45" s="14" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E45" s="14"/>
       <c r="F45" s="13" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="46" ht="16.5" spans="1:6">
       <c r="A46" s="14" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E46" s="14"/>
       <c r="F46" s="14"/>
     </row>
-    <row r="47" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="47" ht="16.5" spans="1:6">
       <c r="A47" s="14" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E47" s="14"/>
       <c r="F47" s="13" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="14"/>
       <c r="B48" s="14" t="s">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="C48" s="14"/>
       <c r="D48" s="10" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E48" s="14"/>
       <c r="F48" s="14"/>
     </row>
-    <row r="49" spans="1:6" ht="33" x14ac:dyDescent="0.15">
+    <row r="49" ht="33" spans="1:6">
       <c r="A49" s="14" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>130</v>
+        <v>152</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E49" s="14"/>
       <c r="F49" s="13" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="15" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>132</v>
+        <v>154</v>
       </c>
       <c r="C50" s="16"/>
       <c r="D50" s="17" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E50" s="16"/>
       <c r="F50" s="16"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A4:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="17.625" customWidth="1"/>
     <col min="3" max="3" width="27.25" customWidth="1"/>
@@ -2351,373 +2864,373 @@
     <col min="7" max="7" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6">
       <c r="A4" s="8" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="9" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="9" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="11"/>
     </row>
-    <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6">
       <c r="A7" s="9" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="11"/>
     </row>
-    <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6">
       <c r="A8" s="9" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="11"/>
     </row>
-    <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6">
       <c r="A9" s="9" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="11"/>
     </row>
-    <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6">
       <c r="A10" s="9" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="11"/>
     </row>
-    <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6">
       <c r="A11" s="9" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="9" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="9" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="11" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="9"/>
       <c r="B14" s="10" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="11"/>
     </row>
-    <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6">
       <c r="A15" s="9"/>
       <c r="B15" s="10" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="11"/>
     </row>
-    <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6">
       <c r="A16" s="9"/>
       <c r="B16" s="10" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="11"/>
     </row>
-    <row r="17" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="17" ht="28.5" spans="1:6">
       <c r="A17" s="9" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="11" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="9"/>
       <c r="B18" s="10" t="s">
-        <v>138</v>
+        <v>160</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="10" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="11"/>
     </row>
-    <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6">
       <c r="A19" s="9"/>
       <c r="B19" s="10" t="s">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="10" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="11"/>
     </row>
-    <row r="20" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="20" ht="28.5" spans="1:6">
       <c r="A20" s="9" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="11" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="9" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="9" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E22" s="10"/>
       <c r="F22" s="11" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="9" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>147</v>
+        <v>169</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="9" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E24" s="10"/>
       <c r="F24" s="11" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="9" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E25" s="10"/>
       <c r="F25" s="11"/>
     </row>
-    <row r="26" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6">
       <c r="A26" s="9"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
@@ -2725,7 +3238,7 @@
       <c r="E26" s="10"/>
       <c r="F26" s="11"/>
     </row>
-    <row r="27" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6">
       <c r="A27" s="9"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -2733,7 +3246,7 @@
       <c r="E27" s="10"/>
       <c r="F27" s="11"/>
     </row>
-    <row r="28" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6">
       <c r="A28" s="9"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -2741,7 +3254,7 @@
       <c r="E28" s="10"/>
       <c r="F28" s="11"/>
     </row>
-    <row r="29" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6">
       <c r="A29" s="9"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
@@ -2749,7 +3262,7 @@
       <c r="E29" s="10"/>
       <c r="F29" s="11"/>
     </row>
-    <row r="30" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6">
       <c r="A30" s="10"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
@@ -2757,7 +3270,7 @@
       <c r="E30" s="10"/>
       <c r="F30" s="11"/>
     </row>
-    <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6">
       <c r="A31" s="10"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
@@ -2765,7 +3278,7 @@
       <c r="E31" s="10"/>
       <c r="F31" s="11"/>
     </row>
-    <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6">
       <c r="A32" s="10"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
@@ -2773,7 +3286,7 @@
       <c r="E32" s="10"/>
       <c r="F32" s="11"/>
     </row>
-    <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6">
       <c r="A33" s="10"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
@@ -2782,21 +3295,22 @@
       <c r="F33" s="11"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A4:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="17" customWidth="1"/>
     <col min="3" max="3" width="28" customWidth="1"/>
@@ -2804,315 +3318,315 @@
     <col min="5" max="6" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="4" ht="18.75" spans="1:6">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" ht="18.75" spans="1:6">
       <c r="A5" s="4"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
     </row>
-    <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="6" ht="18.75" spans="1:6">
       <c r="A6" s="4"/>
       <c r="B6" s="5" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" ht="18.75" spans="1:6">
       <c r="A7" s="4"/>
       <c r="B7" s="5" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="8" ht="18.75" spans="1:6">
       <c r="A8" s="4"/>
       <c r="B8" s="5" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="9" ht="18.75" spans="1:6">
       <c r="A9" s="4"/>
       <c r="B9" s="5" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="10" ht="18.75" spans="1:6">
       <c r="A10" s="4"/>
       <c r="B10" s="5" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="11" ht="18.75" spans="1:6">
       <c r="A11" s="4"/>
       <c r="B11" s="5" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
     </row>
-    <row r="12" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="12" ht="18.75" spans="1:6">
       <c r="A12" s="4"/>
       <c r="B12" s="5" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>157</v>
+        <v>179</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="13" ht="18.75" spans="1:6">
       <c r="A13" s="4"/>
       <c r="B13" s="5" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
     </row>
-    <row r="14" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="14" ht="18.75" spans="1:6">
       <c r="A14" s="4"/>
       <c r="B14" s="5" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>158</v>
+        <v>181</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="15" ht="18.75" spans="1:6">
       <c r="A15" s="4"/>
       <c r="B15" s="5" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="16" ht="18.75" spans="1:6">
       <c r="A16" s="4"/>
       <c r="B16" s="5" t="s">
-        <v>159</v>
+        <v>182</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>153</v>
+        <v>183</v>
       </c>
       <c r="F16" s="7"/>
     </row>
-    <row r="17" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="17" ht="18.75" spans="1:6">
       <c r="A17" s="4"/>
       <c r="B17" s="5" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
     </row>
-    <row r="18" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="18" ht="18.75" spans="1:6">
       <c r="A18" s="4"/>
       <c r="B18" s="5" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
     </row>
-    <row r="19" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="19" ht="18.75" spans="1:6">
       <c r="A19" s="4"/>
       <c r="B19" s="5" t="s">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="20" ht="18.75" spans="1:6">
       <c r="A20" s="4"/>
       <c r="B20" s="5" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
     </row>
-    <row r="21" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="21" ht="18.75" spans="1:6">
       <c r="A21" s="4"/>
       <c r="B21" s="5" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
     </row>
-    <row r="22" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="22" ht="18.75" spans="1:6">
       <c r="A22" s="4"/>
       <c r="B22" s="5" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>147</v>
+        <v>169</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
     </row>
-    <row r="23" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="23" ht="18.75" spans="1:6">
       <c r="A23" s="4"/>
       <c r="B23" s="5" t="s">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/test/resources/check_sheet.xlsx
+++ b/src/test/resources/check_sheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Target" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="217">
   <si>
     <r>
       <rPr>
@@ -532,16 +532,16 @@
     <t xml:space="preserve">RuleDB</t>
   </si>
   <si>
-    <t xml:space="preserve">new_item</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test3</t>
+    <t xml:space="preserve">compare_with</t>
+  </si>
+  <si>
+    <t xml:space="preserve">比較対象リスト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">local:win2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">以降の行はユーザ定義パラメータの指定行となり、検査コード、検査ルールからserver_info['項目ID']パラメータで値を参照します</t>
   </si>
   <si>
     <t xml:space="preserve">NumCpu</t>
@@ -866,19 +866,155 @@
     <t xml:space="preserve">mount_iso</t>
   </si>
   <si>
-    <t xml:space="preserve">ISOマウントの有無</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mount コマンドで.isoファイルのマウント情報取得</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="メイリオ"/>
+        <family val="0"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">ISO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">マウントの有無</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="メイリオ"/>
+        <family val="0"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">mount </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">コマンドで</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="メイリオ"/>
+        <family val="0"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">.iso</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">ファイルのマウント情報取得</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">oracle</t>
   </si>
   <si>
-    <t xml:space="preserve">Oracleの有無</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"ls -d /opt/oracle/app/product/*/*" でOracleのバージョン、サーバ/クライアントを検索</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="メイリオ"/>
+        <family val="0"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Oracle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">の有無</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="メイリオ"/>
+        <family val="0"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">"ls -d /opt/oracle/app/product/*/*" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">で</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="メイリオ"/>
+        <family val="0"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Oracle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">のバージョン、サーバ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="メイリオ"/>
+        <family val="0"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">クライアントを検索</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">oracle_package</t>
@@ -887,10 +1023,68 @@
     <t xml:space="preserve">proxy_global</t>
   </si>
   <si>
-    <t xml:space="preserve">yumコマンドプロキシ設定有無</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> /etc/yum.conf から、proxyサーバ定義を検索</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="メイリオ"/>
+        <family val="0"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">yum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">コマンドプロキシ設定有無</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="メイリオ"/>
+        <family val="0"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> /etc/yum.conf </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">から、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="メイリオ"/>
+        <family val="0"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">proxy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">サーバ定義を検索</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">kdump</t>
@@ -899,7 +1093,26 @@
     <t xml:space="preserve">クラッシュリカバリ</t>
   </si>
   <si>
-    <t xml:space="preserve">kdump クラッシュリカバリーサービスの自動起動設定</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="メイリオ"/>
+        <family val="0"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">kdump </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">クラッシュリカバリーサービスの自動起動設定</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">crash_size</t>
@@ -908,16 +1121,93 @@
     <t xml:space="preserve">クラッシュダンプサイズ</t>
   </si>
   <si>
-    <t xml:space="preserve">/sys/kernel/kexec_crash_size を検索</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="メイリオ"/>
+        <family val="0"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">/sys/kernel/kexec_crash_size </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">を検索</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">iptables</t>
   </si>
   <si>
-    <t xml:space="preserve">iptablesステータス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chkconfig --list コマンドで、iptables ファイヤーウォールの自動起動設定を検索</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="メイリオ"/>
+        <family val="0"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">iptables</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">ステータス</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="メイリオ"/>
+        <family val="0"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">chkconfig --list </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">コマンドで、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="メイリオ"/>
+        <family val="0"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">iptables </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">ファイヤーウォールの自動起動設定を検索</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">runlevel</t>
@@ -926,33 +1216,227 @@
     <t xml:space="preserve">ランレベル</t>
   </si>
   <si>
-    <t xml:space="preserve">OS起動時のランレベルからコンソール設定(3 : CUIコンソール、5 : GUIコンソール)を検索
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="メイリオ"/>
+        <family val="0"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">OS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">起動時のランレベルからコンソール設定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="メイリオ"/>
+        <family val="0"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">(3 : CUI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">コンソール、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="メイリオ"/>
+        <family val="0"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">5 : GUI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">コンソール</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="メイリオ"/>
+        <family val="0"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">を検索
 </t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">resolve_conf</t>
   </si>
   <si>
-    <t xml:space="preserve">DNS設定</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/etc/resolve.conf から nameserver を検索
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="メイリオ"/>
+        <family val="0"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">DNS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">設定</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="メイリオ"/>
+        <family val="0"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">/etc/resolve.conf </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">から </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="メイリオ"/>
+        <family val="0"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">nameserver </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">を検索
 </t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">nameservers</t>
   </si>
   <si>
-    <t xml:space="preserve">DNSサーバ名</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="メイリオ"/>
+        <family val="0"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">DNS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">サーバ名</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">sestatus</t>
   </si>
   <si>
-    <t xml:space="preserve">SELinuxステータス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sestatus コマンドからステータス検索</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="メイリオ"/>
+        <family val="0"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">SELinux</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">ステータス</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="メイリオ"/>
+        <family val="0"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">sestatus </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">コマンドからステータス検索</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">se_mode</t>
@@ -961,10 +1445,68 @@
     <t xml:space="preserve">vncserver</t>
   </si>
   <si>
-    <t xml:space="preserve">vncserverステータス</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> chkconfig --listコマンドで、vncserver ファイヤーウォールの自動起動設定を検索</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="メイリオ"/>
+        <family val="0"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">vncserver</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">ステータス</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="メイリオ"/>
+        <family val="0"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> chkconfig --list</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">コマンドで、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="メイリオ"/>
+        <family val="0"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">vncserver </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">ファイヤーウォールの自動起動設定を検索</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">oracle_module</t>
@@ -1102,6 +1644,50 @@
     <t xml:space="preserve">ストレージタイムアウト[秒]</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="メイリオ"/>
+        <family val="0"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">VMWare </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">リソース割り当て</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="メイリオ"/>
+        <family val="0"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">CPU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">割り当て数</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">2 &lt; x</t>
   </si>
   <si>
@@ -1111,22 +1697,176 @@
     <t xml:space="preserve">2 &lt; x &amp;&amp; x &lt; 8</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="メイリオ"/>
+        <family val="0"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">ESXi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">ホスト</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">x =~ /rich/</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="メイリオ"/>
+        <family val="0"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">VMWare </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">ツール</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="メイリオ"/>
+        <family val="0"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">VMWare </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">時刻同期</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">x =~ /win/</t>
   </si>
   <si>
     <t xml:space="preserve">x =~ /db/</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="メイリオ"/>
+        <family val="0"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">OS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">カーネル</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="メイリオ"/>
+        <family val="0"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">OS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">バージョン</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">x =~ /CentOS/</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="メイリオ"/>
+        <family val="0"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">CPU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">スレッド数</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">total</t>
   </si>
   <si>
     <t xml:space="preserve">1 &lt; x</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="メイリオ"/>
+        <family val="0"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">CPU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">情報</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1163,20 +1903,6 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="0"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="0"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1189,6 +1915,13 @@
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1210,6 +1943,13 @@
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1264,7 +2004,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="26">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1288,94 +2028,46 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="24" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="24" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="25" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -1386,11 +2078,19 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1398,56 +2098,47 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="3" xfId="21" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="21" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="3" xfId="21" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="21" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="12">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="標準 2" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="標準 3" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="標準 4" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="標準 5" xfId="23" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="標準 6" xfId="24" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="標準 7" xfId="25" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -1457,20 +2148,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B4:M18"/>
+  <dimension ref="B4:M19"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.8659793814433"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.8659793814433"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.139175257732"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.72680412371134"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.7319587628866"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.0051546391753"/>
     <col collapsed="false" hidden="false" max="6" min="4" style="0" width="16.0927835051546"/>
     <col collapsed="false" hidden="false" max="13" min="7" style="0" width="6.68041237113402"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.8659793814433"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.72680412371134"/>
   </cols>
   <sheetData>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1677,19 +2368,19 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="1"/>
+      <c r="C12" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="D12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>31</v>
+      <c r="E12" s="2"/>
+      <c r="F12" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -1699,18 +2390,14 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1" t="n">
-        <v>2</v>
-      </c>
+    <row r="13" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="2"/>
+      <c r="C13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -1721,10 +2408,10 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -1740,11 +2427,17 @@
       <c r="M14" s="1"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
+      <c r="B15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="F15" s="1" t="n">
+        <v>2</v>
+      </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -1794,6 +2487,20 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1819,394 +2526,394 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.8659793814433"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.4587628865979"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.72680412371134"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.319587628866"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.9587628865979"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.68556701030928"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.41237113402062"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="54.8247422680412"/>
-    <col collapsed="false" hidden="false" max="10" min="7" style="0" width="14.319587628866"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.8659793814433"/>
+    <col collapsed="false" hidden="false" max="10" min="7" style="0" width="14.1855670103093"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.72680412371134"/>
   </cols>
   <sheetData>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="6" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="7" t="s">
+      <c r="A5" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="7"/>
+      <c r="E5" s="6"/>
       <c r="F5" s="8" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="7"/>
+      <c r="B6" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="7"/>
+      <c r="E6" s="6"/>
       <c r="F6" s="8"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7" t="s">
+      <c r="A7" s="7"/>
+      <c r="B7" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="7"/>
+      <c r="E7" s="6"/>
       <c r="F7" s="8"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7" t="s">
+      <c r="A8" s="7"/>
+      <c r="B8" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="7"/>
+      <c r="E8" s="6"/>
       <c r="F8" s="8"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7" t="s">
+      <c r="A9" s="7"/>
+      <c r="B9" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="7"/>
+      <c r="E9" s="6"/>
       <c r="F9" s="8"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7" t="s">
+      <c r="A10" s="7"/>
+      <c r="B10" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="7"/>
+      <c r="E10" s="6"/>
       <c r="F10" s="8"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" s="7" t="s">
+      <c r="A11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="7"/>
+      <c r="E11" s="6"/>
       <c r="F11" s="8" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="7" t="s">
+      <c r="A12" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="7"/>
+      <c r="E12" s="6"/>
       <c r="F12" s="8" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="7" t="s">
+      <c r="A13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="7"/>
+      <c r="D13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="6"/>
       <c r="F13" s="8" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="7" t="s">
+      <c r="A14" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="7"/>
+      <c r="D14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="6"/>
       <c r="F14" s="8" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="7" t="s">
+      <c r="A15" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="7"/>
+      <c r="D15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="6"/>
       <c r="F15" s="8" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="7" t="s">
+      <c r="A16" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="7"/>
+      <c r="D16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="6"/>
       <c r="F16" s="8" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="7" t="s">
+      <c r="A17" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="7"/>
+      <c r="D17" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="6"/>
       <c r="F17" s="8" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="6"/>
-      <c r="B18" s="7" t="s">
+      <c r="A18" s="7"/>
+      <c r="B18" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="7"/>
+      <c r="D18" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="6"/>
       <c r="F18" s="8"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6"/>
-      <c r="B19" s="7" t="s">
+      <c r="A19" s="7"/>
+      <c r="B19" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D19" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="7"/>
+      <c r="D19" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="6"/>
       <c r="F19" s="8"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="6"/>
-      <c r="B20" s="7" t="s">
+      <c r="A20" s="7"/>
+      <c r="B20" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="D20" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" s="7"/>
+      <c r="D20" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="6"/>
       <c r="F20" s="8"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="6"/>
-      <c r="B21" s="7" t="s">
+      <c r="A21" s="7"/>
+      <c r="B21" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="D21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="7"/>
+      <c r="D21" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="6"/>
       <c r="F21" s="8"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="6"/>
-      <c r="B22" s="7" t="s">
+      <c r="A22" s="7"/>
+      <c r="B22" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D22" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E22" s="7"/>
+      <c r="D22" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="6"/>
       <c r="F22" s="8"/>
     </row>
     <row r="23" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" s="7" t="s">
+      <c r="A23" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D23" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E23" s="7"/>
+      <c r="D23" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="6"/>
       <c r="F23" s="8" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24" s="7" t="s">
+      <c r="A24" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="D24" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E24" s="7"/>
+      <c r="D24" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="6"/>
       <c r="F24" s="8" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="6"/>
-      <c r="B25" s="7" t="s">
+      <c r="A25" s="7"/>
+      <c r="B25" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E25" s="7"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="6"/>
       <c r="F25" s="8"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="6"/>
-      <c r="B26" s="7" t="s">
+      <c r="A26" s="7"/>
+      <c r="B26" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E26" s="7"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="6"/>
       <c r="F26" s="8"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B27" s="7" t="s">
+      <c r="A27" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="D27" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E27" s="7" t="s">
+      <c r="D27" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="6" t="s">
         <v>41</v>
       </c>
       <c r="F27" s="8" t="s">
@@ -2214,87 +2921,87 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="6"/>
-      <c r="B28" s="7" t="s">
+      <c r="A28" s="7"/>
+      <c r="B28" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="D28" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E28" s="7"/>
+      <c r="D28" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="6"/>
       <c r="F28" s="8"/>
     </row>
     <row r="29" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B29" s="7" t="s">
+      <c r="A29" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="D29" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E29" s="7"/>
+      <c r="D29" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="6"/>
       <c r="F29" s="8" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="D30" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E30" s="7"/>
+      <c r="D30" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" s="6"/>
       <c r="F30" s="8" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B31" s="7" t="s">
+      <c r="A31" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D31" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E31" s="7"/>
+      <c r="D31" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" s="6"/>
       <c r="F31" s="8" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="71.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" s="7" t="s">
+      <c r="A32" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="D32" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E32" s="7" t="s">
+      <c r="D32" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" s="6" t="s">
         <v>41</v>
       </c>
       <c r="F32" s="8" t="s">
@@ -2302,55 +3009,55 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B33" s="7" t="s">
+      <c r="A33" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="D33" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E33" s="7"/>
+      <c r="D33" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33" s="6"/>
       <c r="F33" s="8" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B34" s="7" t="s">
+      <c r="A34" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="D34" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E34" s="7"/>
+      <c r="D34" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" s="6"/>
       <c r="F34" s="8" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B35" s="7" t="s">
+      <c r="A35" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="D35" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E35" s="7" t="s">
+      <c r="D35" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35" s="6" t="s">
         <v>41</v>
       </c>
       <c r="F35" s="8" t="s">
@@ -2358,63 +3065,63 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7" t="s">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E36" s="7"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36" s="6"/>
       <c r="F36" s="8"/>
     </row>
     <row r="37" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B37" s="7" t="s">
+      <c r="A37" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" s="6" t="s">
         <v>120</v>
       </c>
       <c r="C37" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="D37" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E37" s="7"/>
+      <c r="D37" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E37" s="6"/>
       <c r="F37" s="10" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7" t="s">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6" t="s">
         <v>123</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="D38" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E38" s="7"/>
+      <c r="D38" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" s="6"/>
       <c r="F38" s="10" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B39" s="7" t="s">
+      <c r="A39" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E39" s="7"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39" s="6"/>
       <c r="F39" s="8"/>
     </row>
     <row r="40" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2427,7 +3134,7 @@
       <c r="C40" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E40" s="11"/>
@@ -2442,10 +3149,10 @@
       <c r="B41" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C41" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D41" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E41" s="11"/>
@@ -2460,10 +3167,10 @@
       <c r="B42" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="C42" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D42" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E42" s="11"/>
@@ -2481,7 +3188,7 @@
       <c r="C43" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="D43" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E43" s="11"/>
@@ -2496,10 +3203,10 @@
       <c r="B44" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="C44" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="D44" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E44" s="11"/>
@@ -2517,7 +3224,7 @@
       <c r="C45" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="D45" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E45" s="11"/>
@@ -2535,7 +3242,7 @@
       <c r="C46" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="D46" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E46" s="11"/>
@@ -2551,7 +3258,7 @@
       <c r="C47" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="D47" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E47" s="11"/>
@@ -2565,7 +3272,7 @@
         <v>150</v>
       </c>
       <c r="C48" s="11"/>
-      <c r="D48" s="7" t="s">
+      <c r="D48" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E48" s="11"/>
@@ -2581,7 +3288,7 @@
       <c r="C49" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="D49" s="7" t="s">
+      <c r="D49" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E49" s="11"/>
@@ -2590,18 +3297,18 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B50" s="12" t="s">
+      <c r="A50" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B50" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="C50" s="13"/>
-      <c r="D50" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2621,530 +3328,530 @@
   </sheetPr>
   <dimension ref="A4:F33"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C32" activeCellId="0" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.8659793814433"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.4587628865979"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.139175257732"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.72680412371134"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.319587628866"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.0051546391753"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.6855670103093"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.41237113402062"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="56.4639175257732"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.8659793814433"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="56.3247422680412"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.8659793814433"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.72680412371134"/>
   </cols>
   <sheetData>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="6" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="7" t="s">
+      <c r="A5" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="7"/>
+      <c r="E5" s="6"/>
       <c r="F5" s="8" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="7"/>
+      <c r="E6" s="6"/>
       <c r="F6" s="8"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="7" t="s">
+      <c r="A7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="7"/>
+      <c r="E7" s="6"/>
       <c r="F7" s="8"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="7" t="s">
+      <c r="A8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="7"/>
+      <c r="E8" s="6"/>
       <c r="F8" s="8"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="7" t="s">
+      <c r="A9" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="7"/>
+      <c r="E9" s="6"/>
       <c r="F9" s="8"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="7" t="s">
+      <c r="A10" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="7"/>
+      <c r="E10" s="6"/>
       <c r="F10" s="8"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" s="7" t="s">
+      <c r="A11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="7"/>
+      <c r="E11" s="6"/>
       <c r="F11" s="8" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="7" t="s">
+      <c r="A12" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="7"/>
+      <c r="E12" s="6"/>
       <c r="F12" s="8" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="16" t="s">
+      <c r="A13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="17" t="s">
+      <c r="E13" s="6"/>
+      <c r="F13" s="8" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="15"/>
-      <c r="B14" s="16" t="s">
+      <c r="A14" s="7"/>
+      <c r="B14" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="16"/>
-      <c r="F14" s="17" t="s">
+      <c r="E14" s="6"/>
+      <c r="F14" s="8" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="15"/>
-      <c r="B15" s="16" t="s">
+      <c r="A15" s="7"/>
+      <c r="B15" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="16"/>
-      <c r="F15" s="17" t="s">
+      <c r="E15" s="6"/>
+      <c r="F15" s="8" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="15"/>
-      <c r="B16" s="16" t="s">
+      <c r="A16" s="7"/>
+      <c r="B16" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="16"/>
-      <c r="F16" s="17" t="s">
+      <c r="E16" s="6"/>
+      <c r="F16" s="8" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="16" t="s">
+      <c r="A17" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="16"/>
-      <c r="F17" s="17" t="s">
+      <c r="E17" s="6"/>
+      <c r="F17" s="8" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="15"/>
-      <c r="B18" s="16" t="s">
+      <c r="A18" s="7"/>
+      <c r="B18" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="16"/>
-      <c r="F18" s="17" t="s">
+      <c r="E18" s="6"/>
+      <c r="F18" s="8" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="15"/>
-      <c r="B19" s="16" t="s">
+      <c r="A19" s="7"/>
+      <c r="B19" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="16"/>
-      <c r="F19" s="17" t="s">
+      <c r="E19" s="6"/>
+      <c r="F19" s="8" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="16" t="s">
+      <c r="A20" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="16"/>
-      <c r="F20" s="17" t="s">
+      <c r="E20" s="6"/>
+      <c r="F20" s="8" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="15"/>
-      <c r="B21" s="16" t="s">
+      <c r="A21" s="7"/>
+      <c r="B21" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16" t="s">
+      <c r="E21" s="6"/>
+      <c r="F21" s="6" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="15"/>
-      <c r="B22" s="16" t="s">
+      <c r="A22" s="7"/>
+      <c r="B22" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16" t="s">
+      <c r="E22" s="6"/>
+      <c r="F22" s="6" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="18"/>
-      <c r="B23" s="19" t="s">
+      <c r="A23" s="13"/>
+      <c r="B23" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="C23" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="D23" s="19" t="s">
+      <c r="D23" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19" t="s">
+      <c r="E23" s="14"/>
+      <c r="F23" s="14" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="20"/>
-      <c r="B24" s="21" t="s">
+      <c r="A24" s="15"/>
+      <c r="B24" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="D24" s="19" t="s">
+      <c r="D24" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20" t="s">
+      <c r="E24" s="15"/>
+      <c r="F24" s="15" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" s="19" t="s">
+      <c r="A25" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="C25" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="D25" s="19" t="s">
+      <c r="D25" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E25" s="19"/>
-      <c r="F25" s="22" t="s">
+      <c r="E25" s="14"/>
+      <c r="F25" s="17" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B26" s="16" t="s">
+      <c r="A26" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E26" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="F26" s="17" t="s">
+      <c r="E26" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F26" s="8" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B27" s="16" t="s">
+      <c r="A27" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="D27" s="16" t="s">
+      <c r="D27" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E27" s="16"/>
-      <c r="F27" s="17" t="s">
+      <c r="E27" s="6"/>
+      <c r="F27" s="8" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B28" s="16" t="s">
+      <c r="A28" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="C28" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="D28" s="16" t="s">
+      <c r="D28" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E28" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="F28" s="17" t="s">
+      <c r="E28" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F28" s="8" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B29" s="16" t="s">
+      <c r="A29" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="C29" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="D29" s="16" t="s">
+      <c r="D29" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E29" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="F29" s="17" t="s">
+      <c r="E29" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F29" s="8" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B30" s="16" t="s">
+      <c r="A30" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="C30" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="D30" s="16" t="s">
+      <c r="D30" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E30" s="16"/>
-      <c r="F30" s="17" t="s">
+      <c r="E30" s="6"/>
+      <c r="F30" s="8" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B31" s="16" t="s">
+      <c r="A31" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="C31" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="D31" s="16" t="s">
+      <c r="D31" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E31" s="16"/>
-      <c r="F31" s="17" t="s">
+      <c r="E31" s="6"/>
+      <c r="F31" s="8" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" s="16" t="s">
+      <c r="A32" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="C32" s="16" t="s">
+      <c r="C32" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="D32" s="16" t="s">
+      <c r="D32" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E32" s="16"/>
-      <c r="F32" s="17" t="s">
+      <c r="E32" s="6"/>
+      <c r="F32" s="8" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
       <c r="F33" s="8"/>
     </row>
   </sheetData>
@@ -3171,319 +3878,319 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.8659793814433"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.9123711340206"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.72680412371134"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.7731958762887"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.9587628865979"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.68556701030928"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="20.8659793814433"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.8659793814433"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="20.7319587628866"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.72680412371134"/>
   </cols>
   <sheetData>
     <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="23"/>
-      <c r="B4" s="24" t="s">
+      <c r="A4" s="18"/>
+      <c r="B4" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="21" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="26"/>
-      <c r="B5" s="27" t="s">
+      <c r="A5" s="18"/>
+      <c r="B5" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="28" t="s">
+      <c r="C5" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="D5" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
     </row>
     <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="26"/>
-      <c r="B6" s="27" t="s">
+      <c r="A6" s="18"/>
+      <c r="B6" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="28" t="s">
+      <c r="C6" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="D6" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="29" t="s">
-        <v>199</v>
-      </c>
-      <c r="F6" s="29" t="s">
-        <v>200</v>
+      <c r="E6" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="26"/>
-      <c r="B7" s="27" t="s">
+      <c r="A7" s="18"/>
+      <c r="B7" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="29" t="s">
-        <v>201</v>
-      </c>
-      <c r="F7" s="29" t="s">
-        <v>200</v>
+      <c r="E7" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="26"/>
-      <c r="B8" s="27" t="s">
+      <c r="A8" s="18"/>
+      <c r="B8" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" s="28" t="s">
+      <c r="C8" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="D8" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="29" t="s">
-        <v>202</v>
-      </c>
-      <c r="F8" s="29" t="s">
-        <v>202</v>
+      <c r="E8" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="26"/>
-      <c r="B9" s="27" t="s">
+      <c r="A9" s="18"/>
+      <c r="B9" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
     </row>
     <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="26"/>
-      <c r="B10" s="27" t="s">
+      <c r="A10" s="18"/>
+      <c r="B10" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="28" t="s">
+      <c r="C10" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D10" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
     </row>
     <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="26"/>
-      <c r="B11" s="27" t="s">
+      <c r="A11" s="18"/>
+      <c r="B11" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" s="28" t="s">
+      <c r="C11" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="D11" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
     </row>
     <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="26"/>
-      <c r="B12" s="27" t="s">
+      <c r="A12" s="18"/>
+      <c r="B12" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="29" t="s">
-        <v>203</v>
-      </c>
-      <c r="F12" s="29" t="s">
-        <v>204</v>
+      <c r="D12" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="26"/>
-      <c r="B13" s="27" t="s">
+      <c r="A13" s="18"/>
+      <c r="B13" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
+      <c r="C13" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
     </row>
     <row r="14" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="26"/>
-      <c r="B14" s="27" t="s">
+      <c r="A14" s="18"/>
+      <c r="B14" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="29" t="s">
-        <v>205</v>
-      </c>
-      <c r="F14" s="29" t="s">
-        <v>205</v>
+      <c r="C14" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="26"/>
-      <c r="B15" s="27" t="s">
+      <c r="A15" s="18"/>
+      <c r="B15" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="C15" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="D15" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
+      <c r="C15" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
     </row>
     <row r="16" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="26"/>
-      <c r="B16" s="27" t="s">
-        <v>206</v>
-      </c>
-      <c r="C16" s="28" t="s">
+      <c r="A16" s="18"/>
+      <c r="B16" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="C16" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="D16" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="29" t="s">
-        <v>207</v>
-      </c>
-      <c r="F16" s="29"/>
+      <c r="E16" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="F16" s="22"/>
     </row>
     <row r="17" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="26"/>
-      <c r="B17" s="27" t="s">
+      <c r="A17" s="18"/>
+      <c r="B17" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="C17" s="28" t="s">
-        <v>155</v>
-      </c>
-      <c r="D17" s="28" t="s">
+      <c r="C17" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="D17" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
     </row>
     <row r="18" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="26"/>
-      <c r="B18" s="27" t="s">
+      <c r="A18" s="18"/>
+      <c r="B18" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="C18" s="28" t="s">
+      <c r="C18" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="D18" s="28" t="s">
+      <c r="D18" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
     </row>
     <row r="19" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="26"/>
-      <c r="B19" s="27" t="s">
+      <c r="A19" s="18"/>
+      <c r="B19" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="D19" s="28" t="s">
+      <c r="D19" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
     </row>
     <row r="20" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="26"/>
-      <c r="B20" s="27" t="s">
+      <c r="A20" s="18"/>
+      <c r="B20" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="C20" s="28" t="s">
+      <c r="C20" s="20" t="s">
         <v>182</v>
       </c>
-      <c r="D20" s="28" t="s">
+      <c r="D20" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
     </row>
     <row r="21" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="26"/>
-      <c r="B21" s="27" t="s">
+      <c r="A21" s="18"/>
+      <c r="B21" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="C21" s="28" t="s">
+      <c r="C21" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="D21" s="28" t="s">
+      <c r="D21" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
     </row>
     <row r="22" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="26"/>
-      <c r="B22" s="27" t="s">
+      <c r="A22" s="18"/>
+      <c r="B22" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="C22" s="28" t="s">
+      <c r="C22" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="D22" s="28" t="s">
+      <c r="D22" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
     </row>
     <row r="23" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="26"/>
-      <c r="B23" s="27" t="s">
+      <c r="A23" s="18"/>
+      <c r="B23" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="C23" s="28" t="s">
+      <c r="C23" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="D23" s="28" t="s">
+      <c r="D23" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/src/test/resources/check_sheet.xlsx
+++ b/src/test/resources/check_sheet.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="220">
   <si>
     <r>
       <rPr>
@@ -532,13 +532,22 @@
     <t xml:space="preserve">RuleDB</t>
   </si>
   <si>
-    <t xml:space="preserve">compare_with</t>
-  </si>
-  <si>
-    <t xml:space="preserve">比較対象リスト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">local:win2012</t>
+    <t xml:space="preserve">compare_server</t>
+  </si>
+  <si>
+    <t xml:space="preserve">結果を比較する対象サーバ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">compare_source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">結果を比較するソース。actual:実行結果から、local:ノード定義ファイルから、db:データベースから </t>
+  </si>
+  <si>
+    <t xml:space="preserve">local</t>
+  </si>
+  <si>
+    <t xml:space="preserve">actual</t>
   </si>
   <si>
     <t xml:space="preserve">以降の行はユーザ定義パラメータの指定行となり、検査コード、検査ルールからserver_info['項目ID']パラメータで値を参照します</t>
@@ -2148,10 +2157,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B4:M19"/>
+  <dimension ref="B4:M20"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2376,7 +2385,7 @@
         <v>29</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="1" t="s">
@@ -2390,14 +2399,20 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
     </row>
-    <row r="13" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="2"/>
-      <c r="C13" s="5" t="s">
+    <row r="13" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="F13" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -2406,18 +2421,14 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1" t="n">
-        <v>2</v>
-      </c>
+    <row r="14" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="2"/>
+      <c r="C14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -2428,10 +2439,10 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="1" t="s">
         <v>35</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -2447,11 +2458,17 @@
       <c r="M15" s="1"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
+      <c r="B16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+      <c r="F16" s="1" t="n">
+        <v>2</v>
+      </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -2501,6 +2518,20 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2541,49 +2572,49 @@
         <v>18</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7"/>
       <c r="B6" s="6" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="8"/>
@@ -2591,13 +2622,13 @@
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7"/>
       <c r="B7" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>47</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>44</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="8"/>
@@ -2605,13 +2636,13 @@
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7"/>
       <c r="B8" s="6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="8"/>
@@ -2619,13 +2650,13 @@
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7"/>
       <c r="B9" s="6" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="8"/>
@@ -2633,150 +2664,150 @@
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="7"/>
       <c r="B10" s="6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="8"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="8" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="8" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="8" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="8" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="8" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="8" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="8" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="7"/>
       <c r="B18" s="6" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>15</v>
@@ -2787,10 +2818,10 @@
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="7"/>
       <c r="B19" s="6" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>15</v>
@@ -2801,10 +2832,10 @@
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="7"/>
       <c r="B20" s="6" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>15</v>
@@ -2815,10 +2846,10 @@
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="7"/>
       <c r="B21" s="6" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>15</v>
@@ -2829,10 +2860,10 @@
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="7"/>
       <c r="B22" s="6" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>15</v>
@@ -2842,44 +2873,44 @@
     </row>
     <row r="23" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="8" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="8" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="7"/>
       <c r="B25" s="6" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6" t="s">
@@ -2891,7 +2922,7 @@
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="7"/>
       <c r="B26" s="6" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6" t="s">
@@ -2902,31 +2933,31 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="7"/>
       <c r="B28" s="6" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>15</v>
@@ -2936,138 +2967,138 @@
     </row>
     <row r="29" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="8" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="8" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="8" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="71.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E33" s="6"/>
       <c r="F33" s="8" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E34" s="6"/>
       <c r="F34" s="8" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="6"/>
       <c r="B36" s="6" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6" t="s">
@@ -3078,44 +3109,44 @@
     </row>
     <row r="37" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="6" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E37" s="6"/>
       <c r="F37" s="10" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="6"/>
       <c r="B38" s="6" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E38" s="6"/>
       <c r="F38" s="10" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="6" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C39" s="6"/>
       <c r="D39" s="6" t="s">
@@ -3126,121 +3157,121 @@
     </row>
     <row r="40" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="11" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E40" s="11"/>
       <c r="F40" s="10" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="11" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E41" s="11"/>
       <c r="F41" s="10" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="11" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E42" s="11"/>
       <c r="F42" s="10" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="11" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E43" s="11"/>
       <c r="F43" s="10" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="49.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="11" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E44" s="11"/>
       <c r="F44" s="10" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="11" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E45" s="11"/>
       <c r="F45" s="10" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="11" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>15</v>
@@ -3250,26 +3281,26 @@
     </row>
     <row r="47" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="11" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D47" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E47" s="11"/>
       <c r="F47" s="10" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="11"/>
       <c r="B48" s="11" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C48" s="11"/>
       <c r="D48" s="6" t="s">
@@ -3280,28 +3311,28 @@
     </row>
     <row r="49" customFormat="false" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="11" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D49" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E49" s="11"/>
       <c r="F49" s="10" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="11" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C50" s="12"/>
       <c r="D50" s="6" t="s">
@@ -3349,501 +3380,501 @@
         <v>18</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="8"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>47</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>44</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="8"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="8"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="8"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="8"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="8" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="8" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="8" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="7"/>
       <c r="B14" s="6" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="8" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="7"/>
       <c r="B15" s="6" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="8" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="7"/>
       <c r="B16" s="6" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="8" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="8" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="7"/>
       <c r="B18" s="6" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="8" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="7"/>
       <c r="B19" s="6" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="8" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="7"/>
       <c r="B21" s="6" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="6" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="7"/>
       <c r="B22" s="6" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="6" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="13"/>
       <c r="B23" s="14" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>14</v>
       </c>
       <c r="E23" s="14"/>
       <c r="F23" s="14" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="15"/>
       <c r="B24" s="16" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>14</v>
       </c>
       <c r="E24" s="15"/>
       <c r="F24" s="15" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="13" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>14</v>
       </c>
       <c r="E25" s="14"/>
       <c r="F25" s="17" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="8" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="8" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="8" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="8" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3889,13 +3920,13 @@
     <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="18"/>
       <c r="B4" s="19" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E4" s="21" t="s">
         <v>26</v>
@@ -3907,13 +3938,13 @@
     <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="18"/>
       <c r="B5" s="19" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E5" s="22"/>
       <c r="F5" s="22"/>
@@ -3921,67 +3952,67 @@
     <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="18"/>
       <c r="B6" s="19" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="18"/>
       <c r="B7" s="19" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="18"/>
       <c r="B8" s="19" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="18"/>
       <c r="B9" s="19" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E9" s="22"/>
       <c r="F9" s="22"/>
@@ -3989,13 +4020,13 @@
     <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="18"/>
       <c r="B10" s="19" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E10" s="22"/>
       <c r="F10" s="22"/>
@@ -4003,13 +4034,13 @@
     <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="18"/>
       <c r="B11" s="19" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E11" s="22"/>
       <c r="F11" s="22"/>
@@ -4017,28 +4048,28 @@
     <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="18"/>
       <c r="B12" s="19" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D12" s="21" t="s">
         <v>15</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="18"/>
       <c r="B13" s="19" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D13" s="21" t="s">
         <v>15</v>
@@ -4049,28 +4080,28 @@
     <row r="14" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="18"/>
       <c r="B14" s="19" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D14" s="21" t="s">
         <v>15</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="18"/>
       <c r="B15" s="19" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D15" s="21" t="s">
         <v>15</v>
@@ -4081,26 +4112,26 @@
     <row r="16" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="18"/>
       <c r="B16" s="19" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D16" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="F16" s="22"/>
     </row>
     <row r="17" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="18"/>
       <c r="B17" s="19" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D17" s="21" t="s">
         <v>14</v>
@@ -4111,10 +4142,10 @@
     <row r="18" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="18"/>
       <c r="B18" s="19" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D18" s="21" t="s">
         <v>14</v>
@@ -4125,10 +4156,10 @@
     <row r="19" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="18"/>
       <c r="B19" s="19" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D19" s="21" t="s">
         <v>14</v>
@@ -4139,10 +4170,10 @@
     <row r="20" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="18"/>
       <c r="B20" s="19" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D20" s="21" t="s">
         <v>14</v>
@@ -4153,10 +4184,10 @@
     <row r="21" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="18"/>
       <c r="B21" s="19" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D21" s="21" t="s">
         <v>14</v>
@@ -4167,10 +4198,10 @@
     <row r="22" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="18"/>
       <c r="B22" s="19" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D22" s="21" t="s">
         <v>14</v>
@@ -4181,10 +4212,10 @@
     <row r="23" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="18"/>
       <c r="B23" s="19" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D23" s="21" t="s">
         <v>14</v>

--- a/src/test/resources/check_sheet.xlsx
+++ b/src/test/resources/check_sheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Target" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="212">
   <si>
     <r>
       <rPr>
@@ -530,24 +530,6 @@
   </si>
   <si>
     <t xml:space="preserve">RuleDB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">compare_server</t>
-  </si>
-  <si>
-    <t xml:space="preserve">結果を比較する対象サーバ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">compare_source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">結果を比較するソース。actual:実行結果から、local:ノード定義ファイルから、db:データベースから </t>
-  </si>
-  <si>
-    <t xml:space="preserve">local</t>
-  </si>
-  <si>
-    <t xml:space="preserve">actual</t>
   </si>
   <si>
     <t xml:space="preserve">以降の行はユーザ定義パラメータの指定行となり、検査コード、検査ルールからserver_info['項目ID']パラメータで値を参照します</t>
@@ -1653,48 +1635,25 @@
     <t xml:space="preserve">ストレージタイムアウト[秒]</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="メイリオ"/>
-        <family val="0"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">VMWare </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">リソース割り当て</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="メイリオ"/>
-        <family val="0"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">CPU</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">割り当て数</t>
-    </r>
+    <t xml:space="preserve">RuleDB2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">compare_server</t>
+  </si>
+  <si>
+    <t xml:space="preserve">結果を比較する対象サーバ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">compare_source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">結果を比較するソース。actual:実行結果から、local:ノード定義ファイルから、db:データベースから </t>
+  </si>
+  <si>
+    <t xml:space="preserve">actual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">local</t>
   </si>
   <si>
     <t xml:space="preserve">2 &lt; x</t>
@@ -1706,176 +1665,22 @@
     <t xml:space="preserve">2 &lt; x &amp;&amp; x &lt; 8</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="メイリオ"/>
-        <family val="0"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">ESXi</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">ホスト</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">x =~ /rich/</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="メイリオ"/>
-        <family val="0"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">VMWare </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">ツール</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="メイリオ"/>
-        <family val="0"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">VMWare </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">時刻同期</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">x =~ /win/</t>
   </si>
   <si>
     <t xml:space="preserve">x =~ /db/</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="メイリオ"/>
-        <family val="0"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">OS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">カーネル</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="メイリオ"/>
-        <family val="0"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">OS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">バージョン</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">x =~ /CentOS/</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="メイリオ"/>
-        <family val="0"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">CPU</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">スレッド数</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">total</t>
   </si>
   <si>
     <t xml:space="preserve">1 &lt; x</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="メイリオ"/>
-        <family val="0"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">CPU</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">情報</t>
-    </r>
   </si>
 </sst>
 </file>
@@ -1964,8 +1769,8 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="メイリオ"/>
-      <family val="0"/>
-      <charset val="128"/>
+      <family val="3"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1976,7 +1781,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -2011,6 +1816,13 @@
       <top style="thin"/>
       <bottom style="thin"/>
       <diagonal/>
+    </border>
+    <border diagonalUp="true" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal style="hair"/>
     </border>
   </borders>
   <cellStyleXfs count="21">
@@ -2123,15 +1935,15 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2157,10 +1969,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B4:M20"/>
+  <dimension ref="B4:M65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2377,20 +2189,14 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
     </row>
-    <row r="12" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="2" t="s">
+    <row r="12" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="2"/>
+      <c r="C12" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="F12" s="2"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -2399,19 +2205,17 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
     </row>
-    <row r="13" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="1" t="s">
-        <v>33</v>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -2421,14 +2225,18 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
     </row>
-    <row r="14" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="2"/>
-      <c r="C14" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1" t="n">
+        <v>2</v>
+      </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -2438,17 +2246,11 @@
       <c r="M14" s="1"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="1" t="n">
-        <v>2</v>
-      </c>
+      <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -2458,17 +2260,11 @@
       <c r="M15" s="1"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="1" t="n">
-        <v>2</v>
-      </c>
+      <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -2505,34 +2301,8 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-    </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.699305555555555" right="0.699305555555555" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2572,49 +2342,49 @@
         <v>18</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="8" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7"/>
       <c r="B6" s="6" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="8"/>
@@ -2622,13 +2392,13 @@
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7"/>
       <c r="B7" s="6" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="8"/>
@@ -2636,13 +2406,13 @@
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7"/>
       <c r="B8" s="6" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="8"/>
@@ -2650,13 +2420,13 @@
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7"/>
       <c r="B9" s="6" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="8"/>
@@ -2664,150 +2434,150 @@
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="7"/>
       <c r="B10" s="6" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="8"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="8" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="8" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="8" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="8" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="8" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="8" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="7"/>
       <c r="B18" s="6" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>15</v>
@@ -2818,10 +2588,10 @@
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="7"/>
       <c r="B19" s="6" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>15</v>
@@ -2832,10 +2602,10 @@
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="7"/>
       <c r="B20" s="6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>15</v>
@@ -2846,10 +2616,10 @@
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="7"/>
       <c r="B21" s="6" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>15</v>
@@ -2860,10 +2630,10 @@
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="7"/>
       <c r="B22" s="6" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>15</v>
@@ -2873,44 +2643,44 @@
     </row>
     <row r="23" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="8" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="8" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="7"/>
       <c r="B25" s="6" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6" t="s">
@@ -2922,7 +2692,7 @@
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="7"/>
       <c r="B26" s="6" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6" t="s">
@@ -2933,31 +2703,31 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="7"/>
       <c r="B28" s="6" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>15</v>
@@ -2967,138 +2737,138 @@
     </row>
     <row r="29" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="8" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="7" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="8" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="8" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="71.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E33" s="6"/>
       <c r="F33" s="8" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E34" s="6"/>
       <c r="F34" s="8" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="6"/>
       <c r="B36" s="6" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6" t="s">
@@ -3109,44 +2879,44 @@
     </row>
     <row r="37" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="6" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E37" s="6"/>
       <c r="F37" s="10" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="6"/>
       <c r="B38" s="6" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E38" s="6"/>
       <c r="F38" s="10" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="6" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C39" s="6"/>
       <c r="D39" s="6" t="s">
@@ -3157,121 +2927,121 @@
     </row>
     <row r="40" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="11" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E40" s="11"/>
       <c r="F40" s="10" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="11" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E41" s="11"/>
       <c r="F41" s="10" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="11" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E42" s="11"/>
       <c r="F42" s="10" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="11" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E43" s="11"/>
       <c r="F43" s="10" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="49.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="11" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E44" s="11"/>
       <c r="F44" s="10" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="11" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E45" s="11"/>
       <c r="F45" s="10" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="11" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>15</v>
@@ -3281,26 +3051,26 @@
     </row>
     <row r="47" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="11" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D47" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E47" s="11"/>
       <c r="F47" s="10" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="11"/>
       <c r="B48" s="11" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C48" s="11"/>
       <c r="D48" s="6" t="s">
@@ -3311,28 +3081,28 @@
     </row>
     <row r="49" customFormat="false" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="11" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D49" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E49" s="11"/>
       <c r="F49" s="10" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="11" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C50" s="12"/>
       <c r="D50" s="6" t="s">
@@ -3380,501 +3150,501 @@
         <v>18</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="8" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="8"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>50</v>
-      </c>
       <c r="C7" s="6" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="8"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="8"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="8"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="8"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="8" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="8" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="8" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="7"/>
       <c r="B14" s="6" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="8" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="7"/>
       <c r="B15" s="6" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="8" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="7"/>
       <c r="B16" s="6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="8" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="8" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="7"/>
       <c r="B18" s="6" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="8" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="7"/>
       <c r="B19" s="6" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="8" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="8" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="7"/>
       <c r="B21" s="6" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="6" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="7"/>
       <c r="B22" s="6" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="6" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="13"/>
       <c r="B23" s="14" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>14</v>
       </c>
       <c r="E23" s="14"/>
       <c r="F23" s="14" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="15"/>
       <c r="B24" s="16" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>14</v>
       </c>
       <c r="E24" s="15"/>
       <c r="F24" s="15" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="13" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>14</v>
       </c>
       <c r="E25" s="14"/>
       <c r="F25" s="17" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="8" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="8" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="8" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="8" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3901,327 +3671,393 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A4:F23"/>
+  <dimension ref="A4:G25"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.72680412371134"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.7731958762887"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.840206185567"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.9587628865979"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.68556701030928"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="20.7319587628866"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.72680412371134"/>
+    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="21.659793814433"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.72680412371134"/>
   </cols>
   <sheetData>
-    <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="18"/>
       <c r="B4" s="19" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="20" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G4" s="20" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="18"/>
       <c r="B5" s="19" t="s">
-        <v>45</v>
+        <v>197</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>202</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-    </row>
-    <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>198</v>
+      </c>
+      <c r="D5" s="22"/>
+      <c r="E5" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="20"/>
+    </row>
+    <row r="6" customFormat="false" ht="87.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="18"/>
       <c r="B6" s="19" t="s">
-        <v>35</v>
+        <v>199</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>203</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>204</v>
-      </c>
-      <c r="F6" s="23" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>200</v>
+      </c>
+      <c r="D6" s="22"/>
+      <c r="E6" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="G6" s="20"/>
+    </row>
+    <row r="7" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="18"/>
       <c r="B7" s="19" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="23" t="s">
-        <v>206</v>
-      </c>
-      <c r="F7" s="23" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+    </row>
+    <row r="8" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="18"/>
       <c r="B8" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>207</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>47</v>
+        <v>29</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>41</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>204</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="18"/>
       <c r="B9" s="19" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-    </row>
-    <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>46</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="18"/>
       <c r="B10" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>209</v>
-      </c>
-      <c r="D10" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-    </row>
-    <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="18"/>
       <c r="B11" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>210</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-    </row>
-    <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>49</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+    </row>
+    <row r="12" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="18"/>
       <c r="B12" s="19" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>211</v>
-      </c>
-      <c r="F12" s="23" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>52</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+    </row>
+    <row r="13" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="18"/>
       <c r="B13" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>213</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-    </row>
-    <row r="14" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>54</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="18"/>
       <c r="B14" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>214</v>
-      </c>
-      <c r="D14" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="20" t="s">
         <v>15</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>208</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="18"/>
       <c r="B15" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>216</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-    </row>
-    <row r="16" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>63</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+    </row>
+    <row r="16" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="18"/>
       <c r="B16" s="19" t="s">
-        <v>217</v>
+        <v>65</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>14</v>
+        <v>66</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>15</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>218</v>
-      </c>
-      <c r="F16" s="22"/>
-    </row>
-    <row r="17" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>209</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="18"/>
       <c r="B17" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>219</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-    </row>
-    <row r="18" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>75</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="18"/>
       <c r="B18" s="19" t="s">
-        <v>163</v>
+        <v>210</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="D18" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="D18" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-    </row>
-    <row r="19" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E18" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+    </row>
+    <row r="19" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="18"/>
       <c r="B19" s="19" t="s">
-        <v>182</v>
+        <v>68</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="D19" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="D19" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-    </row>
-    <row r="20" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="18"/>
       <c r="B20" s="19" t="s">
-        <v>110</v>
+        <v>157</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>185</v>
-      </c>
-      <c r="D20" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-    </row>
-    <row r="21" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="18"/>
       <c r="B21" s="19" t="s">
-        <v>113</v>
+        <v>176</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>187</v>
-      </c>
-      <c r="D21" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="D21" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-    </row>
-    <row r="22" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="18"/>
       <c r="B22" s="19" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="D22" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="D22" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-    </row>
-    <row r="23" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="18"/>
       <c r="B23" s="19" t="s">
-        <v>197</v>
+        <v>107</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="D23" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="D23" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="18"/>
+      <c r="B24" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="18"/>
+      <c r="B25" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/src/test/resources/check_sheet.xlsx
+++ b/src/test/resources/check_sheet.xlsx
@@ -1972,7 +1972,7 @@
   <dimension ref="B4:M65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2321,8 +2321,8 @@
   </sheetPr>
   <dimension ref="A4:F50"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A27" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B33" activeCellId="0" sqref="B33"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2701,7 +2701,7 @@
       <c r="E26" s="6"/>
       <c r="F26" s="8"/>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="7" t="s">
         <v>38</v>
       </c>
@@ -3674,7 +3674,7 @@
   <dimension ref="A4:G25"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/src/test/resources/check_sheet.xlsx
+++ b/src/test/resources/check_sheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Target" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="213">
   <si>
     <r>
       <rPr>
@@ -530,6 +530,12 @@
   </si>
   <si>
     <t xml:space="preserve">RuleDB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">compare_server</t>
+  </si>
+  <si>
+    <t xml:space="preserve">比較対象サーバ名。verify_idの入力が必須。未記入の場合はverify_idで指定した検査ルールの比較対象サーバ設定が既定値になる</t>
   </si>
   <si>
     <t xml:space="preserve">以降の行はユーザ定義パラメータの指定行となり、検査コード、検査ルールからserver_info['項目ID']パラメータで値を参照します</t>
@@ -1636,9 +1642,6 @@
   </si>
   <si>
     <t xml:space="preserve">RuleDB2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">compare_server</t>
   </si>
   <si>
     <t xml:space="preserve">結果を比較する対象サーバ</t>
@@ -1971,18 +1974,18 @@
   </sheetPr>
   <dimension ref="B4:M65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.72680412371134"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.7319587628866"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.0051546391753"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.59278350515464"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.5927835051546"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.8711340206186"/>
     <col collapsed="false" hidden="false" max="6" min="4" style="0" width="16.0927835051546"/>
     <col collapsed="false" hidden="false" max="13" min="7" style="0" width="6.68041237113402"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.72680412371134"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.59278350515464"/>
   </cols>
   <sheetData>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2189,14 +2192,18 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
     </row>
-    <row r="12" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="2"/>
-      <c r="C12" s="5" t="s">
+    <row r="12" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="2"/>
+      <c r="C12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -2205,18 +2212,14 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="2" t="s">
+    <row r="13" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="2"/>
+      <c r="C13" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1" t="n">
-        <v>2</v>
-      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -2225,11 +2228,11 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D14" s="1"/>
@@ -2245,12 +2248,18 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="F15" s="1" t="n">
+        <v>2</v>
+      </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -2301,7 +2310,20 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
     </row>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+    </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2327,14 +2349,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.72680412371134"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.319587628866"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.59278350515464"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.1855670103093"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.9587628865979"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.68556701030928"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.41237113402062"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="54.8247422680412"/>
-    <col collapsed="false" hidden="false" max="10" min="7" style="0" width="14.1855670103093"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.72680412371134"/>
+    <col collapsed="false" hidden="false" max="10" min="7" style="0" width="14.0463917525773"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.59278350515464"/>
   </cols>
   <sheetData>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2342,49 +2364,49 @@
         <v>18</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7"/>
       <c r="B6" s="6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C6" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>43</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>41</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="8"/>
@@ -2392,13 +2414,13 @@
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7"/>
       <c r="B7" s="6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="8"/>
@@ -2406,13 +2428,13 @@
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7"/>
       <c r="B8" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="8"/>
@@ -2420,13 +2442,13 @@
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7"/>
       <c r="B9" s="6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="8"/>
@@ -2434,150 +2456,150 @@
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="7"/>
       <c r="B10" s="6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="8"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="7"/>
       <c r="B18" s="6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>15</v>
@@ -2588,10 +2610,10 @@
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="7"/>
       <c r="B19" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>15</v>
@@ -2602,10 +2624,10 @@
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="7"/>
       <c r="B20" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>15</v>
@@ -2616,10 +2638,10 @@
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="7"/>
       <c r="B21" s="6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>15</v>
@@ -2630,10 +2652,10 @@
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="7"/>
       <c r="B22" s="6" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>15</v>
@@ -2643,44 +2665,44 @@
     </row>
     <row r="23" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="7"/>
       <c r="B25" s="6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6" t="s">
@@ -2692,7 +2714,7 @@
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="7"/>
       <c r="B26" s="6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6" t="s">
@@ -2703,31 +2725,31 @@
     </row>
     <row r="27" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="7"/>
       <c r="B28" s="6" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>15</v>
@@ -2737,138 +2759,138 @@
     </row>
     <row r="29" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="8" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="8" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="8" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="71.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E33" s="6"/>
       <c r="F33" s="8" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E34" s="6"/>
       <c r="F34" s="8" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="6"/>
       <c r="B36" s="6" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6" t="s">
@@ -2879,44 +2901,44 @@
     </row>
     <row r="37" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E37" s="6"/>
       <c r="F37" s="10" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="6"/>
       <c r="B38" s="6" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E38" s="6"/>
       <c r="F38" s="10" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C39" s="6"/>
       <c r="D39" s="6" t="s">
@@ -2927,121 +2949,121 @@
     </row>
     <row r="40" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="11" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E40" s="11"/>
       <c r="F40" s="10" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="11" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E41" s="11"/>
       <c r="F41" s="10" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="11" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E42" s="11"/>
       <c r="F42" s="10" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="11" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E43" s="11"/>
       <c r="F43" s="10" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="49.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="11" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E44" s="11"/>
       <c r="F44" s="10" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="11" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E45" s="11"/>
       <c r="F45" s="10" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="11" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>15</v>
@@ -3051,26 +3073,26 @@
     </row>
     <row r="47" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="11" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D47" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E47" s="11"/>
       <c r="F47" s="10" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="11"/>
       <c r="B48" s="11" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C48" s="11"/>
       <c r="D48" s="6" t="s">
@@ -3081,28 +3103,28 @@
     </row>
     <row r="49" customFormat="false" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="11" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D49" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E49" s="11"/>
       <c r="F49" s="10" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="11" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C50" s="12"/>
       <c r="D50" s="6" t="s">
@@ -3135,14 +3157,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.72680412371134"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.319587628866"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.0051546391753"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.59278350515464"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.1855670103093"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.8659793814433"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.6855670103093"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.41237113402062"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="56.3247422680412"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.8659793814433"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.72680412371134"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="56.1907216494845"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.7319587628866"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.59278350515464"/>
   </cols>
   <sheetData>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3150,501 +3172,501 @@
         <v>18</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C6" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>43</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>41</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="8"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="8"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="8"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="8"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="8"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="8" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="7"/>
       <c r="B14" s="6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="8" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="7"/>
       <c r="B15" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="8" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="7"/>
       <c r="B16" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="8" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="7"/>
       <c r="B18" s="6" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="8" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="7"/>
       <c r="B19" s="6" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="8" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="8" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="7"/>
       <c r="B21" s="6" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="6" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="7"/>
       <c r="B22" s="6" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="6" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="13"/>
       <c r="B23" s="14" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>14</v>
       </c>
       <c r="E23" s="14"/>
       <c r="F23" s="14" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="15"/>
       <c r="B24" s="16" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>14</v>
       </c>
       <c r="E24" s="15"/>
       <c r="F24" s="15" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="13" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>14</v>
       </c>
       <c r="E25" s="14"/>
       <c r="F25" s="17" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="8" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="8" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="8" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="8" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3673,30 +3695,30 @@
   </sheetPr>
   <dimension ref="A4:G25"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.72680412371134"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.840206185567"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.59278350515464"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.819587628866"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.9587628865979"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.68556701030928"/>
-    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="21.659793814433"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.72680412371134"/>
+    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="21.6855670103093"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.59278350515464"/>
   </cols>
   <sheetData>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="18"/>
       <c r="B4" s="19" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E4" s="20" t="s">
         <v>26</v>
@@ -3705,16 +3727,16 @@
         <v>27</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="18"/>
       <c r="B5" s="19" t="s">
-        <v>197</v>
+        <v>28</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D5" s="22"/>
       <c r="E5" s="20" t="s">
@@ -3728,30 +3750,30 @@
     <row r="6" customFormat="false" ht="87.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="18"/>
       <c r="B6" s="19" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="20" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G6" s="20"/>
     </row>
     <row r="7" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="18"/>
       <c r="B7" s="19" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E7" s="23"/>
       <c r="F7" s="23"/>
@@ -3760,76 +3782,76 @@
     <row r="8" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="18"/>
       <c r="B8" s="19" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C8" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="20" t="s">
-        <v>41</v>
-      </c>
       <c r="E8" s="23" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G8" s="23" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="18"/>
       <c r="B9" s="19" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E9" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="F9" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="F9" s="23" t="s">
-        <v>204</v>
-      </c>
       <c r="G9" s="23" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="18"/>
       <c r="B10" s="19" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G10" s="23" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="18"/>
       <c r="B11" s="19" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E11" s="23"/>
       <c r="F11" s="23"/>
@@ -3838,13 +3860,13 @@
     <row r="12" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="18"/>
       <c r="B12" s="19" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E12" s="23"/>
       <c r="F12" s="23"/>
@@ -3853,13 +3875,13 @@
     <row r="13" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="18"/>
       <c r="B13" s="19" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E13" s="23"/>
       <c r="F13" s="23"/>
@@ -3868,31 +3890,31 @@
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="18"/>
       <c r="B14" s="19" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D14" s="20" t="s">
         <v>15</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G14" s="23" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="18"/>
       <c r="B15" s="19" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D15" s="20" t="s">
         <v>15</v>
@@ -3904,31 +3926,31 @@
     <row r="16" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="18"/>
       <c r="B16" s="19" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D16" s="20" t="s">
         <v>15</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F16" s="23" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G16" s="23" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="18"/>
       <c r="B17" s="19" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D17" s="20" t="s">
         <v>15</v>
@@ -3940,16 +3962,16 @@
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="18"/>
       <c r="B18" s="19" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D18" s="20" t="s">
         <v>14</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F18" s="23"/>
       <c r="G18" s="23"/>
@@ -3957,10 +3979,10 @@
     <row r="19" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="18"/>
       <c r="B19" s="19" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D19" s="20" t="s">
         <v>14</v>
@@ -3972,10 +3994,10 @@
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="18"/>
       <c r="B20" s="19" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D20" s="20" t="s">
         <v>14</v>
@@ -3987,10 +4009,10 @@
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="18"/>
       <c r="B21" s="19" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D21" s="20" t="s">
         <v>14</v>
@@ -4002,10 +4024,10 @@
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="18"/>
       <c r="B22" s="19" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D22" s="20" t="s">
         <v>14</v>
@@ -4017,10 +4039,10 @@
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="18"/>
       <c r="B23" s="19" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D23" s="20" t="s">
         <v>14</v>
@@ -4032,10 +4054,10 @@
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="18"/>
       <c r="B24" s="19" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D24" s="20" t="s">
         <v>14</v>
@@ -4047,10 +4069,10 @@
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="18"/>
       <c r="B25" s="19" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D25" s="20" t="s">
         <v>14</v>

--- a/src/test/resources/check_sheet.xlsx
+++ b/src/test/resources/check_sheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Target" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="454">
   <si>
     <t xml:space="preserve">Type</t>
   </si>
@@ -41,7 +41,7 @@
     <t xml:space="preserve">定義</t>
   </si>
   <si>
-    <t xml:space="preserve">platform</t>
+    <t xml:space="preserve">domain</t>
   </si>
   <si>
     <t xml:space="preserve">チェックシートのID。検査対象がESXiホストの場合は'VMHost'を、ゲストOSの場合は、'Windows'または'Linux'を記入。設定ファイル内evidence.sheet_name_specのIDを指定</t>
@@ -1436,6 +1436,9 @@
       </rPr>
       <t xml:space="preserve">データベースから </t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">local</t>
   </si>
   <si>
     <t xml:space="preserve">VMWare リソース割り当て</t>
@@ -1632,7 +1635,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1745,10 +1748,6 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -1769,8 +1768,8 @@
   </sheetPr>
   <dimension ref="B1:M20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5529,8 +5528,8 @@
   </sheetPr>
   <dimension ref="A4:N27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C26" activeCellId="0" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5619,8 +5618,10 @@
         <v>442</v>
       </c>
       <c r="D6" s="26"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
+      <c r="E6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="5"/>
       <c r="G6" s="25"/>
       <c r="H6" s="25"/>
       <c r="I6" s="25"/>
@@ -5639,8 +5640,10 @@
         <v>444</v>
       </c>
       <c r="D7" s="26"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
+      <c r="E7" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="F7" s="5"/>
       <c r="G7" s="25"/>
       <c r="H7" s="25"/>
       <c r="I7" s="25"/>
@@ -5656,7 +5659,7 @@
         <v>47</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>49</v>
@@ -5684,10 +5687,10 @@
         <v>49</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="G9" s="25"/>
       <c r="H9" s="25"/>
@@ -5710,10 +5713,10 @@
         <v>49</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="G10" s="25"/>
       <c r="H10" s="25"/>
@@ -5736,10 +5739,10 @@
         <v>49</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="G11" s="25"/>
       <c r="H11" s="25"/>
@@ -5756,7 +5759,7 @@
         <v>61</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>49</v>
@@ -5828,10 +5831,10 @@
         <v>49</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="25"/>
@@ -5933,10 +5936,10 @@
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="24"/>
       <c r="B20" s="10" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>8</v>

--- a/src/test/resources/check_sheet.xlsx
+++ b/src/test/resources/check_sheet.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="453">
   <si>
     <t xml:space="preserve">Type</t>
   </si>
@@ -113,7 +113,7 @@
     <t xml:space="preserve">シート「検証ルール」のIDを指定。検証が不要な場合は未記入</t>
   </si>
   <si>
-    <t xml:space="preserve">AP</t>
+    <t xml:space="preserve">RuleAP</t>
   </si>
   <si>
     <t xml:space="preserve">compare_server</t>
@@ -1352,9 +1352,6 @@
   </si>
   <si>
     <t xml:space="preserve">ルール定義名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RuleAP</t>
   </si>
   <si>
     <t xml:space="preserve">RuleDB</t>
@@ -1768,18 +1765,18 @@
   </sheetPr>
   <dimension ref="B1:M20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="36.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="4" style="0" width="13.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="12.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="7.37"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.3659793814433"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.3659793814433"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.8247422680412"/>
+    <col collapsed="false" hidden="false" max="8" min="4" style="0" width="13.3659793814433"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.2731958762887"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="7.3659793814433"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2162,9 +2159,7 @@
       <c r="D13" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>29</v>
-      </c>
+      <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
@@ -2330,20 +2325,20 @@
   </sheetPr>
   <dimension ref="A1:F85"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A71" activeCellId="0" sqref="A71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="6.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="54.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="7" style="0" width="13.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="7.37"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.3659793814433"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.3659793814433"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.9587628865979"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.41237113402062"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.41237113402062"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="54.8247422680412"/>
+    <col collapsed="false" hidden="false" max="10" min="7" style="0" width="13.3659793814433"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="7.3659793814433"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3818,20 +3813,20 @@
   </sheetPr>
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E38" activeCellId="0" sqref="E38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="6.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="55.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="7.37"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.3659793814433"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.3659793814433"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.3659793814433"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.4123711340206"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.41237113402062"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="55.3711340206186"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.3659793814433"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="7.3659793814433"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4886,18 +4881,18 @@
   </sheetPr>
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="7.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="49.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="7.37"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.3659793814433"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.2783505154639"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.3659793814433"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="7.3659793814433"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="49.3711340206186"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="7.3659793814433"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5528,19 +5523,19 @@
   </sheetPr>
   <dimension ref="A4:N27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C26" activeCellId="0" sqref="C26"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="7.37"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.3659793814433"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.3659793814433"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.9587628865979"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.41237113402062"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.0927835051546"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.2319587628866"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="7.3659793814433"/>
   </cols>
   <sheetData>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5595,10 +5590,10 @@
       </c>
       <c r="D5" s="26"/>
       <c r="E5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>440</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>441</v>
       </c>
       <c r="G5" s="25"/>
       <c r="H5" s="25"/>
@@ -5615,7 +5610,7 @@
         <v>30</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D6" s="26"/>
       <c r="E6" s="5" t="s">
@@ -5634,14 +5629,14 @@
     <row r="7" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="24"/>
       <c r="B7" s="27" t="s">
+        <v>442</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>443</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>444</v>
       </c>
       <c r="D7" s="26"/>
       <c r="E7" s="5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="25"/>
@@ -5659,7 +5654,7 @@
         <v>47</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>49</v>
@@ -5687,10 +5682,10 @@
         <v>49</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G9" s="25"/>
       <c r="H9" s="25"/>
@@ -5713,10 +5708,10 @@
         <v>49</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G10" s="25"/>
       <c r="H10" s="25"/>
@@ -5739,10 +5734,10 @@
         <v>49</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="G11" s="25"/>
       <c r="H11" s="25"/>
@@ -5759,7 +5754,7 @@
         <v>61</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>49</v>
@@ -5831,10 +5826,10 @@
         <v>49</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="25"/>
@@ -5936,10 +5931,10 @@
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="24"/>
       <c r="B20" s="10" t="s">
+        <v>451</v>
+      </c>
+      <c r="C20" s="11" t="s">
         <v>452</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>453</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>8</v>

--- a/src/test/resources/check_sheet.xlsx
+++ b/src/test/resources/check_sheet.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="453">
   <si>
     <t xml:space="preserve">Type</t>
   </si>
@@ -68,16 +68,16 @@
     <t xml:space="preserve">検査対象サーバ名。検査シート内で一意となる名称を記入してください。</t>
   </si>
   <si>
+    <t xml:space="preserve">win2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSH接続、PowerShell内コマンドで接続するIPアドレス</t>
+  </si>
+  <si>
     <t xml:space="preserve">centos7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">win2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSH接続、PowerShell内コマンドで接続するIPアドレス</t>
   </si>
   <si>
     <t xml:space="preserve">os_account_id</t>
@@ -1765,8 +1765,8 @@
   </sheetPr>
   <dimension ref="B1:M20"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1916,11 +1916,12 @@
       <c r="C7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="6" t="str">
+        <f aca="false">"centos7"</f>
+        <v>centos7</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>15</v>
       </c>
       <c r="F7" s="6" t="str">
         <f aca="false">IF(OR(F$5="Linux",F$5="Windows",F$5="VMHost"),"サーバ名を入力してください","")</f>
@@ -1957,16 +1958,16 @@
     </row>
     <row r="8" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="D8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="E8" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>15</v>
       </c>
       <c r="F8" s="6" t="str">
         <f aca="false">IF(OR(F$5="Linux",F$5="Windows",F$5="VMHost"),"IPアドレスを入力してください","")</f>
@@ -5614,7 +5615,7 @@
       </c>
       <c r="D6" s="26"/>
       <c r="E6" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="25"/>

--- a/src/test/resources/check_sheet.xlsx
+++ b/src/test/resources/check_sheet.xlsx
@@ -1,20 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\work\gradle\gradle-server-acceptance\src\test\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15465" windowHeight="5190" tabRatio="755"/>
   </bookViews>
   <sheets>
-    <sheet name="Target" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="CheckSheet(Linux)" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="CheckSheet(Windows)" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="CheckSheet(VMHost)" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Rule" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Target" sheetId="1" r:id="rId1"/>
+    <sheet name="CheckSheet(Linux)" sheetId="2" r:id="rId2"/>
+    <sheet name="CheckSheet(Windows)" sheetId="3" r:id="rId3"/>
+    <sheet name="CheckSheet(VMHost)" sheetId="4" r:id="rId4"/>
+    <sheet name="Rule" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -24,1343 +28,1343 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="453">
-  <si>
-    <t xml:space="preserve">Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Local(Excel)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">URL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">定義</t>
-  </si>
-  <si>
-    <t xml:space="preserve">domain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">チェックシートのID。検査対象がESXiホストの場合は'VMHost'を、ゲストOSの場合は、'Windows'または'Linux'を記入。設定ファイル内evidence.sheet_name_specのIDを指定</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Windows</t>
-  </si>
-  <si>
-    <t xml:space="preserve">virtualization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'VM’か’オンプレサーバ’かを選択</t>
-  </si>
-  <si>
-    <t xml:space="preserve">オンプレ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">server_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">検査対象サーバ名。検査シート内で一意となる名称を記入してください。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">win2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSH接続、PowerShell内コマンドで接続するIPアドレス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">centos7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">os_account_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ローカル採取で使用するアカウントID。OSの情報採取の場合、対象サーバのOSアカウントを指定し、設定ファイル内パラメータaccount.{ドメイン}.{ID}のIDを指定する。リモート採取の場合は未記入</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">os_specific_password</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="456">
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Local(Excel)</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>定義</t>
+  </si>
+  <si>
+    <t>domain</t>
+  </si>
+  <si>
+    <t>チェックシートのID。検査対象がESXiホストの場合は'VMHost'を、ゲストOSの場合は、'Windows'または'Linux'を記入。設定ファイル内evidence.sheet_name_specのIDを指定</t>
+  </si>
+  <si>
+    <t>Linux</t>
+  </si>
+  <si>
+    <t>Windows</t>
+  </si>
+  <si>
+    <t>virtualization</t>
+  </si>
+  <si>
+    <t>'VM’か’オンプレサーバ’かを選択</t>
+  </si>
+  <si>
+    <t>オンプレ</t>
+  </si>
+  <si>
+    <t>server_name</t>
+  </si>
+  <si>
+    <t>検査対象サーバ名。検査シート内で一意となる名称を記入してください。</t>
+  </si>
+  <si>
+    <t>win2012</t>
+  </si>
+  <si>
+    <t>ip</t>
+  </si>
+  <si>
+    <t>SSH接続、PowerShell内コマンドで接続するIPアドレス</t>
+  </si>
+  <si>
+    <t>centos7</t>
+  </si>
+  <si>
+    <t>os_account_id</t>
+  </si>
+  <si>
+    <t>ローカル採取で使用するアカウントID。OSの情報採取の場合、対象サーバのOSアカウントを指定し、設定ファイル内パラメータaccount.{ドメイン}.{ID}のIDを指定する。リモート採取の場合は未記入</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>os_specific_password</t>
   </si>
   <si>
     <t xml:space="preserve">固有のOSアカウントパスワード。未記入の場合は設定ファイルの値を反映 </t>
   </si>
   <si>
-    <t xml:space="preserve">remote_account_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">リモート採取で使用するアカウントID。vCenterサーバなどリモートから情報採取をする場合のリモートのアカウントIDを指定する。ローカル採取の場合は未記入</t>
-  </si>
-  <si>
-    <t xml:space="preserve">remote_alias</t>
-  </si>
-  <si>
-    <t xml:space="preserve">リモート採取をする場合の、検査対象サーバ名のエイリアス名。vCenterの場合、vm名。ローカル採取の場合は未記入</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">シート「検証ルール」のIDを指定。検証が不要な場合は未記入</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RuleAP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">compare_server</t>
-  </si>
-  <si>
-    <t xml:space="preserve">比較対象サーバ名。verify_idの入力が必須。未記入の場合はverify_idで指定した検査ルールの比較対象サーバ設定が既定値になる</t>
-  </si>
-  <si>
-    <t xml:space="preserve">以降の行はユーザ定義パラメータの指定行となり、検査コード、検査ルールからserver_info['項目ID']パラメータで値を参照します</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NumCpu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPU割り当て数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MemoryGB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">メモリ割り当て</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESXiHost</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESXiホスト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HDDType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ストレージ構成</t>
+    <t>remote_account_id</t>
+  </si>
+  <si>
+    <t>リモート採取で使用するアカウントID。vCenterサーバなどリモートから情報採取をする場合のリモートのアカウントIDを指定する。ローカル採取の場合は未記入</t>
+  </si>
+  <si>
+    <t>remote_alias</t>
+  </si>
+  <si>
+    <t>リモート採取をする場合の、検査対象サーバ名のエイリアス名。vCenterの場合、vm名。ローカル採取の場合は未記入</t>
+  </si>
+  <si>
+    <t>verify_id</t>
+  </si>
+  <si>
+    <t>シート「検証ルール」のIDを指定。検証が不要な場合は未記入</t>
+  </si>
+  <si>
+    <t>RuleAP</t>
+  </si>
+  <si>
+    <t>compare_server</t>
+  </si>
+  <si>
+    <t>比較対象サーバ名。verify_idの入力が必須。未記入の場合はverify_idで指定した検査ルールの比較対象サーバ設定が既定値になる</t>
+  </si>
+  <si>
+    <t>以降の行はユーザ定義パラメータの指定行となり、検査コード、検査ルールからserver_info['項目ID']パラメータで値を参照します</t>
+  </si>
+  <si>
+    <t>NumCpu</t>
+  </si>
+  <si>
+    <t>CPU割り当て数</t>
+  </si>
+  <si>
+    <t>MemoryGB</t>
+  </si>
+  <si>
+    <t>メモリ割り当て</t>
+  </si>
+  <si>
+    <t>ESXiHost</t>
+  </si>
+  <si>
+    <t>ESXiホスト</t>
+  </si>
+  <si>
+    <t>HDDType</t>
+  </si>
+  <si>
+    <t>ストレージ構成</t>
   </si>
   <si>
     <t xml:space="preserve">* IDが "filesystem.*", "user.*", "service.*", "packages.*" の行はカスタム項目となります。システム構成／要件に合わせて項目の削除、追加、変更をしてください。  </t>
   </si>
   <si>
-    <t xml:space="preserve">項目</t>
-  </si>
-  <si>
-    <t xml:space="preserve">分類</t>
-  </si>
-  <si>
-    <t xml:space="preserve">デバイス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">採取情報</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VMWare リソース</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vCenter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VMWare CPU,メモリ割り当て、 電源On-Off、ホストIPの検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─CPU割り当て数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">仮想マシンのCPU仮想ソケット数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PowerState</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─電源状態</t>
-  </si>
-  <si>
-    <t xml:space="preserve">電源On/Off</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─メモリ割り当て</t>
-  </si>
-  <si>
-    <t xml:space="preserve">メモリ割り当てサイズ[GB]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VMHost</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─ESXiホスト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESXiホスト名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cluster</t>
-  </si>
-  <si>
-    <t xml:space="preserve">└─クラスター</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vCenterクラスタ名、vCenter構成でない場合は未記入</t>
-  </si>
-  <si>
-    <t xml:space="preserve">datastore</t>
+    <t>項目</t>
+  </si>
+  <si>
+    <t>分類</t>
+  </si>
+  <si>
+    <t>デバイス</t>
+  </si>
+  <si>
+    <t>採取情報</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>vm</t>
+  </si>
+  <si>
+    <t>VMWare リソース</t>
+  </si>
+  <si>
+    <t>vCenter</t>
+  </si>
+  <si>
+    <t>VMWare CPU,メモリ割り当て、 電源On-Off、ホストIPの検索</t>
+  </si>
+  <si>
+    <t>├─CPU割り当て数</t>
+  </si>
+  <si>
+    <t>仮想マシンのCPU仮想ソケット数</t>
+  </si>
+  <si>
+    <t>PowerState</t>
+  </si>
+  <si>
+    <t>├─電源状態</t>
+  </si>
+  <si>
+    <t>電源On/Off</t>
+  </si>
+  <si>
+    <t>├─メモリ割り当て</t>
+  </si>
+  <si>
+    <t>メモリ割り当てサイズ[GB]</t>
+  </si>
+  <si>
+    <t>VMHost</t>
+  </si>
+  <si>
+    <t>├─ESXiホスト</t>
+  </si>
+  <si>
+    <t>ESXiホスト名</t>
+  </si>
+  <si>
+    <t>Cluster</t>
+  </si>
+  <si>
+    <t>└─クラスター</t>
+  </si>
+  <si>
+    <t>vCenterクラスタ名、vCenter構成でない場合は未記入</t>
+  </si>
+  <si>
+    <t>datastore</t>
   </si>
   <si>
     <t xml:space="preserve">データストア </t>
   </si>
   <si>
-    <t xml:space="preserve">データストアパスの取得</t>
-  </si>
-  <si>
-    <t xml:space="preserve">network</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ネットワーク・アダプタ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ネットワーク・アダプタの取得</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vmwaretool</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VMWare ツール</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VMWare ツールの有無、アップグレードの検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vm_timesync</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VMWare 時刻同期</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VMWare 時刻同期の有無</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vm_iops_limit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ストレージIOPS制限</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ストレージリソースのIOPS制限値を検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vm_storage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ストレージ構成情報検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hostname</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ホスト名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ホスト名の検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hostname_fqdn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FQDN名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FQDN名の検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uname</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OSカーネル</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lsb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OSバージョン</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linux OSディストリビューション情報 を検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cpu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPU情報</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/proc/cpuinfo を検索してプロセッサ構成を検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">model_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─プロセッサーモデル</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPUプロセッサーモデル</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mhz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─CPUクロック</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPUクロック数[MHz]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cpu_total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─CPUスレッド数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPUスレッド数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cpu_core</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─CPUコア数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPUコア数。VMの場合は未記入</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cpu_real</t>
-  </si>
-  <si>
-    <t xml:space="preserve">└─CPUソケット数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPUソケット数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">machineid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">サーバの識別子</t>
-  </si>
-  <si>
-    <t xml:space="preserve">以下のファイルを検索してマシンの識別子を検索
+    <t>データストアパスの取得</t>
+  </si>
+  <si>
+    <t>network</t>
+  </si>
+  <si>
+    <t>ネットワーク・アダプタ</t>
+  </si>
+  <si>
+    <t>ネットワーク・アダプタの取得</t>
+  </si>
+  <si>
+    <t>vmwaretool</t>
+  </si>
+  <si>
+    <t>VMWare ツール</t>
+  </si>
+  <si>
+    <t>VMWare ツールの有無、アップグレードの検索</t>
+  </si>
+  <si>
+    <t>vm_timesync</t>
+  </si>
+  <si>
+    <t>VMWare 時刻同期</t>
+  </si>
+  <si>
+    <t>VMWare 時刻同期の有無</t>
+  </si>
+  <si>
+    <t>vm_iops_limit</t>
+  </si>
+  <si>
+    <t>ストレージIOPS制限</t>
+  </si>
+  <si>
+    <t>ストレージリソースのIOPS制限値を検索</t>
+  </si>
+  <si>
+    <t>vm_storage</t>
+  </si>
+  <si>
+    <t>ストレージ構成情報検索</t>
+  </si>
+  <si>
+    <t>hostname</t>
+  </si>
+  <si>
+    <t>ホスト名</t>
+  </si>
+  <si>
+    <t>ホスト名の検索</t>
+  </si>
+  <si>
+    <t>hostname_fqdn</t>
+  </si>
+  <si>
+    <t>FQDN名</t>
+  </si>
+  <si>
+    <t>FQDN名の検索</t>
+  </si>
+  <si>
+    <t>uname</t>
+  </si>
+  <si>
+    <t>OSカーネル</t>
+  </si>
+  <si>
+    <t>lsb</t>
+  </si>
+  <si>
+    <t>OSバージョン</t>
+  </si>
+  <si>
+    <t>Linux OSディストリビューション情報 を検索</t>
+  </si>
+  <si>
+    <t>cpu</t>
+  </si>
+  <si>
+    <t>CPU情報</t>
+  </si>
+  <si>
+    <t>/proc/cpuinfo を検索してプロセッサ構成を検索</t>
+  </si>
+  <si>
+    <t>model_name</t>
+  </si>
+  <si>
+    <t>├─プロセッサーモデル</t>
+  </si>
+  <si>
+    <t>CPUプロセッサーモデル</t>
+  </si>
+  <si>
+    <t>mhz</t>
+  </si>
+  <si>
+    <t>├─CPUクロック</t>
+  </si>
+  <si>
+    <t>CPUクロック数[MHz]</t>
+  </si>
+  <si>
+    <t>cpu_total</t>
+  </si>
+  <si>
+    <t>├─CPUスレッド数</t>
+  </si>
+  <si>
+    <t>CPUスレッド数</t>
+  </si>
+  <si>
+    <t>cpu_core</t>
+  </si>
+  <si>
+    <t>├─CPUコア数</t>
+  </si>
+  <si>
+    <t>CPUコア数。VMの場合は未記入</t>
+  </si>
+  <si>
+    <t>cpu_real</t>
+  </si>
+  <si>
+    <t>└─CPUソケット数</t>
+  </si>
+  <si>
+    <t>CPUソケット数</t>
+  </si>
+  <si>
+    <t>machineid</t>
+  </si>
+  <si>
+    <t>サーバの識別子</t>
+  </si>
+  <si>
+    <t>以下のファイルを検索してマシンの識別子を検索
     /etc/machine-id
     /var/lib/dbus/machine-id</t>
   </si>
   <si>
-    <t xml:space="preserve">meminfo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">メモリ情報</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"/proc/meminfo" ファイルを検索してメモリ構成を検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mem_free</t>
-  </si>
-  <si>
-    <t xml:space="preserve">└─メモリ空容量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">メモリ空き容量[KB]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ネットワーク情報</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/sbin/ip addr'コマンドでネットワークデバイスリストを検索。詳細は別シートに登録</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hw_address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">└─MACアドレス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MACアドレス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">net_onboot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ネットワークブート</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/etc/sysconfig/network-scripts下のファイルを検索してネットワークブート情報検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">net_route</t>
-  </si>
-  <si>
-    <t xml:space="preserve">デフォルトゲートウェイ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/sbin/ip route'コマンドを実行してデフォルトゲートウェイアドレスを検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">net_bond</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NICの冗長化(bonding設定)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/etc/sysconfig/network-scripts/*-bond*ファイルを検索してNIC冗長設定情報検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">block_device</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ストレージデバイス</t>
+    <t>meminfo</t>
+  </si>
+  <si>
+    <t>メモリ情報</t>
+  </si>
+  <si>
+    <t>"/proc/meminfo" ファイルを検索してメモリ構成を検索</t>
+  </si>
+  <si>
+    <t>mem_free</t>
+  </si>
+  <si>
+    <t>└─メモリ空容量</t>
+  </si>
+  <si>
+    <t>メモリ空き容量[KB]</t>
+  </si>
+  <si>
+    <t>ネットワーク情報</t>
+  </si>
+  <si>
+    <t>/sbin/ip addr'コマンドでネットワークデバイスリストを検索。詳細は別シートに登録</t>
+  </si>
+  <si>
+    <t>hw_address</t>
+  </si>
+  <si>
+    <t>└─MACアドレス</t>
+  </si>
+  <si>
+    <t>MACアドレス</t>
+  </si>
+  <si>
+    <t>net_onboot</t>
+  </si>
+  <si>
+    <t>ネットワークブート</t>
+  </si>
+  <si>
+    <t>/etc/sysconfig/network-scripts下のファイルを検索してネットワークブート情報検索</t>
+  </si>
+  <si>
+    <t>net_route</t>
+  </si>
+  <si>
+    <t>デフォルトゲートウェイ</t>
+  </si>
+  <si>
+    <t>/sbin/ip route'コマンドを実行してデフォルトゲートウェイアドレスを検索</t>
+  </si>
+  <si>
+    <t>net_bond</t>
+  </si>
+  <si>
+    <t>NICの冗長化(bonding設定)</t>
+  </si>
+  <si>
+    <t>/etc/sysconfig/network-scripts/*-bond*ファイルを検索してNIC冗長設定情報検索</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>block_device</t>
+  </si>
+  <si>
+    <t>ストレージデバイス</t>
   </si>
   <si>
     <t xml:space="preserve">/sys/block/下を検索し、各デバイスのベンダー情報、タイムアウト値、キューサイズを検索
 </t>
   </si>
   <si>
-    <t xml:space="preserve">mdadb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ディスクRAID</t>
+    <t>mdadb</t>
+  </si>
+  <si>
+    <t>ディスクRAID</t>
   </si>
   <si>
     <t xml:space="preserve">"/proc/mdstat" ファイルを探して、md([0-9]+)デバイスを取得。"mdadm --detail /dev/#{device}" を実行して、結果を取得。
 </t>
   </si>
   <si>
-    <t xml:space="preserve">filesystem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ファイルシステム</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"/bin/lsblk -i"コマンドを実行して行数を検索。詳細は別シートに登録</t>
-  </si>
-  <si>
-    <t xml:space="preserve">filesystem./</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─ルート(/)マウントポイント</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ルート(/)マウントポイント容量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">filesystem.[SWAP]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─スワップ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">スワップ容量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">filesystem./boot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">└─/boot マウントポイント</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/boot マウントポイント容量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fstab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">自動マウントの設定</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/etc/fstab から設定値が/dev/から始まるパスで、defaultになっている自動マウントされたデバイスを検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lvm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">論理ボリューム情報</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mountコマンドで、/dev/mapper/{ボリュームグループ名}-{論理ボリューム名}を検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">user</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ユーザ情報</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"/etc/passwd" を検索して、ユーザ名を検索。詳細は別シートに登録</t>
-  </si>
-  <si>
-    <t xml:space="preserve">user.zabbix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">└─zabbix ユーザ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zabbix ユーザの有無</t>
-  </si>
-  <si>
-    <t xml:space="preserve">logon_test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ログオンテスト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">config.groovyに記述したログオン検査用ユーザでssh疎通を確認</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fips</t>
-  </si>
-  <si>
-    <t xml:space="preserve">データの暗号化</t>
-  </si>
-  <si>
-    <t xml:space="preserve">以下ファイルを読んで、データ暗号化の有無を確認
+    <t>filesystem</t>
+  </si>
+  <si>
+    <t>ファイルシステム</t>
+  </si>
+  <si>
+    <t>"/bin/lsblk -i"コマンドを実行して行数を検索。詳細は別シートに登録</t>
+  </si>
+  <si>
+    <t>filesystem./</t>
+  </si>
+  <si>
+    <t>├─ルート(/)マウントポイント</t>
+  </si>
+  <si>
+    <t>ルート(/)マウントポイント容量</t>
+  </si>
+  <si>
+    <t>filesystem.[SWAP]</t>
+  </si>
+  <si>
+    <t>├─スワップ</t>
+  </si>
+  <si>
+    <t>スワップ容量</t>
+  </si>
+  <si>
+    <t>filesystem./boot</t>
+  </si>
+  <si>
+    <t>└─/boot マウントポイント</t>
+  </si>
+  <si>
+    <t>/boot マウントポイント容量</t>
+  </si>
+  <si>
+    <t>fstab</t>
+  </si>
+  <si>
+    <t>自動マウントの設定</t>
+  </si>
+  <si>
+    <t>/etc/fstab から設定値が/dev/から始まるパスで、defaultになっている自動マウントされたデバイスを検索</t>
+  </si>
+  <si>
+    <t>lvm</t>
+  </si>
+  <si>
+    <t>論理ボリューム情報</t>
+  </si>
+  <si>
+    <t>mountコマンドで、/dev/mapper/{ボリュームグループ名}-{論理ボリューム名}を検索</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>ユーザ情報</t>
+  </si>
+  <si>
+    <t>"/etc/passwd" を検索して、ユーザ名を検索。詳細は別シートに登録</t>
+  </si>
+  <si>
+    <t>user.zabbix</t>
+  </si>
+  <si>
+    <t>└─zabbix ユーザ</t>
+  </si>
+  <si>
+    <t>zabbix ユーザの有無</t>
+  </si>
+  <si>
+    <t>logon_test</t>
+  </si>
+  <si>
+    <t>ログオンテスト</t>
+  </si>
+  <si>
+    <t>config.groovyに記述したログオン検査用ユーザでssh疎通を確認</t>
+  </si>
+  <si>
+    <t>fips</t>
+  </si>
+  <si>
+    <t>データの暗号化</t>
+  </si>
+  <si>
+    <t>以下ファイルを読んで、データ暗号化の有無を確認
 /proc/sys/crypto/fips_enabled</t>
   </si>
   <si>
-    <t xml:space="preserve">virturization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">仮想化プラットフォーム</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XEN, KVM, Virtualbox など Linux の仮想化プラットフォームの検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">service</t>
-  </si>
-  <si>
-    <t xml:space="preserve">サービス構成</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chkconfig --list コマンドで、サービス数を検索、詳細は別シートに登録</t>
-  </si>
-  <si>
-    <t xml:space="preserve">service.kdump</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─Kdumpクラッシュリカバリ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kdump クラッシュリカバリーサービスの自動起動設定</t>
-  </si>
-  <si>
-    <t xml:space="preserve">service.firewalld</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─ファイヤーウォール(RHEL7)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">firewalld ファイヤーウォールの自動起動設定</t>
-  </si>
-  <si>
-    <t xml:space="preserve">service.iptables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─ファイヤーウォール(RHEL6)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iptables ファイヤーウォールの自動起動設定</t>
-  </si>
-  <si>
-    <t xml:space="preserve">service.ip6tables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─IPv6ファイヤーウォール(RHEL6)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ip6tables ファイヤーウォールの自動起動設定</t>
-  </si>
-  <si>
-    <t xml:space="preserve">service.restorecond</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─SELinux運用サポート</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SELinux の運用サポートデーモンの自動起動設定</t>
-  </si>
-  <si>
-    <t xml:space="preserve">service.NetworkManager</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─ネットワークマネージャー</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ネットワーク管理の自動起動設定</t>
-  </si>
-  <si>
-    <t xml:space="preserve">service.wdaemon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─wdaemon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wacom タブレットのホットプラグ機能の自動起動設定</t>
-  </si>
-  <si>
-    <t xml:space="preserve">service.vncserver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">└─VNCサービス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VNCサーバの自動起動設定</t>
-  </si>
-  <si>
-    <t xml:space="preserve">packages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">パッケージ構成</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rpm -qa でパッケージ情報取得</t>
-  </si>
-  <si>
-    <t xml:space="preserve">packages.gcc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─gcc コンパイラ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gcc パッケージ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">packages.sysstat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─sysstat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sarコマンドが入っているパッケージ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">packages.dmidecode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─dmidecode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ハードウェア構成情報のレポートツール</t>
-  </si>
-  <si>
-    <t xml:space="preserve">packages.net-snmp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─NetSNMP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SNMPマネージャライブラリ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">packages.net-snmp-utils</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─NetSNMPユーティリティ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SNMPマネージャコマンドラインプログラム</t>
-  </si>
-  <si>
-    <t xml:space="preserve">packages.hpsmh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─HPE SMHユーティリティ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP Systems Insight Manager（SIM）にプラグインとして統合されているサーバー構成の統合管理ツール</t>
-  </si>
-  <si>
-    <t xml:space="preserve">packages_set.oracle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─Oracle必須パッケージ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oracle必須パッケージがインストールされているか。'compat-libcap1','compat-libstdc++-33','libstdc++-devel', 'gcc-c++','ksh','libaio-devel'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">packages_set.base</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─システム管理用パッケージ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">システム管理用パッケージがインストールされているか。'sysstat', 'dmidecode', 'strace', 'net-snmp-libs', 'net-snmp-utils', 'busybox-anaconda'
+    <t>virturization</t>
+  </si>
+  <si>
+    <t>仮想化プラットフォーム</t>
+  </si>
+  <si>
+    <t>XEN, KVM, Virtualbox など Linux の仮想化プラットフォームの検索</t>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
+    <t>サービス構成</t>
+  </si>
+  <si>
+    <t>chkconfig --list コマンドで、サービス数を検索、詳細は別シートに登録</t>
+  </si>
+  <si>
+    <t>service.kdump</t>
+  </si>
+  <si>
+    <t>├─Kdumpクラッシュリカバリ</t>
+  </si>
+  <si>
+    <t>kdump クラッシュリカバリーサービスの自動起動設定</t>
+  </si>
+  <si>
+    <t>service.firewalld</t>
+  </si>
+  <si>
+    <t>├─ファイヤーウォール(RHEL7)</t>
+  </si>
+  <si>
+    <t>firewalld ファイヤーウォールの自動起動設定</t>
+  </si>
+  <si>
+    <t>service.iptables</t>
+  </si>
+  <si>
+    <t>├─ファイヤーウォール(RHEL6)</t>
+  </si>
+  <si>
+    <t>iptables ファイヤーウォールの自動起動設定</t>
+  </si>
+  <si>
+    <t>service.ip6tables</t>
+  </si>
+  <si>
+    <t>├─IPv6ファイヤーウォール(RHEL6)</t>
+  </si>
+  <si>
+    <t>ip6tables ファイヤーウォールの自動起動設定</t>
+  </si>
+  <si>
+    <t>service.restorecond</t>
+  </si>
+  <si>
+    <t>├─SELinux運用サポート</t>
+  </si>
+  <si>
+    <t>SELinux の運用サポートデーモンの自動起動設定</t>
+  </si>
+  <si>
+    <t>service.NetworkManager</t>
+  </si>
+  <si>
+    <t>├─ネットワークマネージャー</t>
+  </si>
+  <si>
+    <t>ネットワーク管理の自動起動設定</t>
+  </si>
+  <si>
+    <t>service.wdaemon</t>
+  </si>
+  <si>
+    <t>├─wdaemon</t>
+  </si>
+  <si>
+    <t>Wacom タブレットのホットプラグ機能の自動起動設定</t>
+  </si>
+  <si>
+    <t>service.vncserver</t>
+  </si>
+  <si>
+    <t>└─VNCサービス</t>
+  </si>
+  <si>
+    <t>VNCサーバの自動起動設定</t>
+  </si>
+  <si>
+    <t>packages</t>
+  </si>
+  <si>
+    <t>パッケージ構成</t>
+  </si>
+  <si>
+    <t>rpm -qa でパッケージ情報取得</t>
+  </si>
+  <si>
+    <t>packages.gcc</t>
+  </si>
+  <si>
+    <t>├─gcc コンパイラ</t>
+  </si>
+  <si>
+    <t>gcc パッケージ</t>
+  </si>
+  <si>
+    <t>packages.sysstat</t>
+  </si>
+  <si>
+    <t>├─sysstat</t>
+  </si>
+  <si>
+    <t>sarコマンドが入っているパッケージ</t>
+  </si>
+  <si>
+    <t>packages.dmidecode</t>
+  </si>
+  <si>
+    <t>├─dmidecode</t>
+  </si>
+  <si>
+    <t>ハードウェア構成情報のレポートツール</t>
+  </si>
+  <si>
+    <t>packages.net-snmp</t>
+  </si>
+  <si>
+    <t>├─NetSNMP</t>
+  </si>
+  <si>
+    <t>SNMPマネージャライブラリ</t>
+  </si>
+  <si>
+    <t>packages.net-snmp-utils</t>
+  </si>
+  <si>
+    <t>├─NetSNMPユーティリティ</t>
+  </si>
+  <si>
+    <t>SNMPマネージャコマンドラインプログラム</t>
+  </si>
+  <si>
+    <t>packages.hpsmh</t>
+  </si>
+  <si>
+    <t>├─HPE SMHユーティリティ</t>
+  </si>
+  <si>
+    <t>HP Systems Insight Manager（SIM）にプラグインとして統合されているサーバー構成の統合管理ツール</t>
+  </si>
+  <si>
+    <t>packages_set.oracle</t>
+  </si>
+  <si>
+    <t>├─Oracle必須パッケージ</t>
+  </si>
+  <si>
+    <t>Oracle必須パッケージがインストールされているか。'compat-libcap1','compat-libstdc++-33','libstdc++-devel', 'gcc-c++','ksh','libaio-devel'</t>
+  </si>
+  <si>
+    <t>packages_set.base</t>
+  </si>
+  <si>
+    <t>├─システム管理用パッケージ</t>
+  </si>
+  <si>
+    <t>システム管理用パッケージがインストールされているか。'sysstat', 'dmidecode', 'strace', 'net-snmp-libs', 'net-snmp-utils', 'busybox-anaconda'
 'alchemist','xinetd','tftp-server','system-config-netboot-cmd','system-config-netboot',</t>
   </si>
   <si>
-    <t xml:space="preserve">packages_set.sophos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─sophosパッケージ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOPHOS関連パッケージがインストールされているか。 'glibc', 'nss-softokn-freebl', 'libXau', 'libxcb', 'libX11', 'libXpm'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">packages_set.msm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">└─msmパッケージ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSM(MegaRAID Storage Manager)関連パッケージがインストールされているか。 'MegaRAID_Storage_Manager', 'Lib_Utils2', 'Lib_Utils', 'sas_snmp', 'sas_ir_snmp'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mount_iso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISOマウントの有無</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mount コマンドで.isoファイルのマウント情報取得</t>
-  </si>
-  <si>
-    <t xml:space="preserve">proxy_global</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yumコマンドプロキシ設定有無</t>
+    <t>packages_set.sophos</t>
+  </si>
+  <si>
+    <t>├─sophosパッケージ</t>
+  </si>
+  <si>
+    <t>SOPHOS関連パッケージがインストールされているか。 'glibc', 'nss-softokn-freebl', 'libXau', 'libxcb', 'libX11', 'libXpm'</t>
+  </si>
+  <si>
+    <t>packages_set.msm</t>
+  </si>
+  <si>
+    <t>└─msmパッケージ</t>
+  </si>
+  <si>
+    <t>MSM(MegaRAID Storage Manager)関連パッケージがインストールされているか。 'MegaRAID_Storage_Manager', 'Lib_Utils2', 'Lib_Utils', 'sas_snmp', 'sas_ir_snmp'</t>
+  </si>
+  <si>
+    <t>mount_iso</t>
+  </si>
+  <si>
+    <t>ISOマウントの有無</t>
+  </si>
+  <si>
+    <t>mount コマンドで.isoファイルのマウント情報取得</t>
+  </si>
+  <si>
+    <t>proxy_global</t>
+  </si>
+  <si>
+    <t>yumコマンドプロキシ設定有無</t>
   </si>
   <si>
     <t xml:space="preserve"> /etc/yum.conf から、proxyサーバ定義を検索</t>
   </si>
   <si>
-    <t xml:space="preserve">crash_size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">クラッシュダンプサイズ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/sys/kernel/kexec_crash_size を検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kdump_path</t>
-  </si>
-  <si>
-    <t xml:space="preserve">クラッシュダンプパス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/etc/kdump.conf からカーネルダンプの出力先設定を検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">runlevel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ランレベル</t>
+    <t>crash_size</t>
+  </si>
+  <si>
+    <t>クラッシュダンプサイズ</t>
+  </si>
+  <si>
+    <t>/sys/kernel/kexec_crash_size を検索</t>
+  </si>
+  <si>
+    <t>kdump_path</t>
+  </si>
+  <si>
+    <t>クラッシュダンプパス</t>
+  </si>
+  <si>
+    <t>/etc/kdump.conf からカーネルダンプの出力先設定を検索</t>
+  </si>
+  <si>
+    <t>runlevel</t>
+  </si>
+  <si>
+    <t>ランレベル</t>
   </si>
   <si>
     <t xml:space="preserve">OS起動時のランレベルからコンソール設定(3 : CUIコンソール、5 : GUIコンソール)を検索
 </t>
   </si>
   <si>
-    <t xml:space="preserve">resolve_conf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNS設定</t>
+    <t>resolve_conf</t>
+  </si>
+  <si>
+    <t>DNS設定</t>
   </si>
   <si>
     <t xml:space="preserve">/etc/resolve.conf から nameserver を検索
 </t>
   </si>
   <si>
-    <t xml:space="preserve">nameservers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">└─DNSサーバ名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNSサーバの検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">keyboard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">キーボード配列</t>
-  </si>
-  <si>
-    <t xml:space="preserve">language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OS言語</t>
-  </si>
-  <si>
-    <t xml:space="preserve">timezone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">タイムゾーン</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ntp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NTPサーバ名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NTPサーバの検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ntp_slew</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NTP slewモードの検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/etc/sysconfig/ntpd から、OPTIONSを検索。設定しない＝「-u」、設定する「-x」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">snmp_trap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SNMPトラップ情報</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'/etc/snmp/snmpd.confから、trapsink &lt;管理サーバ&gt; &lt;コミュニティ名&gt; &lt;ポート番号&gt; 行を検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sestatus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SELinuxステータス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sestatus コマンドからステータス検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">se_mode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">└─SELinux モード</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SELinuxモードの検索。SELinuxが無効の場合は空白</t>
-  </si>
-  <si>
-    <t xml:space="preserve">error_messages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Syslogエラー</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Syslogメッセージでerror,warning,failedを含む行を抽出</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oracle_module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oracleインストーラの有無</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/root/packageの下にOracleインストールファイルがあるか</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oracle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oracleモジュールの有無</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"ls -d /opt/oracle/app/product/*/*" でOracleのバージョン、サーバ/クライアントを検索</t>
+    <t>nameservers</t>
+  </si>
+  <si>
+    <t>└─DNSサーバ名</t>
+  </si>
+  <si>
+    <t>DNSサーバの検索</t>
+  </si>
+  <si>
+    <t>keyboard</t>
+  </si>
+  <si>
+    <t>キーボード配列</t>
+  </si>
+  <si>
+    <t>language</t>
+  </si>
+  <si>
+    <t>OS言語</t>
+  </si>
+  <si>
+    <t>timezone</t>
+  </si>
+  <si>
+    <t>タイムゾーン</t>
+  </si>
+  <si>
+    <t>ntp</t>
+  </si>
+  <si>
+    <t>NTPサーバ名</t>
+  </si>
+  <si>
+    <t>NTPサーバの検索</t>
+  </si>
+  <si>
+    <t>ntp_slew</t>
+  </si>
+  <si>
+    <t>NTP slewモードの検索</t>
+  </si>
+  <si>
+    <t>/etc/sysconfig/ntpd から、OPTIONSを検索。設定しない＝「-u」、設定する「-x」</t>
+  </si>
+  <si>
+    <t>snmp_trap</t>
+  </si>
+  <si>
+    <t>SNMPトラップ情報</t>
+  </si>
+  <si>
+    <t>'/etc/snmp/snmpd.confから、trapsink &lt;管理サーバ&gt; &lt;コミュニティ名&gt; &lt;ポート番号&gt; 行を検索</t>
+  </si>
+  <si>
+    <t>sestatus</t>
+  </si>
+  <si>
+    <t>SELinuxステータス</t>
+  </si>
+  <si>
+    <t>sestatus コマンドからステータス検索</t>
+  </si>
+  <si>
+    <t>se_mode</t>
+  </si>
+  <si>
+    <t>└─SELinux モード</t>
+  </si>
+  <si>
+    <t>SELinuxモードの検索。SELinuxが無効の場合は空白</t>
+  </si>
+  <si>
+    <t>error_messages</t>
+  </si>
+  <si>
+    <t>Syslogエラー</t>
+  </si>
+  <si>
+    <t>Syslogメッセージでerror,warning,failedを含む行を抽出</t>
+  </si>
+  <si>
+    <t>oracle_module</t>
+  </si>
+  <si>
+    <t>Oracleインストーラの有無</t>
+  </si>
+  <si>
+    <t>/root/packageの下にOracleインストールファイルがあるか</t>
+  </si>
+  <si>
+    <t>oracle</t>
+  </si>
+  <si>
+    <t>Oracleモジュールの有無</t>
+  </si>
+  <si>
+    <t>"ls -d /opt/oracle/app/product/*/*" でOracleのバージョン、サーバ/クライアントを検索</t>
   </si>
   <si>
     <t xml:space="preserve">* IDが "filesystem.*", "user.*", "service.*" の行はカスタム項目となります。システム構成／要件に合わせて項目の削除、追加、変更をしてください。 </t>
   </si>
   <si>
-    <t xml:space="preserve">Win32_Processor オブジェクトからCPU情報を検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">└─スレッド数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">memory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Win32_OperatingSystemから、メモリ情報を検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">total_virtual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─仮想メモリ量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">仮想メモリ量[KB]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">free_physical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">└─空きメモリ量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">システム情報</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Win32_ComputerSystemから、システム情報を検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Domain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─ドメイン名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ドメイン名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manufacturer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─メーカー</t>
-  </si>
-  <si>
-    <t xml:space="preserve">メーカー</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Model</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─モデル</t>
-  </si>
-  <si>
-    <t xml:space="preserve">モデル</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">└─コンピューター名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">コンピューター名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">os</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OS情報</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Win32_OperatingSystemから、OS情報を検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">os_caption</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─OS名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OS名称</t>
-  </si>
-  <si>
-    <t xml:space="preserve">os_csd_version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─サービスパック</t>
-  </si>
-  <si>
-    <t xml:space="preserve">サービスパック名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">os_architecture</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─アーキテクチャ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">アーキテクチャ(32bit/64bit)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">os_product_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">└─製品タイプ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1:ワークステーション 2:ドメインコントローラ 3:サーバー</t>
-  </si>
-  <si>
-    <t xml:space="preserve">driver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ドライバー</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Win32_PnPSignedDriverから、ドライバー登録件数を検索。詳細は、別シートに登録</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ディスク容量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Win32_LogicalDiskから、ストレージ容量を検索。詳細は、別シートに登録</t>
-  </si>
-  <si>
-    <t xml:space="preserve">filesystem.C:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─Cドライブ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cドライブ容量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">filesystem.D:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">└─Dドライブ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dドライブ容量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Win32_UserAccount から、ローカルアカウントのロック情報を検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">config.groovyに記述したログオン検査用ユーザでPowerShellリモート疎通を確認</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Get-Service から、サービスのステータスを検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">service.VMTools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─VMTools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VMware Tools サービス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">service.wuauserv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">└─wuauserv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Windows Update サービス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">パッケージ情報取得</t>
-  </si>
-  <si>
-    <t xml:space="preserve">システム暗号化</t>
-  </si>
-  <si>
-    <t xml:space="preserve">システム暗号化ポリシー。Enabled の値を検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ネットワーク構成</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Win32_NetworkAdapterConfiguration。IP,GW,Indexを検索。詳細は、別シートに登録</t>
-  </si>
-  <si>
-    <t xml:space="preserve">network.gw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─ゲートウェイ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ネットワークゲートウェイ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">network.subnet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">└─サブネット</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ネットワークサブネット</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nic_teaming</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NICチーミング(NetLBFO)設定</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NICチーミング(NetLBFO)名を検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">network_profile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ネットワークプロファイル</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ネットワークプロファイル。0:パブリック,1:プライベート,2:ドメイン認証</t>
-  </si>
-  <si>
-    <t xml:space="preserve">remote_desktop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">リモートデスクトップ接続許可設定</t>
-  </si>
-  <si>
-    <t xml:space="preserve">リモートデスクトップ接続の許可設定を検索。0：利用可能、1：利用不可【既定】</t>
-  </si>
-  <si>
-    <t xml:space="preserve">firewall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ファイヤーウォール</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Windows Firewall の受信規制リストを検索。詳細は、別シートに登録</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dns</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNSサーバ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">virturalization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Win32_ComputerSystemから仮想化プラットフォームを検索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">storage_timeout</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ストレージタイムアウト値</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ストレージタイムアウト[秒]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NTPサーバ情報</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ie_version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InternetExplorerバージョン</t>
-  </si>
-  <si>
-    <t xml:space="preserve">feature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Windows機能</t>
-  </si>
-  <si>
-    <t xml:space="preserve">インストールされたWindows機能</t>
-  </si>
-  <si>
-    <t xml:space="preserve">system_log</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Windowsシステムイベントログ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Windowsシステムイベントログから、エラーを抽出</t>
-  </si>
-  <si>
-    <t xml:space="preserve">apps_log</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Windowsアプリイベントログ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Windowsアプリイベントログから、エラーを抽出</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ホスト情報</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vCenter情報のホスト情報を検索します</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPUコア数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CpuTotalMhz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPUクロック</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MemoryTotalGB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─メモリ容量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">メモリ容量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LicenseKey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─ライセンス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ライセンス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ProcessorType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─プロセッサタイプ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">プロセッサタイプ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─バージョン</t>
-  </si>
-  <si>
-    <t xml:space="preserve">バージョン</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Build</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─ビルド</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ビルド</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FirewallDefaultPolicy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─ファイヤーウォールポリシー</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ファイヤーウォールポリシー</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HyperthreadingActive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─ハイパースレッディング</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ハイパースレッディング</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TimeZone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─タイムゾーン</t>
-  </si>
-  <si>
-    <t xml:space="preserve">電源状態</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VMSwapfilePolicy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─スワップポリシー</t>
-  </si>
-  <si>
-    <t xml:space="preserve">スワップポリシー</t>
-  </si>
-  <si>
-    <t xml:space="preserve">StorageInfo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">├─ストレージ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ストレージ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NetworkInfo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">└─ネットワーク</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ネットワーク</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">アカウント情報</t>
-  </si>
-  <si>
-    <t xml:space="preserve">アカウント数を検索し、別シートに詳細情報を登録します</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NetworkAdapter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ネットワーク構成数を検索し、別シートに詳細情報を登録します</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ディスク構成</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ディスク構成数を検索し、別シートに詳細情報を登録します</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DiskPartition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ディスクパーティション</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ディスクパーティション数を検索し、別シートに詳細情報を登録します</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Datastore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">データストア</t>
-  </si>
-  <si>
-    <t xml:space="preserve">データストア数を検索し、別シートに詳細情報を登録します</t>
-  </si>
-  <si>
-    <t xml:space="preserve">name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ルール定義名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RuleDB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">結果を比較する対象サーバ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">compare_source</t>
+    <t>Win32_Processor オブジェクトからCPU情報を検索</t>
+  </si>
+  <si>
+    <t>└─スレッド数</t>
+  </si>
+  <si>
+    <t>memory</t>
+  </si>
+  <si>
+    <t>Win32_OperatingSystemから、メモリ情報を検索</t>
+  </si>
+  <si>
+    <t>total_virtual</t>
+  </si>
+  <si>
+    <t>├─仮想メモリ量</t>
+  </si>
+  <si>
+    <t>仮想メモリ量[KB]</t>
+  </si>
+  <si>
+    <t>free_physical</t>
+  </si>
+  <si>
+    <t>└─空きメモリ量</t>
+  </si>
+  <si>
+    <t>system</t>
+  </si>
+  <si>
+    <t>システム情報</t>
+  </si>
+  <si>
+    <t>Win32_ComputerSystemから、システム情報を検索</t>
+  </si>
+  <si>
+    <t>Domain</t>
+  </si>
+  <si>
+    <t>├─ドメイン名</t>
+  </si>
+  <si>
+    <t>ドメイン名</t>
+  </si>
+  <si>
+    <t>Manufacturer</t>
+  </si>
+  <si>
+    <t>├─メーカー</t>
+  </si>
+  <si>
+    <t>メーカー</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>├─モデル</t>
+  </si>
+  <si>
+    <t>モデル</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>└─コンピューター名</t>
+  </si>
+  <si>
+    <t>コンピューター名</t>
+  </si>
+  <si>
+    <t>os</t>
+  </si>
+  <si>
+    <t>OS情報</t>
+  </si>
+  <si>
+    <t>Win32_OperatingSystemから、OS情報を検索</t>
+  </si>
+  <si>
+    <t>os_caption</t>
+  </si>
+  <si>
+    <t>├─OS名</t>
+  </si>
+  <si>
+    <t>OS名称</t>
+  </si>
+  <si>
+    <t>os_csd_version</t>
+  </si>
+  <si>
+    <t>├─サービスパック</t>
+  </si>
+  <si>
+    <t>サービスパック名</t>
+  </si>
+  <si>
+    <t>os_architecture</t>
+  </si>
+  <si>
+    <t>├─アーキテクチャ</t>
+  </si>
+  <si>
+    <t>アーキテクチャ(32bit/64bit)</t>
+  </si>
+  <si>
+    <t>os_product_type</t>
+  </si>
+  <si>
+    <t>└─製品タイプ</t>
+  </si>
+  <si>
+    <t>1:ワークステーション 2:ドメインコントローラ 3:サーバー</t>
+  </si>
+  <si>
+    <t>driver</t>
+  </si>
+  <si>
+    <t>ドライバー</t>
+  </si>
+  <si>
+    <t>Win32_PnPSignedDriverから、ドライバー登録件数を検索。詳細は、別シートに登録</t>
+  </si>
+  <si>
+    <t>ディスク容量</t>
+  </si>
+  <si>
+    <t>Win32_LogicalDiskから、ストレージ容量を検索。詳細は、別シートに登録</t>
+  </si>
+  <si>
+    <t>filesystem.C:</t>
+  </si>
+  <si>
+    <t>├─Cドライブ</t>
+  </si>
+  <si>
+    <t>Cドライブ容量</t>
+  </si>
+  <si>
+    <t>filesystem.D:</t>
+  </si>
+  <si>
+    <t>└─Dドライブ</t>
+  </si>
+  <si>
+    <t>Dドライブ容量</t>
+  </si>
+  <si>
+    <t>Win32_UserAccount から、ローカルアカウントのロック情報を検索</t>
+  </si>
+  <si>
+    <t>config.groovyに記述したログオン検査用ユーザでPowerShellリモート疎通を確認</t>
+  </si>
+  <si>
+    <t>Get-Service から、サービスのステータスを検索</t>
+  </si>
+  <si>
+    <t>service.VMTools</t>
+  </si>
+  <si>
+    <t>├─VMTools</t>
+  </si>
+  <si>
+    <t>VMware Tools サービス</t>
+  </si>
+  <si>
+    <t>service.wuauserv</t>
+  </si>
+  <si>
+    <t>└─wuauserv</t>
+  </si>
+  <si>
+    <t>Windows Update サービス</t>
+  </si>
+  <si>
+    <t>パッケージ情報取得</t>
+  </si>
+  <si>
+    <t>システム暗号化</t>
+  </si>
+  <si>
+    <t>システム暗号化ポリシー。Enabled の値を検索</t>
+  </si>
+  <si>
+    <t>ネットワーク構成</t>
+  </si>
+  <si>
+    <t>Win32_NetworkAdapterConfiguration。IP,GW,Indexを検索。詳細は、別シートに登録</t>
+  </si>
+  <si>
+    <t>network.gw</t>
+  </si>
+  <si>
+    <t>├─ゲートウェイ</t>
+  </si>
+  <si>
+    <t>ネットワークゲートウェイ</t>
+  </si>
+  <si>
+    <t>network.subnet</t>
+  </si>
+  <si>
+    <t>└─サブネット</t>
+  </si>
+  <si>
+    <t>ネットワークサブネット</t>
+  </si>
+  <si>
+    <t>nic_teaming</t>
+  </si>
+  <si>
+    <t>NICチーミング(NetLBFO)設定</t>
+  </si>
+  <si>
+    <t>NICチーミング(NetLBFO)名を検索</t>
+  </si>
+  <si>
+    <t>network_profile</t>
+  </si>
+  <si>
+    <t>ネットワークプロファイル</t>
+  </si>
+  <si>
+    <t>ネットワークプロファイル。0:パブリック,1:プライベート,2:ドメイン認証</t>
+  </si>
+  <si>
+    <t>remote_desktop</t>
+  </si>
+  <si>
+    <t>リモートデスクトップ接続許可設定</t>
+  </si>
+  <si>
+    <t>リモートデスクトップ接続の許可設定を検索。0：利用可能、1：利用不可【既定】</t>
+  </si>
+  <si>
+    <t>firewall</t>
+  </si>
+  <si>
+    <t>ファイヤーウォール</t>
+  </si>
+  <si>
+    <t>Windows Firewall の受信規制リストを検索。詳細は、別シートに登録</t>
+  </si>
+  <si>
+    <t>dns</t>
+  </si>
+  <si>
+    <t>DNSサーバ</t>
+  </si>
+  <si>
+    <t>virturalization</t>
+  </si>
+  <si>
+    <t>Win32_ComputerSystemから仮想化プラットフォームを検索</t>
+  </si>
+  <si>
+    <t>storage_timeout</t>
+  </si>
+  <si>
+    <t>ストレージタイムアウト値</t>
+  </si>
+  <si>
+    <t>ストレージタイムアウト[秒]</t>
+  </si>
+  <si>
+    <t>NTPサーバ情報</t>
+  </si>
+  <si>
+    <t>ie_version</t>
+  </si>
+  <si>
+    <t>InternetExplorerバージョン</t>
+  </si>
+  <si>
+    <t>feature</t>
+  </si>
+  <si>
+    <t>Windows機能</t>
+  </si>
+  <si>
+    <t>インストールされたWindows機能</t>
+  </si>
+  <si>
+    <t>system_log</t>
+  </si>
+  <si>
+    <t>Windowsシステムイベントログ</t>
+  </si>
+  <si>
+    <t>Windowsシステムイベントログから、エラーを抽出</t>
+  </si>
+  <si>
+    <t>apps_log</t>
+  </si>
+  <si>
+    <t>Windowsアプリイベントログ</t>
+  </si>
+  <si>
+    <t>Windowsアプリイベントログから、エラーを抽出</t>
+  </si>
+  <si>
+    <t>ホスト情報</t>
+  </si>
+  <si>
+    <t>vCenter情報のホスト情報を検索します</t>
+  </si>
+  <si>
+    <t>CPUコア数</t>
+  </si>
+  <si>
+    <t>CpuTotalMhz</t>
+  </si>
+  <si>
+    <t>CPUクロック</t>
+  </si>
+  <si>
+    <t>MemoryTotalGB</t>
+  </si>
+  <si>
+    <t>├─メモリ容量</t>
+  </si>
+  <si>
+    <t>メモリ容量</t>
+  </si>
+  <si>
+    <t>LicenseKey</t>
+  </si>
+  <si>
+    <t>├─ライセンス</t>
+  </si>
+  <si>
+    <t>ライセンス</t>
+  </si>
+  <si>
+    <t>ProcessorType</t>
+  </si>
+  <si>
+    <t>├─プロセッサタイプ</t>
+  </si>
+  <si>
+    <t>プロセッサタイプ</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>├─バージョン</t>
+  </si>
+  <si>
+    <t>バージョン</t>
+  </si>
+  <si>
+    <t>Build</t>
+  </si>
+  <si>
+    <t>├─ビルド</t>
+  </si>
+  <si>
+    <t>ビルド</t>
+  </si>
+  <si>
+    <t>FirewallDefaultPolicy</t>
+  </si>
+  <si>
+    <t>├─ファイヤーウォールポリシー</t>
+  </si>
+  <si>
+    <t>ファイヤーウォールポリシー</t>
+  </si>
+  <si>
+    <t>HyperthreadingActive</t>
+  </si>
+  <si>
+    <t>├─ハイパースレッディング</t>
+  </si>
+  <si>
+    <t>ハイパースレッディング</t>
+  </si>
+  <si>
+    <t>TimeZone</t>
+  </si>
+  <si>
+    <t>├─タイムゾーン</t>
+  </si>
+  <si>
+    <t>電源状態</t>
+  </si>
+  <si>
+    <t>VMSwapfilePolicy</t>
+  </si>
+  <si>
+    <t>├─スワップポリシー</t>
+  </si>
+  <si>
+    <t>スワップポリシー</t>
+  </si>
+  <si>
+    <t>StorageInfo</t>
+  </si>
+  <si>
+    <t>├─ストレージ</t>
+  </si>
+  <si>
+    <t>ストレージ</t>
+  </si>
+  <si>
+    <t>NetworkInfo</t>
+  </si>
+  <si>
+    <t>└─ネットワーク</t>
+  </si>
+  <si>
+    <t>ネットワーク</t>
+  </si>
+  <si>
+    <t>Account</t>
+  </si>
+  <si>
+    <t>アカウント情報</t>
+  </si>
+  <si>
+    <t>アカウント数を検索し、別シートに詳細情報を登録します</t>
+  </si>
+  <si>
+    <t>NetworkAdapter</t>
+  </si>
+  <si>
+    <t>ネットワーク構成数を検索し、別シートに詳細情報を登録します</t>
+  </si>
+  <si>
+    <t>Disk</t>
+  </si>
+  <si>
+    <t>ディスク構成</t>
+  </si>
+  <si>
+    <t>ディスク構成数を検索し、別シートに詳細情報を登録します</t>
+  </si>
+  <si>
+    <t>DiskPartition</t>
+  </si>
+  <si>
+    <t>ディスクパーティション</t>
+  </si>
+  <si>
+    <t>ディスクパーティション数を検索し、別シートに詳細情報を登録します</t>
+  </si>
+  <si>
+    <t>Datastore</t>
+  </si>
+  <si>
+    <t>データストア</t>
+  </si>
+  <si>
+    <t>データストア数を検索し、別シートに詳細情報を登録します</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>ルール定義名</t>
+  </si>
+  <si>
+    <t>RuleDB</t>
+  </si>
+  <si>
+    <t>結果を比較する対象サーバ</t>
+  </si>
+  <si>
+    <t>compare_source</t>
   </si>
   <si>
     <r>
@@ -1371,7 +1375,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">結果を比較するソース。</t>
+      <t>結果を比較するソース。</t>
     </r>
     <r>
       <rPr>
@@ -1381,7 +1385,7 @@
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">actual:</t>
+      <t>actual:</t>
     </r>
     <r>
       <rPr>
@@ -1391,7 +1395,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">実行結果から、</t>
+      <t>実行結果から、</t>
     </r>
     <r>
       <rPr>
@@ -1401,7 +1405,7 @@
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">local:node</t>
+      <t>local:node</t>
     </r>
     <r>
       <rPr>
@@ -1411,7 +1415,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">ディレクトリから、</t>
+      <t>ディレクトリから、</t>
     </r>
     <r>
       <rPr>
@@ -1421,7 +1425,7 @@
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">db:</t>
+      <t>db:</t>
     </r>
     <r>
       <rPr>
@@ -1435,64 +1439,55 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">local</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VMWare リソース割り当て</t>
-  </si>
-  <si>
-    <t xml:space="preserve">x == NumberUtils.toDouble(server_info['NumCpu'])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">x == NumberUtils.toDouble(server_info['MemoryGB'])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">x.indexOf(server_info['ESXiHost']) != -1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">クラスター</t>
-  </si>
-  <si>
-    <t xml:space="preserve">x.minus(" ") == server_info['HDDType'].minus(" ")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">スレッド数</t>
+    <t>local</t>
+  </si>
+  <si>
+    <t>VMWare リソース割り当て</t>
+  </si>
+  <si>
+    <t>x == NumberUtils.toDouble(server_info['NumCpu'])</t>
+  </si>
+  <si>
+    <t>x == NumberUtils.toDouble(server_info['MemoryGB'])</t>
+  </si>
+  <si>
+    <t>x.indexOf(server_info['ESXiHost']) != -1</t>
+  </si>
+  <si>
+    <t>クラスター</t>
+  </si>
+  <si>
+    <t>x.minus(" ") == server_info['HDDType'].minus(" ")</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>スレッド数</t>
+  </si>
+  <si>
+    <t>x =~ /Linux/</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>ostrich</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>192.168.10.1</t>
+    <phoneticPr fontId="8"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
       <charset val="128"/>
     </font>
     <font>
@@ -1544,6 +1539,12 @@
       <family val="3"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1560,226 +1561,474 @@
     </fill>
   </fills>
   <borders count="6">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="true" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
-      <diagonal style="hair"/>
+    <border diagonalUp="1">
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="hair">
+        <color auto="1"/>
+      </diagonal>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="28">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
+  <cellStyles count="2">
+    <cellStyle name="説明文" xfId="1" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M20"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.3659793814433"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.3659793814433"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.8247422680412"/>
-    <col collapsed="false" hidden="false" max="8" min="4" style="0" width="13.3659793814433"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.2731958762887"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="7.3659793814433"/>
+    <col min="1" max="1" width="7.375"/>
+    <col min="2" max="2" width="16.375"/>
+    <col min="3" max="3" width="36.875"/>
+    <col min="4" max="8" width="13.375"/>
+    <col min="9" max="9" width="12.25"/>
+    <col min="10" max="1025" width="7.375"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1797,7 +2046,7 @@
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1813,7 +2062,7 @@
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
     </row>
-    <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -1827,45 +2076,45 @@
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="5" t="n">
+      <c r="D4" s="5">
         <v>1</v>
       </c>
-      <c r="E4" s="5" t="n">
+      <c r="E4" s="5">
         <v>2</v>
       </c>
-      <c r="F4" s="5" t="n">
+      <c r="F4" s="5">
         <v>3</v>
       </c>
-      <c r="G4" s="5" t="n">
+      <c r="G4" s="5">
         <v>4</v>
       </c>
-      <c r="H4" s="5" t="n">
+      <c r="H4" s="5">
         <v>5</v>
       </c>
-      <c r="I4" s="5" t="n">
+      <c r="I4" s="5">
         <v>6</v>
       </c>
-      <c r="J4" s="5" t="n">
-        <v>7</v>
-      </c>
-      <c r="K4" s="5" t="n">
+      <c r="J4" s="5">
+        <v>7</v>
+      </c>
+      <c r="K4" s="5">
         <v>8</v>
       </c>
-      <c r="L4" s="5" t="n">
+      <c r="L4" s="5">
         <v>9</v>
       </c>
-      <c r="M4" s="5" t="n">
+      <c r="M4" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="2:13" ht="57" x14ac:dyDescent="0.15">
       <c r="B5" s="5" t="s">
         <v>5</v>
       </c>
@@ -1887,7 +2136,7 @@
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B6" s="5" t="s">
         <v>9</v>
       </c>
@@ -1909,54 +2158,53 @@
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
     </row>
-    <row r="7" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="2:13" ht="28.5" x14ac:dyDescent="0.15">
       <c r="B7" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="6" t="str">
-        <f aca="false">"centos7"</f>
-        <v>centos7</v>
+      <c r="D7" s="6" t="s">
+        <v>454</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F7" s="6" t="str">
-        <f aca="false">IF(OR(F$5="Linux",F$5="Windows",F$5="VMHost"),"サーバ名を入力してください","")</f>
+        <f t="shared" ref="F7:M7" si="0">IF(OR(F$5="Linux",F$5="Windows",F$5="VMHost"),"サーバ名を入力してください","")</f>
         <v/>
       </c>
       <c r="G7" s="6" t="str">
-        <f aca="false">IF(OR(G$5="Linux",G$5="Windows",G$5="VMHost"),"サーバ名を入力してください","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H7" s="6" t="str">
-        <f aca="false">IF(OR(H$5="Linux",H$5="Windows",H$5="VMHost"),"サーバ名を入力してください","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I7" s="6" t="str">
-        <f aca="false">IF(OR(I$5="Linux",I$5="Windows",I$5="VMHost"),"サーバ名を入力してください","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J7" s="6" t="str">
-        <f aca="false">IF(OR(J$5="Linux",J$5="Windows",J$5="VMHost"),"サーバ名を入力してください","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="K7" s="6" t="str">
-        <f aca="false">IF(OR(K$5="Linux",K$5="Windows",K$5="VMHost"),"サーバ名を入力してください","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L7" s="6" t="str">
-        <f aca="false">IF(OR(L$5="Linux",L$5="Windows",L$5="VMHost"),"サーバ名を入力してください","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="M7" s="6" t="str">
-        <f aca="false">IF(OR(M$5="Linux",M$5="Windows",M$5="VMHost"),"サーバ名を入力してください","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="2:13" ht="28.5" x14ac:dyDescent="0.15">
       <c r="B8" s="5" t="s">
         <v>15</v>
       </c>
@@ -1964,45 +2212,45 @@
         <v>16</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>17</v>
+        <v>455</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F8" s="6" t="str">
-        <f aca="false">IF(OR(F$5="Linux",F$5="Windows",F$5="VMHost"),"IPアドレスを入力してください","")</f>
+        <f t="shared" ref="F8:M8" si="1">IF(OR(F$5="Linux",F$5="Windows",F$5="VMHost"),"IPアドレスを入力してください","")</f>
         <v/>
       </c>
       <c r="G8" s="6" t="str">
-        <f aca="false">IF(OR(G$5="Linux",G$5="Windows",G$5="VMHost"),"IPアドレスを入力してください","")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H8" s="6" t="str">
-        <f aca="false">IF(OR(H$5="Linux",H$5="Windows",H$5="VMHost"),"IPアドレスを入力してください","")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I8" s="6" t="str">
-        <f aca="false">IF(OR(I$5="Linux",I$5="Windows",I$5="VMHost"),"IPアドレスを入力してください","")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J8" s="6" t="str">
-        <f aca="false">IF(OR(J$5="Linux",J$5="Windows",J$5="VMHost"),"IPアドレスを入力してください","")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="K8" s="6" t="str">
-        <f aca="false">IF(OR(K$5="Linux",K$5="Windows",K$5="VMHost"),"IPアドレスを入力してください","")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L8" s="6" t="str">
-        <f aca="false">IF(OR(L$5="Linux",L$5="Windows",L$5="VMHost"),"IPアドレスを入力してください","")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="M8" s="6" t="str">
-        <f aca="false">IF(OR(M$5="Linux",M$5="Windows",M$5="VMHost"),"IPアドレスを入力してください","")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="2:13" ht="57" x14ac:dyDescent="0.15">
       <c r="B9" s="5" t="s">
         <v>18</v>
       </c>
@@ -2016,39 +2264,39 @@
         <v>20</v>
       </c>
       <c r="F9" s="6" t="str">
-        <f aca="false">IF(OR(F$5="Linux",F$5="Windows",F$5="VMHost"),"OSアカウントIDを入力してください","")</f>
+        <f t="shared" ref="F9:M9" si="2">IF(OR(F$5="Linux",F$5="Windows",F$5="VMHost"),"OSアカウントIDを入力してください","")</f>
         <v/>
       </c>
       <c r="G9" s="6" t="str">
-        <f aca="false">IF(OR(G$5="Linux",G$5="Windows",G$5="VMHost"),"OSアカウントIDを入力してください","")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H9" s="6" t="str">
-        <f aca="false">IF(OR(H$5="Linux",H$5="Windows",H$5="VMHost"),"OSアカウントIDを入力してください","")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I9" s="6" t="str">
-        <f aca="false">IF(OR(I$5="Linux",I$5="Windows",I$5="VMHost"),"OSアカウントIDを入力してください","")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J9" s="6" t="str">
-        <f aca="false">IF(OR(J$5="Linux",J$5="Windows",J$5="VMHost"),"OSアカウントIDを入力してください","")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="K9" s="6" t="str">
-        <f aca="false">IF(OR(K$5="Linux",K$5="Windows",K$5="VMHost"),"OSアカウントIDを入力してください","")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L9" s="6" t="str">
-        <f aca="false">IF(OR(L$5="Linux",L$5="Windows",L$5="VMHost"),"OSアカウントIDを入力してください","")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="M9" s="6" t="str">
-        <f aca="false">IF(OR(M$5="Linux",M$5="Windows",M$5="VMHost"),"OSアカウントIDを入力してください","")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="2:13" ht="28.5" x14ac:dyDescent="0.15">
       <c r="B10" s="6" t="s">
         <v>21</v>
       </c>
@@ -2066,7 +2314,7 @@
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
     </row>
-    <row r="11" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="2:13" ht="42.75" x14ac:dyDescent="0.15">
       <c r="B11" s="5" t="s">
         <v>23</v>
       </c>
@@ -2076,39 +2324,39 @@
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6" t="str">
-        <f aca="false">IF(OR(F$6="VM"),"vCenterアカウントIDを入力してください","")</f>
+        <f t="shared" ref="F11:M11" si="3">IF(OR(F$6="VM"),"vCenterアカウントIDを入力してください","")</f>
         <v/>
       </c>
       <c r="G11" s="6" t="str">
-        <f aca="false">IF(OR(G$6="VM"),"vCenterアカウントIDを入力してください","")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H11" s="6" t="str">
-        <f aca="false">IF(OR(H$6="VM"),"vCenterアカウントIDを入力してください","")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I11" s="6" t="str">
-        <f aca="false">IF(OR(I$6="VM"),"vCenterアカウントIDを入力してください","")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J11" s="6" t="str">
-        <f aca="false">IF(OR(J$6="VM"),"vCenterアカウントIDを入力してください","")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K11" s="6" t="str">
-        <f aca="false">IF(OR(K$6="VM"),"vCenterアカウントIDを入力してください","")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L11" s="6" t="str">
-        <f aca="false">IF(OR(L$6="VM"),"vCenterアカウントIDを入力してください","")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M11" s="6" t="str">
-        <f aca="false">IF(OR(M$6="VM"),"vCenterアカウントIDを入力してください","")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="2:13" ht="42.75" x14ac:dyDescent="0.15">
       <c r="B12" s="5" t="s">
         <v>25</v>
       </c>
@@ -2118,39 +2366,39 @@
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6" t="str">
-        <f aca="false">IF(OR(F$6="VM"),"vCenter内のサーバ名を入力してください","")</f>
+        <f t="shared" ref="F12:M12" si="4">IF(OR(F$6="VM"),"vCenter内のサーバ名を入力してください","")</f>
         <v/>
       </c>
       <c r="G12" s="6" t="str">
-        <f aca="false">IF(OR(G$6="VM"),"vCenter内のサーバ名を入力してください","")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H12" s="6" t="str">
-        <f aca="false">IF(OR(H$6="VM"),"vCenter内のサーバ名を入力してください","")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I12" s="6" t="str">
-        <f aca="false">IF(OR(I$6="VM"),"vCenter内のサーバ名を入力してください","")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J12" s="6" t="str">
-        <f aca="false">IF(OR(J$6="VM"),"vCenter内のサーバ名を入力してください","")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="K12" s="6" t="str">
-        <f aca="false">IF(OR(K$6="VM"),"vCenter内のサーバ名を入力してください","")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L12" s="6" t="str">
-        <f aca="false">IF(OR(L$6="VM"),"vCenter内のサーバ名を入力してください","")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="M12" s="6" t="str">
-        <f aca="false">IF(OR(M$6="VM"),"vCenter内のサーバ名を入力してください","")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="2:13" ht="28.5" x14ac:dyDescent="0.15">
       <c r="B13" s="5" t="s">
         <v>27</v>
       </c>
@@ -2170,7 +2418,7 @@
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
     </row>
-    <row r="14" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="2:13" ht="36" x14ac:dyDescent="0.15">
       <c r="B14" s="8" t="s">
         <v>30</v>
       </c>
@@ -2188,7 +2436,7 @@
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
     </row>
-    <row r="15" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="2:13" ht="42.75" x14ac:dyDescent="0.15">
       <c r="B15" s="5"/>
       <c r="C15" s="6" t="s">
         <v>32</v>
@@ -2204,14 +2452,14 @@
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
     </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B16" s="10" t="s">
         <v>33</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="6" t="n">
+      <c r="D16" s="6">
         <v>4</v>
       </c>
       <c r="E16" s="6"/>
@@ -2224,14 +2472,14 @@
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
     </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B17" s="10" t="s">
         <v>35</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="6" t="n">
+      <c r="D17" s="6">
         <v>8</v>
       </c>
       <c r="E17" s="6"/>
@@ -2244,7 +2492,7 @@
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
     </row>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B18" s="5" t="s">
         <v>37</v>
       </c>
@@ -2262,7 +2510,7 @@
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
     </row>
-    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B19" s="5" t="s">
         <v>39</v>
       </c>
@@ -2280,7 +2528,7 @@
       <c r="L19" s="12"/>
       <c r="M19" s="12"/>
     </row>
-    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -2295,54 +2543,47 @@
       <c r="M20" s="5"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="8"/>
   <dataValidations count="3">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D5:M5" type="list">
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="D5:M5">
       <formula1>"選択してください,Linux,Windows,VMHost"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D6:M6" type="list">
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="D6:M6">
       <formula1>"選択してください,オンプレ,VM"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C1" type="list">
+    <dataValidation type="list" operator="equal" showErrorMessage="1" sqref="C1">
       <formula1>"Local(Excel),Remote"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.699305555555555" right="0.699305555555555" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.69930555555555496" right="0.69930555555555496" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F85"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A71" activeCellId="0" sqref="A71"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.3659793814433"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.3659793814433"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.9587628865979"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.41237113402062"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.41237113402062"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="54.8247422680412"/>
-    <col collapsed="false" hidden="false" max="10" min="7" style="0" width="13.3659793814433"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="7.3659793814433"/>
+    <col min="1" max="1" width="7.375"/>
+    <col min="2" max="2" width="19.375"/>
+    <col min="3" max="3" width="28"/>
+    <col min="4" max="4" width="9.375"/>
+    <col min="5" max="5" width="6.375"/>
+    <col min="6" max="6" width="54.875"/>
+    <col min="7" max="10" width="13.375"/>
+    <col min="11" max="1025" width="7.375"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="13"/>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -2350,7 +2591,7 @@
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="13" t="s">
         <v>41</v>
       </c>
@@ -2360,7 +2601,7 @@
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="13"/>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
@@ -2368,7 +2609,7 @@
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="11" t="s">
         <v>20</v>
       </c>
@@ -2388,7 +2629,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="15" t="s">
         <v>46</v>
       </c>
@@ -2406,7 +2647,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
       <c r="B6" s="11" t="s">
         <v>33</v>
@@ -2422,7 +2663,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="11" t="s">
         <v>53</v>
@@ -2438,7 +2679,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
       <c r="B8" s="11" t="s">
         <v>35</v>
@@ -2454,7 +2695,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="15"/>
       <c r="B9" s="11" t="s">
         <v>58</v>
@@ -2470,7 +2711,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="15"/>
       <c r="B10" s="11" t="s">
         <v>61</v>
@@ -2486,7 +2727,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="7" t="s">
         <v>46</v>
       </c>
@@ -2506,7 +2747,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
         <v>46</v>
       </c>
@@ -2526,7 +2767,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="15" t="s">
         <v>46</v>
       </c>
@@ -2544,7 +2785,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="15" t="s">
         <v>46</v>
       </c>
@@ -2562,7 +2803,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="15" t="s">
         <v>46</v>
       </c>
@@ -2580,7 +2821,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="15" t="s">
         <v>46</v>
       </c>
@@ -2600,7 +2841,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="15" t="s">
         <v>46</v>
       </c>
@@ -2618,7 +2859,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="15" t="s">
         <v>46</v>
       </c>
@@ -2636,7 +2877,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" s="15" t="s">
         <v>46</v>
       </c>
@@ -2654,7 +2895,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A20" s="15" t="s">
         <v>46</v>
       </c>
@@ -2672,7 +2913,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A21" s="15" t="s">
         <v>46</v>
       </c>
@@ -2690,7 +2931,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A22" s="15"/>
       <c r="B22" s="11" t="s">
         <v>95</v>
@@ -2706,7 +2947,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A23" s="15"/>
       <c r="B23" s="11" t="s">
         <v>98</v>
@@ -2722,7 +2963,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A24" s="15"/>
       <c r="B24" s="11" t="s">
         <v>101</v>
@@ -2738,7 +2979,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A25" s="15"/>
       <c r="B25" s="11" t="s">
         <v>104</v>
@@ -2754,7 +2995,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A26" s="15"/>
       <c r="B26" s="11" t="s">
         <v>107</v>
@@ -2770,7 +3011,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A27" s="15" t="s">
         <v>46</v>
       </c>
@@ -2788,7 +3029,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A28" s="15" t="s">
         <v>46</v>
       </c>
@@ -2806,7 +3047,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A29" s="15"/>
       <c r="B29" s="11" t="s">
         <v>116</v>
@@ -2822,7 +3063,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A30" s="15" t="s">
         <v>46</v>
       </c>
@@ -2842,7 +3083,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A31" s="15"/>
       <c r="B31" s="11" t="s">
         <v>121</v>
@@ -2858,7 +3099,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A32" s="15" t="s">
         <v>46</v>
       </c>
@@ -2876,7 +3117,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A33" s="15" t="s">
         <v>46</v>
       </c>
@@ -2894,7 +3135,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A34" s="15" t="s">
         <v>46</v>
       </c>
@@ -2914,7 +3155,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A35" s="15" t="s">
         <v>133</v>
       </c>
@@ -2932,7 +3173,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A36" s="15" t="s">
         <v>46</v>
       </c>
@@ -2950,7 +3191,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A37" s="15" t="s">
         <v>46</v>
       </c>
@@ -2970,7 +3211,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A38" s="15"/>
       <c r="B38" s="11" t="s">
         <v>143</v>
@@ -2986,7 +3227,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A39" s="15"/>
       <c r="B39" s="11" t="s">
         <v>146</v>
@@ -3002,7 +3243,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A40" s="11"/>
       <c r="B40" s="11" t="s">
         <v>149</v>
@@ -3018,7 +3259,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A41" s="11" t="s">
         <v>46</v>
       </c>
@@ -3036,7 +3277,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A42" s="11" t="s">
         <v>46</v>
       </c>
@@ -3056,7 +3297,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A43" s="11" t="s">
         <v>46</v>
       </c>
@@ -3076,7 +3317,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A44" s="11"/>
       <c r="B44" s="11" t="s">
         <v>161</v>
@@ -3092,7 +3333,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A45" s="5" t="s">
         <v>46</v>
       </c>
@@ -3110,7 +3351,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A46" s="11" t="s">
         <v>46</v>
       </c>
@@ -3128,7 +3369,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A47" s="11" t="s">
         <v>46</v>
       </c>
@@ -3146,7 +3387,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A48" s="11" t="s">
         <v>46</v>
       </c>
@@ -3166,7 +3407,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A49" s="11"/>
       <c r="B49" s="11" t="s">
         <v>176</v>
@@ -3182,7 +3423,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A50" s="11"/>
       <c r="B50" s="11" t="s">
         <v>179</v>
@@ -3198,7 +3439,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A51" s="11"/>
       <c r="B51" s="11" t="s">
         <v>182</v>
@@ -3214,7 +3455,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A52" s="11"/>
       <c r="B52" s="11" t="s">
         <v>185</v>
@@ -3230,7 +3471,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A53" s="11"/>
       <c r="B53" s="11" t="s">
         <v>188</v>
@@ -3246,7 +3487,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A54" s="11"/>
       <c r="B54" s="11" t="s">
         <v>191</v>
@@ -3262,7 +3503,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A55" s="11"/>
       <c r="B55" s="11" t="s">
         <v>194</v>
@@ -3278,7 +3519,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A56" s="11"/>
       <c r="B56" s="11" t="s">
         <v>197</v>
@@ -3294,7 +3535,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A57" s="11" t="s">
         <v>46</v>
       </c>
@@ -3314,7 +3555,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A58" s="11"/>
       <c r="B58" s="11" t="s">
         <v>203</v>
@@ -3330,7 +3571,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A59" s="11"/>
       <c r="B59" s="11" t="s">
         <v>206</v>
@@ -3346,7 +3587,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A60" s="11"/>
       <c r="B60" s="11" t="s">
         <v>209</v>
@@ -3362,7 +3603,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A61" s="11"/>
       <c r="B61" s="11" t="s">
         <v>212</v>
@@ -3378,7 +3619,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A62" s="11"/>
       <c r="B62" s="11" t="s">
         <v>215</v>
@@ -3394,7 +3635,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A63" s="11"/>
       <c r="B63" s="11" t="s">
         <v>218</v>
@@ -3410,7 +3651,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A64" s="15"/>
       <c r="B64" s="15" t="s">
         <v>221</v>
@@ -3426,7 +3667,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" spans="1:6" ht="57" x14ac:dyDescent="0.15">
       <c r="A65" s="15"/>
       <c r="B65" s="15" t="s">
         <v>224</v>
@@ -3442,7 +3683,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A66" s="15"/>
       <c r="B66" s="15" t="s">
         <v>227</v>
@@ -3458,7 +3699,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A67" s="15"/>
       <c r="B67" s="15" t="s">
         <v>230</v>
@@ -3474,7 +3715,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A68" s="15" t="s">
         <v>46</v>
       </c>
@@ -3492,7 +3733,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A69" s="15" t="s">
         <v>46</v>
       </c>
@@ -3510,7 +3751,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A70" s="15" t="s">
         <v>46</v>
       </c>
@@ -3528,7 +3769,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A71" s="15" t="s">
         <v>46</v>
       </c>
@@ -3546,7 +3787,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A72" s="15" t="s">
         <v>46</v>
       </c>
@@ -3564,7 +3805,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A73" s="15" t="s">
         <v>46</v>
       </c>
@@ -3582,7 +3823,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A74" s="15"/>
       <c r="B74" s="15" t="s">
         <v>251</v>
@@ -3598,7 +3839,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A75" s="15" t="s">
         <v>46</v>
       </c>
@@ -3616,7 +3857,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A76" s="15" t="s">
         <v>46</v>
       </c>
@@ -3634,7 +3875,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A77" s="15" t="s">
         <v>46</v>
       </c>
@@ -3652,7 +3893,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A78" s="15" t="s">
         <v>46</v>
       </c>
@@ -3670,7 +3911,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A79" s="11" t="s">
         <v>46</v>
       </c>
@@ -3688,7 +3929,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A80" s="11" t="s">
         <v>46</v>
       </c>
@@ -3706,7 +3947,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A81" s="11" t="s">
         <v>46</v>
       </c>
@@ -3724,7 +3965,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A82" s="11"/>
       <c r="B82" s="11" t="s">
         <v>272</v>
@@ -3740,7 +3981,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A83" s="11" t="s">
         <v>46</v>
       </c>
@@ -3760,7 +4001,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A84" s="11" t="s">
         <v>46</v>
       </c>
@@ -3778,7 +4019,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A85" s="11" t="s">
         <v>46</v>
       </c>
@@ -3797,40 +4038,33 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.699305555555555" right="0.699305555555555" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="8"/>
+  <pageMargins left="0.69930555555555496" right="0.69930555555555496" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E38" activeCellId="0" sqref="E38"/>
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.3659793814433"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.3659793814433"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.3659793814433"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.4123711340206"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.41237113402062"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="55.3711340206186"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.3659793814433"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="7.3659793814433"/>
+    <col min="1" max="1" width="7.375"/>
+    <col min="2" max="2" width="16.375"/>
+    <col min="3" max="3" width="25.375"/>
+    <col min="4" max="4" width="15.375"/>
+    <col min="5" max="5" width="6.375"/>
+    <col min="6" max="6" width="55.375"/>
+    <col min="7" max="7" width="13.375"/>
+    <col min="8" max="1025" width="7.375"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="13"/>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -3838,7 +4072,7 @@
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="13" t="s">
         <v>284</v>
       </c>
@@ -3848,7 +4082,7 @@
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="13"/>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
@@ -3856,7 +4090,7 @@
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>20</v>
       </c>
@@ -3876,7 +4110,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="15" t="s">
         <v>46</v>
       </c>
@@ -3894,7 +4128,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
       <c r="B6" s="5" t="s">
         <v>33</v>
@@ -3910,7 +4144,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="5" t="s">
         <v>53</v>
@@ -3926,7 +4160,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
       <c r="B8" s="5" t="s">
         <v>35</v>
@@ -3942,7 +4176,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="15"/>
       <c r="B9" s="5" t="s">
         <v>58</v>
@@ -3958,7 +4192,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="15"/>
       <c r="B10" s="5" t="s">
         <v>61</v>
@@ -3974,7 +4208,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="7" t="s">
         <v>46</v>
       </c>
@@ -3994,7 +4228,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
         <v>46</v>
       </c>
@@ -4014,7 +4248,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="15" t="s">
         <v>46</v>
       </c>
@@ -4032,7 +4266,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="15" t="s">
         <v>46</v>
       </c>
@@ -4050,7 +4284,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="15" t="s">
         <v>46</v>
       </c>
@@ -4068,7 +4302,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="15" t="s">
         <v>46</v>
       </c>
@@ -4088,7 +4322,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="15" t="s">
         <v>46</v>
       </c>
@@ -4106,7 +4340,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="15"/>
       <c r="B18" s="5" t="s">
         <v>95</v>
@@ -4122,7 +4356,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" s="15"/>
       <c r="B19" s="5" t="s">
         <v>98</v>
@@ -4138,7 +4372,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A20" s="15"/>
       <c r="B20" s="5" t="s">
         <v>101</v>
@@ -4154,7 +4388,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A21" s="15" t="s">
         <v>46</v>
       </c>
@@ -4172,7 +4406,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A22" s="15"/>
       <c r="B22" s="5" t="s">
         <v>289</v>
@@ -4188,7 +4422,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A23" s="15"/>
       <c r="B23" s="5" t="s">
         <v>292</v>
@@ -4204,7 +4438,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A24" s="15" t="s">
         <v>46</v>
       </c>
@@ -4222,7 +4456,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A25" s="15"/>
       <c r="B25" s="5" t="s">
         <v>297</v>
@@ -4238,7 +4472,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A26" s="15"/>
       <c r="B26" s="5" t="s">
         <v>300</v>
@@ -4254,7 +4488,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A27" s="15"/>
       <c r="B27" s="5" t="s">
         <v>303</v>
@@ -4270,7 +4504,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A28" s="5"/>
       <c r="B28" s="5" t="s">
         <v>306</v>
@@ -4286,7 +4520,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A29" s="5" t="s">
         <v>46</v>
       </c>
@@ -4304,7 +4538,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A30" s="5"/>
       <c r="B30" s="5" t="s">
         <v>312</v>
@@ -4320,7 +4554,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A31" s="5"/>
       <c r="B31" s="5" t="s">
         <v>315</v>
@@ -4336,7 +4570,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A32" s="5"/>
       <c r="B32" s="5" t="s">
         <v>318</v>
@@ -4352,7 +4586,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A33" s="5"/>
       <c r="B33" s="5" t="s">
         <v>321</v>
@@ -4368,7 +4602,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A34" s="15" t="s">
         <v>46</v>
       </c>
@@ -4388,7 +4622,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A35" s="15" t="s">
         <v>46</v>
       </c>
@@ -4408,7 +4642,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A36" s="19"/>
       <c r="B36" s="20" t="s">
         <v>329</v>
@@ -4424,7 +4658,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A37" s="19"/>
       <c r="B37" s="20" t="s">
         <v>332</v>
@@ -4440,7 +4674,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A38" s="15" t="s">
         <v>46</v>
       </c>
@@ -4460,7 +4694,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A39" s="5" t="s">
         <v>46</v>
       </c>
@@ -4478,7 +4712,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A40" s="15" t="s">
         <v>46</v>
       </c>
@@ -4498,7 +4732,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A41" s="19"/>
       <c r="B41" s="20" t="s">
         <v>338</v>
@@ -4514,7 +4748,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A42" s="19"/>
       <c r="B42" s="20" t="s">
         <v>341</v>
@@ -4530,7 +4764,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A43" s="11" t="s">
         <v>46</v>
       </c>
@@ -4550,7 +4784,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -4558,7 +4792,7 @@
       <c r="E44" s="11"/>
       <c r="F44" s="14"/>
     </row>
-    <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A45" s="15" t="s">
         <v>46</v>
       </c>
@@ -4576,7 +4810,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A46" s="15" t="s">
         <v>46</v>
       </c>
@@ -4596,7 +4830,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A47" s="15"/>
       <c r="B47" s="5" t="s">
         <v>349</v>
@@ -4612,7 +4846,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A48" s="15"/>
       <c r="B48" s="5" t="s">
         <v>352</v>
@@ -4628,7 +4862,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A49" s="15" t="s">
         <v>46</v>
       </c>
@@ -4648,7 +4882,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A50" s="11" t="s">
         <v>46</v>
       </c>
@@ -4668,7 +4902,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A51" s="15" t="s">
         <v>46</v>
       </c>
@@ -4686,7 +4920,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A52" s="15" t="s">
         <v>46</v>
       </c>
@@ -4706,7 +4940,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A53" s="15" t="s">
         <v>46</v>
       </c>
@@ -4724,7 +4958,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A54" s="15" t="s">
         <v>46</v>
       </c>
@@ -4742,7 +4976,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A55" s="15" t="s">
         <v>46</v>
       </c>
@@ -4760,7 +4994,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A56" s="15" t="s">
         <v>46</v>
       </c>
@@ -4778,7 +5012,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A57" s="15" t="s">
         <v>46</v>
       </c>
@@ -4796,7 +5030,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A58" s="11" t="s">
         <v>46</v>
       </c>
@@ -4816,7 +5050,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A59" s="11" t="s">
         <v>46</v>
       </c>
@@ -4836,7 +5070,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A60" s="11" t="s">
         <v>46</v>
       </c>
@@ -4856,7 +5090,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A61" s="11"/>
       <c r="B61" s="11"/>
       <c r="C61" s="11"/>
@@ -4865,38 +5099,29 @@
       <c r="F61" s="14"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.699305555555555" right="0.699305555555555" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="8"/>
+  <pageMargins left="0.69930555555555496" right="0.69930555555555496" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.3659793814433"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.2783505154639"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.3659793814433"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="7.3659793814433"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="49.3711340206186"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="7.3659793814433"/>
+    <col min="1" max="1" width="4.375"/>
+    <col min="2" max="2" width="21.25"/>
+    <col min="3" max="3" width="22.375"/>
+    <col min="4" max="5" width="7.375"/>
+    <col min="6" max="6" width="49.375"/>
+    <col min="7" max="1025" width="7.375"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="13"/>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -4904,7 +5129,7 @@
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="13"/>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
@@ -4912,7 +5137,7 @@
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="13"/>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
@@ -4920,7 +5145,7 @@
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>20</v>
       </c>
@@ -4940,7 +5165,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
         <v>46</v>
       </c>
@@ -4958,7 +5183,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="7"/>
       <c r="B6" s="5" t="s">
         <v>33</v>
@@ -4974,7 +5199,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="7"/>
       <c r="B7" s="5" t="s">
         <v>389</v>
@@ -4990,7 +5215,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="7"/>
       <c r="B8" s="5" t="s">
         <v>391</v>
@@ -5006,7 +5231,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="7"/>
       <c r="B9" s="5" t="s">
         <v>394</v>
@@ -5022,7 +5247,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="7"/>
       <c r="B10" s="5" t="s">
         <v>397</v>
@@ -5038,7 +5263,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="7"/>
       <c r="B11" s="5" t="s">
         <v>400</v>
@@ -5054,7 +5279,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="7"/>
       <c r="B12" s="5" t="s">
         <v>403</v>
@@ -5070,7 +5295,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="7"/>
       <c r="B13" s="5" t="s">
         <v>406</v>
@@ -5086,7 +5311,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="7"/>
       <c r="B14" s="5" t="s">
         <v>409</v>
@@ -5102,7 +5327,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="7"/>
       <c r="B15" s="5" t="s">
         <v>412</v>
@@ -5118,7 +5343,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="7"/>
       <c r="B16" s="5" t="s">
         <v>53</v>
@@ -5134,7 +5359,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="7"/>
       <c r="B17" s="5" t="s">
         <v>415</v>
@@ -5150,7 +5375,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="7"/>
       <c r="B18" s="5" t="s">
         <v>300</v>
@@ -5166,7 +5391,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" s="7"/>
       <c r="B19" s="5" t="s">
         <v>418</v>
@@ -5182,7 +5407,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A20" s="7"/>
       <c r="B20" s="5" t="s">
         <v>421</v>
@@ -5198,7 +5423,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A21" s="7" t="s">
         <v>46</v>
       </c>
@@ -5218,7 +5443,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A22" s="7" t="s">
         <v>46</v>
       </c>
@@ -5238,7 +5463,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A23" s="7" t="s">
         <v>46</v>
       </c>
@@ -5258,7 +5483,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A24" s="7" t="s">
         <v>46</v>
       </c>
@@ -5278,7 +5503,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A25" s="7" t="s">
         <v>46</v>
       </c>
@@ -5298,7 +5523,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A26" s="7"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -5306,7 +5531,7 @@
       <c r="E26" s="5"/>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A27" s="7"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -5314,7 +5539,7 @@
       <c r="E27" s="5"/>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A28" s="7"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -5322,7 +5547,7 @@
       <c r="E28" s="5"/>
       <c r="F28" s="6"/>
     </row>
-    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A29" s="7"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -5330,7 +5555,7 @@
       <c r="E29" s="5"/>
       <c r="F29" s="6"/>
     </row>
-    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A30" s="7"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -5338,7 +5563,7 @@
       <c r="E30" s="5"/>
       <c r="F30" s="6"/>
     </row>
-    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A31" s="7"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -5346,7 +5571,7 @@
       <c r="E31" s="5"/>
       <c r="F31" s="6"/>
     </row>
-    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A32" s="7"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -5354,7 +5579,7 @@
       <c r="E32" s="5"/>
       <c r="F32" s="6"/>
     </row>
-    <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A33" s="7"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -5362,7 +5587,7 @@
       <c r="E33" s="5"/>
       <c r="F33" s="6"/>
     </row>
-    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -5370,7 +5595,7 @@
       <c r="E34" s="5"/>
       <c r="F34" s="6"/>
     </row>
-    <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -5378,7 +5603,7 @@
       <c r="E35" s="5"/>
       <c r="F35" s="6"/>
     </row>
-    <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -5386,7 +5611,7 @@
       <c r="E36" s="5"/>
       <c r="F36" s="6"/>
     </row>
-    <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -5394,7 +5619,7 @@
       <c r="E37" s="5"/>
       <c r="F37" s="6"/>
     </row>
-    <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -5402,7 +5627,7 @@
       <c r="E38" s="5"/>
       <c r="F38" s="6"/>
     </row>
-    <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -5410,7 +5635,7 @@
       <c r="E39" s="5"/>
       <c r="F39" s="6"/>
     </row>
-    <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -5418,7 +5643,7 @@
       <c r="E40" s="5"/>
       <c r="F40" s="6"/>
     </row>
-    <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
@@ -5426,7 +5651,7 @@
       <c r="E41" s="7"/>
       <c r="F41" s="6"/>
     </row>
-    <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -5434,7 +5659,7 @@
       <c r="E42" s="7"/>
       <c r="F42" s="6"/>
     </row>
-    <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -5442,7 +5667,7 @@
       <c r="E43" s="7"/>
       <c r="F43" s="6"/>
     </row>
-    <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -5450,7 +5675,7 @@
       <c r="E44" s="7"/>
       <c r="F44" s="6"/>
     </row>
-    <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
@@ -5458,7 +5683,7 @@
       <c r="E45" s="7"/>
       <c r="F45" s="6"/>
     </row>
-    <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -5466,7 +5691,7 @@
       <c r="E46" s="7"/>
       <c r="F46" s="6"/>
     </row>
-    <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
@@ -5474,7 +5699,7 @@
       <c r="E47" s="7"/>
       <c r="F47" s="5"/>
     </row>
-    <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
@@ -5482,7 +5707,7 @@
       <c r="E48" s="7"/>
       <c r="F48" s="6"/>
     </row>
-    <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
@@ -5490,7 +5715,7 @@
       <c r="E49" s="7"/>
       <c r="F49" s="5"/>
     </row>
-    <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A50" s="7"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
@@ -5498,7 +5723,7 @@
       <c r="E50" s="7"/>
       <c r="F50" s="6"/>
     </row>
-    <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A51" s="7"/>
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
@@ -5507,10 +5732,10 @@
       <c r="F51" s="23"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <phoneticPr fontId="8"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
   </headerFooter>
@@ -5518,28 +5743,25 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:N27"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.3659793814433"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.3659793814433"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.9587628865979"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.41237113402062"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.0927835051546"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.2319587628866"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="7.3659793814433"/>
+    <col min="1" max="1" width="7.375"/>
+    <col min="2" max="2" width="16.375"/>
+    <col min="3" max="3" width="28"/>
+    <col min="4" max="4" width="9.375"/>
+    <col min="5" max="5" width="16.125"/>
+    <col min="6" max="6" width="16.25"/>
+    <col min="7" max="1025" width="7.375"/>
   </cols>
   <sheetData>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="24"/>
       <c r="B4" s="10" t="s">
         <v>3</v>
@@ -5550,38 +5772,38 @@
       <c r="D4" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="5" t="n">
+      <c r="E4" s="5">
         <v>1</v>
       </c>
-      <c r="F4" s="5" t="n">
+      <c r="F4" s="5">
         <v>2</v>
       </c>
-      <c r="G4" s="25" t="n">
+      <c r="G4" s="25">
         <v>3</v>
       </c>
-      <c r="H4" s="25" t="n">
+      <c r="H4" s="25">
         <v>4</v>
       </c>
-      <c r="I4" s="25" t="n">
+      <c r="I4" s="25">
         <v>5</v>
       </c>
-      <c r="J4" s="25" t="n">
+      <c r="J4" s="25">
         <v>6</v>
       </c>
-      <c r="K4" s="25" t="n">
-        <v>7</v>
-      </c>
-      <c r="L4" s="25" t="n">
+      <c r="K4" s="25">
+        <v>7</v>
+      </c>
+      <c r="L4" s="25">
         <v>8</v>
       </c>
-      <c r="M4" s="25" t="n">
+      <c r="M4" s="25">
         <v>9</v>
       </c>
-      <c r="N4" s="25" t="n">
+      <c r="N4" s="25">
         <v>10</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="24"/>
       <c r="B5" s="10" t="s">
         <v>438</v>
@@ -5605,7 +5827,7 @@
       <c r="M5" s="25"/>
       <c r="N5" s="25"/>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="24"/>
       <c r="B6" s="27" t="s">
         <v>30</v>
@@ -5627,7 +5849,7 @@
       <c r="M6" s="25"/>
       <c r="N6" s="25"/>
     </row>
-    <row r="7" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:14" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A7" s="24"/>
       <c r="B7" s="27" t="s">
         <v>442</v>
@@ -5649,7 +5871,7 @@
       <c r="M7" s="25"/>
       <c r="N7" s="25"/>
     </row>
-    <row r="8" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="24"/>
       <c r="B8" s="10" t="s">
         <v>47</v>
@@ -5671,7 +5893,7 @@
       <c r="M8" s="25"/>
       <c r="N8" s="25"/>
     </row>
-    <row r="9" customFormat="false" ht="52.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:14" ht="57" x14ac:dyDescent="0.15">
       <c r="A9" s="24"/>
       <c r="B9" s="10" t="s">
         <v>33</v>
@@ -5697,7 +5919,7 @@
       <c r="M9" s="25"/>
       <c r="N9" s="25"/>
     </row>
-    <row r="10" customFormat="false" ht="52.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:14" ht="57" x14ac:dyDescent="0.15">
       <c r="A10" s="24"/>
       <c r="B10" s="10" t="s">
         <v>35</v>
@@ -5723,7 +5945,7 @@
       <c r="M10" s="25"/>
       <c r="N10" s="25"/>
     </row>
-    <row r="11" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:14" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A11" s="24"/>
       <c r="B11" s="10" t="s">
         <v>58</v>
@@ -5749,7 +5971,7 @@
       <c r="M11" s="25"/>
       <c r="N11" s="25"/>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="24"/>
       <c r="B12" s="10" t="s">
         <v>61</v>
@@ -5771,7 +5993,7 @@
       <c r="M12" s="25"/>
       <c r="N12" s="25"/>
     </row>
-    <row r="13" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="24"/>
       <c r="B13" s="10" t="s">
         <v>70</v>
@@ -5793,7 +6015,7 @@
       <c r="M13" s="25"/>
       <c r="N13" s="25"/>
     </row>
-    <row r="14" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="24"/>
       <c r="B14" s="10" t="s">
         <v>73</v>
@@ -5815,7 +6037,7 @@
       <c r="M14" s="25"/>
       <c r="N14" s="25"/>
     </row>
-    <row r="15" customFormat="false" ht="52.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:14" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A15" s="24"/>
       <c r="B15" s="11" t="s">
         <v>79</v>
@@ -5841,7 +6063,7 @@
       <c r="M15" s="25"/>
       <c r="N15" s="25"/>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="24"/>
       <c r="B16" s="10" t="s">
         <v>81</v>
@@ -5863,7 +6085,7 @@
       <c r="M16" s="25"/>
       <c r="N16" s="25"/>
     </row>
-    <row r="17" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="24"/>
       <c r="B17" s="10" t="s">
         <v>87</v>
@@ -5874,7 +6096,9 @@
       <c r="D17" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="6"/>
+      <c r="E17" s="6" t="s">
+        <v>453</v>
+      </c>
       <c r="F17" s="6"/>
       <c r="G17" s="25"/>
       <c r="H17" s="25"/>
@@ -5885,7 +6109,7 @@
       <c r="M17" s="25"/>
       <c r="N17" s="25"/>
     </row>
-    <row r="18" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="24"/>
       <c r="B18" s="10" t="s">
         <v>89</v>
@@ -5907,7 +6131,7 @@
       <c r="M18" s="25"/>
       <c r="N18" s="25"/>
     </row>
-    <row r="19" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:14" ht="57" x14ac:dyDescent="0.15">
       <c r="A19" s="24"/>
       <c r="B19" s="10" t="s">
         <v>101</v>
@@ -5918,7 +6142,9 @@
       <c r="D19" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="5"/>
+      <c r="E19" s="6" t="s">
+        <v>446</v>
+      </c>
       <c r="F19" s="5"/>
       <c r="G19" s="25"/>
       <c r="H19" s="25"/>
@@ -5929,7 +6155,7 @@
       <c r="M19" s="25"/>
       <c r="N19" s="25"/>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A20" s="24"/>
       <c r="B20" s="10" t="s">
         <v>451</v>
@@ -5951,7 +6177,7 @@
       <c r="M20" s="25"/>
       <c r="N20" s="25"/>
     </row>
-    <row r="21" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A21" s="24"/>
       <c r="B21" s="10" t="s">
         <v>92</v>
@@ -5973,7 +6199,7 @@
       <c r="M21" s="25"/>
       <c r="N21" s="25"/>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A22" s="24"/>
       <c r="B22" s="10" t="s">
         <v>287</v>
@@ -5995,7 +6221,7 @@
       <c r="M22" s="25"/>
       <c r="N22" s="25"/>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A23" s="24"/>
       <c r="B23" s="10" t="s">
         <v>324</v>
@@ -6017,7 +6243,7 @@
       <c r="M23" s="25"/>
       <c r="N23" s="25"/>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A24" s="24"/>
       <c r="B24" s="10" t="s">
         <v>140</v>
@@ -6039,7 +6265,7 @@
       <c r="M24" s="25"/>
       <c r="N24" s="25"/>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A25" s="24"/>
       <c r="B25" s="10" t="s">
         <v>167</v>
@@ -6061,7 +6287,7 @@
       <c r="M25" s="25"/>
       <c r="N25" s="25"/>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A26" s="24"/>
       <c r="B26" s="10" t="s">
         <v>67</v>
@@ -6083,7 +6309,7 @@
       <c r="M26" s="25"/>
       <c r="N26" s="25"/>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A27" s="24"/>
       <c r="B27" s="10" t="s">
         <v>369</v>
@@ -6106,12 +6332,8 @@
       <c r="N27" s="25"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.699305555555555" right="0.699305555555555" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="8"/>
+  <pageMargins left="0.69930555555555496" right="0.69930555555555496" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/test/resources/check_sheet.xlsx
+++ b/src/test/resources/check_sheet.xlsx
@@ -9,14 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15465" windowHeight="5190" tabRatio="755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15465" windowHeight="5190" tabRatio="755" activeTab="6"/>
   </bookViews>
   <sheets>
-    <sheet name="Target" sheetId="1" r:id="rId1"/>
-    <sheet name="CheckSheet(Linux)" sheetId="2" r:id="rId2"/>
-    <sheet name="CheckSheet(Windows)" sheetId="3" r:id="rId3"/>
-    <sheet name="CheckSheet(VMHost)" sheetId="4" r:id="rId4"/>
-    <sheet name="Rule" sheetId="5" r:id="rId5"/>
+    <sheet name="Target" sheetId="7" r:id="rId1"/>
+    <sheet name="org_Target" sheetId="1" r:id="rId2"/>
+    <sheet name="CheckSheet(Linux)" sheetId="2" r:id="rId3"/>
+    <sheet name="CheckSheet(Windows)" sheetId="3" r:id="rId4"/>
+    <sheet name="CheckSheet(VMHost)" sheetId="4" r:id="rId5"/>
+    <sheet name="Rule" sheetId="5" r:id="rId6"/>
+    <sheet name="Template(AP)" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="510">
   <si>
     <t>Type</t>
   </si>
@@ -1467,28 +1469,242 @@
   </si>
   <si>
     <t>x =~ /Linux/</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>ostrich</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>192.168.10.1</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>192.168.10.2</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>win2012</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>Windows</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>cent7</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>192.168.10.1</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>ostrich</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>Linux</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>template_id</t>
+  </si>
+  <si>
+    <t>n_cpu</t>
+  </si>
+  <si>
+    <t>memory_gb</t>
+  </si>
+  <si>
+    <t>esxi_host</t>
+  </si>
+  <si>
+    <t>hdd_type</t>
+  </si>
+  <si>
+    <t>accont_id</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>Test</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>AP</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>vCenter</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>Linux</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>2.6.43</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>CentOS</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>OS</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>Kernel</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>OSRelease</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>Arch</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>x86_64</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>eth0</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>eth1</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>192.168.0.254</t>
+  </si>
+  <si>
+    <t>filesystem</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>/:26.5G</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>[swap]:3G</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>users</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>zabbix</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>service</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>kdump:On</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>iptables:Off</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>SELinux</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>Off</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>packages</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>sysstat</t>
+  </si>
+  <si>
+    <t>dmidecode</t>
+  </si>
+  <si>
+    <t>strace</t>
+  </si>
+  <si>
+    <t>net-snmp-libs</t>
+  </si>
+  <si>
+    <t>net-snmp-utils</t>
+  </si>
+  <si>
+    <t>busybox-anaconda</t>
+  </si>
+  <si>
+    <t>alchemist</t>
+  </si>
+  <si>
+    <t>xinetd</t>
+  </si>
+  <si>
+    <t>tftp-server</t>
+  </si>
+  <si>
+    <t>system-config-netboot-cmd</t>
+  </si>
+  <si>
+    <t>system-config-netboot</t>
+  </si>
+  <si>
+    <t>memory</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>4GB</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>cpu</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>datastore</t>
+    <phoneticPr fontId="10"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1545,8 +1761,24 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1559,8 +1791,14 @@
         <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1637,106 +1875,419 @@
         <color auto="1"/>
       </diagonal>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="説明文" xfId="1" builtinId="53" customBuiltin="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="2"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="ＭＳ Ｐゴシック"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="ＭＳ Ｐゴシック"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="ＭＳ Ｐゴシック"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="ＭＳ Ｐゴシック"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="ＭＳ Ｐゴシック"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="ＭＳ Ｐゴシック"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="ＭＳ Ｐゴシック"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="ＭＳ Ｐゴシック"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="ＭＳ Ｐゴシック"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="ＭＳ Ｐゴシック"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="ＭＳ Ｐゴシック"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="ＭＳ Ｐゴシック"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="ＭＳ Ｐゴシック"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="ＭＳ Ｐゴシック"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1747,6 +2298,27 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="テーブル2" displayName="テーブル2" ref="A2:L22" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13" tableBorderDxfId="12" dataCellStyle="標準 2">
+  <autoFilter ref="A2:L22"/>
+  <tableColumns count="12">
+    <tableColumn id="1" name="#" dataDxfId="11" dataCellStyle="標準 2"/>
+    <tableColumn id="2" name="domain" dataDxfId="10" dataCellStyle="標準 2"/>
+    <tableColumn id="3" name="server_name" dataDxfId="9" dataCellStyle="標準 2"/>
+    <tableColumn id="4" name="ip" dataDxfId="8" dataCellStyle="標準 2"/>
+    <tableColumn id="13" name="accont_id" dataDxfId="0" dataCellStyle="標準 2"/>
+    <tableColumn id="5" name="template_id" dataDxfId="7" dataCellStyle="標準 2"/>
+    <tableColumn id="6" name="remote_alias" dataDxfId="6" dataCellStyle="標準 2"/>
+    <tableColumn id="7" name="compare_server" dataDxfId="5" dataCellStyle="標準 2"/>
+    <tableColumn id="8" name="n_cpu" dataDxfId="4" dataCellStyle="標準 2"/>
+    <tableColumn id="9" name="memory_gb" dataDxfId="3" dataCellStyle="標準 2"/>
+    <tableColumn id="10" name="esxi_host" dataDxfId="2" dataCellStyle="標準 2"/>
+    <tableColumn id="11" name="hdd_type" dataDxfId="1" dataCellStyle="標準 2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2012,9 +2584,428 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:L22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="4.875" style="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.25" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.75" style="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.25" style="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.875" style="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.125" style="28" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5" style="28" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.875" style="28" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.625" style="28" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.125" style="28" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5" style="28" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="28"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A2" s="32" t="s">
+        <v>463</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>469</v>
+      </c>
+      <c r="F2" s="32" t="s">
+        <v>464</v>
+      </c>
+      <c r="G2" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>465</v>
+      </c>
+      <c r="J2" s="32" t="s">
+        <v>466</v>
+      </c>
+      <c r="K2" s="32" t="s">
+        <v>467</v>
+      </c>
+      <c r="L2" s="32" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A3" s="31">
+        <v>1</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>462</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>461</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>460</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>470</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>471</v>
+      </c>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31" t="s">
+        <v>459</v>
+      </c>
+      <c r="I3" s="31">
+        <v>4</v>
+      </c>
+      <c r="J3" s="31">
+        <v>8</v>
+      </c>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A4" s="29">
+        <v>2</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>458</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>457</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>456</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>470</v>
+      </c>
+      <c r="F4" s="34" t="s">
+        <v>471</v>
+      </c>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A5" s="30">
+        <v>3</v>
+      </c>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A6" s="29">
+        <v>4</v>
+      </c>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A7" s="30">
+        <v>5</v>
+      </c>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A8" s="29">
+        <v>6</v>
+      </c>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="30">
+        <v>7</v>
+      </c>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="29">
+        <v>8</v>
+      </c>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="30">
+        <v>9</v>
+      </c>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="29">
+        <v>10</v>
+      </c>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" s="30">
+        <v>11</v>
+      </c>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14" s="29">
+        <v>12</v>
+      </c>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A15" s="30">
+        <v>13</v>
+      </c>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16" s="29">
+        <v>14</v>
+      </c>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A17" s="30">
+        <v>15</v>
+      </c>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A18" s="29">
+        <v>16</v>
+      </c>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A19" s="30">
+        <v>17</v>
+      </c>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A20" s="29">
+        <v>18</v>
+      </c>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A21" s="30">
+        <v>19</v>
+      </c>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A22" s="29">
+        <v>20</v>
+      </c>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="10"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -2543,7 +3534,7 @@
       <c r="M20" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8"/>
+  <phoneticPr fontId="10"/>
   <dataValidations count="3">
     <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="D5:M5">
       <formula1>"選択してください,Linux,Windows,VMHost"</formula1>
@@ -2563,7 +3554,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F85"/>
   <sheetViews>
@@ -4038,13 +5029,13 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8"/>
+  <phoneticPr fontId="10"/>
   <pageMargins left="0.69930555555555496" right="0.69930555555555496" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F61"/>
   <sheetViews>
@@ -5099,13 +6090,13 @@
       <c r="F61" s="14"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8"/>
+  <phoneticPr fontId="10"/>
   <pageMargins left="0.69930555555555496" right="0.69930555555555496" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F51"/>
   <sheetViews>
@@ -5732,7 +6723,7 @@
       <c r="F51" s="23"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8"/>
+  <phoneticPr fontId="10"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
@@ -5742,7 +6733,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:N27"/>
   <sheetViews>
@@ -6332,8 +7323,662 @@
       <c r="N27" s="25"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8"/>
+  <phoneticPr fontId="10"/>
   <pageMargins left="0.69930555555555496" right="0.69930555555555496" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:R27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" customWidth="1"/>
+    <col min="5" max="5" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="25.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:18" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B2" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>509</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>477</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>476</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>478</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>479</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="N2" s="35" t="s">
+        <v>484</v>
+      </c>
+      <c r="O2" s="35" t="s">
+        <v>487</v>
+      </c>
+      <c r="P2" s="35" t="s">
+        <v>489</v>
+      </c>
+      <c r="Q2" s="35" t="s">
+        <v>492</v>
+      </c>
+      <c r="R2" s="35" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="3" spans="2:18" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B3" s="11" t="s">
+        <v>472</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>472</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>472</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>473</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>473</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>473</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>473</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>473</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>473</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>473</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>473</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>473</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>473</v>
+      </c>
+      <c r="O3" s="11" t="s">
+        <v>473</v>
+      </c>
+      <c r="P3" s="11" t="s">
+        <v>473</v>
+      </c>
+      <c r="Q3" s="11" t="s">
+        <v>473</v>
+      </c>
+      <c r="R3" s="11" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B4" s="11">
+        <v>2</v>
+      </c>
+      <c r="C4" s="11">
+        <v>4</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11" t="s">
+        <v>474</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>475</v>
+      </c>
+      <c r="G4" s="11">
+        <v>6.7</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>480</v>
+      </c>
+      <c r="I4" s="11">
+        <v>1</v>
+      </c>
+      <c r="J4" s="11">
+        <v>1</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>481</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>483</v>
+      </c>
+      <c r="N4" s="11" t="s">
+        <v>485</v>
+      </c>
+      <c r="O4" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="P4" s="11" t="s">
+        <v>490</v>
+      </c>
+      <c r="Q4" s="11" t="s">
+        <v>493</v>
+      </c>
+      <c r="R4" s="11" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11" t="s">
+        <v>482</v>
+      </c>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11" t="s">
+        <v>486</v>
+      </c>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+    </row>
+    <row r="16" spans="2:18" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+    </row>
+    <row r="17" spans="2:18" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+    </row>
+    <row r="18" spans="2:18" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+    </row>
+    <row r="19" spans="2:18" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+    </row>
+    <row r="20" spans="2:18" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+    </row>
+    <row r="21" spans="2:18" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+    </row>
+    <row r="22" spans="2:18" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+    </row>
+    <row r="23" spans="2:18" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+    </row>
+    <row r="24" spans="2:18" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
+    </row>
+    <row r="25" spans="2:18" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
+    </row>
+    <row r="26" spans="2:18" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+    </row>
+    <row r="27" spans="2:18" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="10"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/check_sheet.xlsx
+++ b/src/test/resources/check_sheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15465" windowHeight="5190" tabRatio="755" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15465" windowHeight="5190" tabRatio="755"/>
   </bookViews>
   <sheets>
     <sheet name="Target" sheetId="7" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="520">
   <si>
     <t>Type</t>
   </si>
@@ -1469,43 +1469,43 @@
   </si>
   <si>
     <t>x =~ /Linux/</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>ostrich</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>192.168.10.1</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>192.168.10.2</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>win2012</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>Windows</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>cent7</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>192.168.10.1</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>ostrich</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>Linux</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>#</t>
@@ -1527,168 +1527,236 @@
   </si>
   <si>
     <t>accont_id</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>Test</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>AP</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>2.6.43</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>CentOS</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>OS</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>Kernel</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>OSRelease</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>Arch</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>x86_64</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>eth0</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>eth1</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>192.168.0.254</t>
+  </si>
+  <si>
+    <t>filesystem</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>/:26.5G</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>[swap]:3G</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>users</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>zabbix</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>service</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>kdump:On</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>iptables:Off</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>SELinux</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>Off</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>packages</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>sysstat</t>
+  </si>
+  <si>
+    <t>dmidecode</t>
+  </si>
+  <si>
+    <t>strace</t>
+  </si>
+  <si>
+    <t>net-snmp-libs</t>
+  </si>
+  <si>
+    <t>net-snmp-utils</t>
+  </si>
+  <si>
+    <t>busybox-anaconda</t>
+  </si>
+  <si>
+    <t>alchemist</t>
+  </si>
+  <si>
+    <t>xinetd</t>
+  </si>
+  <si>
+    <t>tftp-server</t>
+  </si>
+  <si>
+    <t>system-config-netboot-cmd</t>
+  </si>
+  <si>
+    <t>system-config-netboot</t>
+  </si>
+  <si>
+    <t>memory</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>4GB</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>cpu</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>datastore</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>platform</t>
+  </si>
+  <si>
+    <t>Windows</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>Linux</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>VM</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>Test</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>RuleAP</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <r>
+      <t>旧設定(テスト互換性維持用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <rPh sb="0" eb="3">
+      <t>キュウセッテイ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ゴカンセイ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>イジヨウ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>NumCpu</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>memory2</t>
   </si>
   <si>
     <t>vCenter</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>Linux</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>2.6.43</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>CentOS</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>OS</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>Kernel</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>OSRelease</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>Arch</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>x86_64</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>eth0</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>eth1</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>192.168.0.254</t>
-  </si>
-  <si>
-    <t>filesystem</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>/:26.5G</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>[swap]:3G</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>users</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>zabbix</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>service</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>kdump:On</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>iptables:Off</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>SELinux</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>Off</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>packages</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>sysstat</t>
-  </si>
-  <si>
-    <t>dmidecode</t>
-  </si>
-  <si>
-    <t>strace</t>
-  </si>
-  <si>
-    <t>net-snmp-libs</t>
-  </si>
-  <si>
-    <t>net-snmp-utils</t>
-  </si>
-  <si>
-    <t>busybox-anaconda</t>
-  </si>
-  <si>
-    <t>alchemist</t>
-  </si>
-  <si>
-    <t>xinetd</t>
-  </si>
-  <si>
-    <t>tftp-server</t>
-  </si>
-  <si>
-    <t>system-config-netboot-cmd</t>
-  </si>
-  <si>
-    <t>system-config-netboot</t>
-  </si>
-  <si>
-    <t>memory</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>4GB</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>cpu</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>datastore</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>Platform</t>
+    <phoneticPr fontId="11"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1777,6 +1845,31 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1798,7 +1891,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1884,125 +1977,156 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2011,7 +2135,724 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="2"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="40">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Meiryo UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Meiryo UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Meiryo UI"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Meiryo UI"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Meiryo UI"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Meiryo UI"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Meiryo UI"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Meiryo UI"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Meiryo UI"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Meiryo UI"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Meiryo UI"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Meiryo UI"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Meiryo UI"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Meiryo UI"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Meiryo UI"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Meiryo UI"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Meiryo UI"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Meiryo UI"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Meiryo UI"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="ＭＳ Ｐゴシック"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="ＭＳ Ｐゴシック"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="ＭＳ Ｐゴシック"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="ＭＳ Ｐゴシック"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="ＭＳ Ｐゴシック"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2301,21 +3142,55 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="テーブル2" displayName="テーブル2" ref="A2:L22" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13" tableBorderDxfId="12" dataCellStyle="標準 2">
-  <autoFilter ref="A2:L22"/>
-  <tableColumns count="12">
-    <tableColumn id="1" name="#" dataDxfId="11" dataCellStyle="標準 2"/>
-    <tableColumn id="2" name="domain" dataDxfId="10" dataCellStyle="標準 2"/>
-    <tableColumn id="3" name="server_name" dataDxfId="9" dataCellStyle="標準 2"/>
-    <tableColumn id="4" name="ip" dataDxfId="8" dataCellStyle="標準 2"/>
-    <tableColumn id="13" name="accont_id" dataDxfId="0" dataCellStyle="標準 2"/>
-    <tableColumn id="5" name="template_id" dataDxfId="7" dataCellStyle="標準 2"/>
-    <tableColumn id="6" name="remote_alias" dataDxfId="6" dataCellStyle="標準 2"/>
-    <tableColumn id="7" name="compare_server" dataDxfId="5" dataCellStyle="標準 2"/>
-    <tableColumn id="8" name="n_cpu" dataDxfId="4" dataCellStyle="標準 2"/>
-    <tableColumn id="9" name="memory_gb" dataDxfId="3" dataCellStyle="標準 2"/>
-    <tableColumn id="10" name="esxi_host" dataDxfId="2" dataCellStyle="標準 2"/>
-    <tableColumn id="11" name="hdd_type" dataDxfId="1" dataCellStyle="標準 2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="テーブル2" displayName="テーブル2" ref="A2:Q22" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38" tableBorderDxfId="37" dataCellStyle="標準 2">
+  <autoFilter ref="A2:Q22"/>
+  <tableColumns count="17">
+    <tableColumn id="1" name="#" dataDxfId="36" dataCellStyle="標準 2"/>
+    <tableColumn id="2" name="domain" dataDxfId="35" dataCellStyle="標準 2"/>
+    <tableColumn id="3" name="server_name" dataDxfId="34" dataCellStyle="標準 2"/>
+    <tableColumn id="4" name="ip" dataDxfId="33" dataCellStyle="標準 2"/>
+    <tableColumn id="13" name="accont_id" dataDxfId="32" dataCellStyle="標準 2"/>
+    <tableColumn id="5" name="template_id" dataDxfId="31" dataCellStyle="標準 2"/>
+    <tableColumn id="6" name="remote_alias" dataDxfId="30" dataCellStyle="標準 2"/>
+    <tableColumn id="7" name="compare_server" dataDxfId="29" dataCellStyle="標準 2"/>
+    <tableColumn id="8" name="n_cpu" dataDxfId="28" dataCellStyle="標準 2"/>
+    <tableColumn id="9" name="memory_gb" dataDxfId="27" dataCellStyle="標準 2"/>
+    <tableColumn id="10" name="esxi_host" dataDxfId="26" dataCellStyle="標準 2"/>
+    <tableColumn id="11" name="hdd_type" dataDxfId="25" dataCellStyle="標準 2"/>
+    <tableColumn id="12" name="platform" dataDxfId="24" dataCellStyle="標準 2"/>
+    <tableColumn id="19" name="NumCpu" dataDxfId="20" dataCellStyle="標準 2"/>
+    <tableColumn id="14" name="virtualization" dataDxfId="23" dataCellStyle="標準 2"/>
+    <tableColumn id="15" name="remote_account_id" dataDxfId="22" dataCellStyle="標準 2"/>
+    <tableColumn id="17" name="verify_id" dataDxfId="21" dataCellStyle="標準 2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="A2:R26" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" tableBorderDxfId="19">
+  <autoFilter ref="A2:R26"/>
+  <tableColumns count="18">
+    <tableColumn id="1" name="#">
+      <calculatedColumnFormula>ROW()-ROW(A$2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" name="cpu" dataDxfId="18"/>
+    <tableColumn id="3" name="memory" dataDxfId="17"/>
+    <tableColumn id="4" name="datastore" dataDxfId="16"/>
+    <tableColumn id="5" name="Kernel" dataDxfId="15"/>
+    <tableColumn id="6" name="OS" dataDxfId="14"/>
+    <tableColumn id="7" name="OSRelease" dataDxfId="13"/>
+    <tableColumn id="8" name="Arch" dataDxfId="12"/>
+    <tableColumn id="9" name="cpu_total" dataDxfId="11"/>
+    <tableColumn id="10" name="cpu_real" dataDxfId="10"/>
+    <tableColumn id="11" name="memory2" dataDxfId="9"/>
+    <tableColumn id="12" name="net_onboot" dataDxfId="8"/>
+    <tableColumn id="13" name="net_route" dataDxfId="7"/>
+    <tableColumn id="14" name="filesystem" dataDxfId="6"/>
+    <tableColumn id="15" name="users" dataDxfId="5"/>
+    <tableColumn id="16" name="service" dataDxfId="4"/>
+    <tableColumn id="17" name="SELinux" dataDxfId="3"/>
+    <tableColumn id="18" name="packages" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2584,10 +3459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L22"/>
+  <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2600,14 +3475,24 @@
     <col min="6" max="6" width="13.875" style="28" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.125" style="28" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.5" style="28" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.875" style="28" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.625" style="28" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.125" style="28" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.5" style="28" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="28"/>
+    <col min="9" max="9" width="13.625" style="28" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.125" style="28" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5" style="28" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.75" style="28" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.75" style="28" customWidth="1"/>
+    <col min="14" max="14" width="15.375" style="28" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.375" style="28" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.125" style="28" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="28"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="L1" s="36" t="s">
+        <v>514</v>
+      </c>
+      <c r="M1" s="36"/>
+    </row>
+    <row r="2" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="32" t="s">
         <v>463</v>
       </c>
@@ -2644,8 +3529,23 @@
       <c r="L2" s="32" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M2" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="P2" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2" s="38" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" s="31">
         <v>1</v>
       </c>
@@ -2676,8 +3576,23 @@
       </c>
       <c r="K3" s="31"/>
       <c r="L3" s="31"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M3" s="37" t="s">
+        <v>510</v>
+      </c>
+      <c r="N3" s="37">
+        <v>4</v>
+      </c>
+      <c r="O3" s="37" t="s">
+        <v>511</v>
+      </c>
+      <c r="P3" s="37" t="s">
+        <v>512</v>
+      </c>
+      <c r="Q3" s="37" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A4" s="29">
         <v>2</v>
       </c>
@@ -2702,8 +3617,23 @@
       <c r="J4" s="29"/>
       <c r="K4" s="29"/>
       <c r="L4" s="29"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M4" s="37" t="s">
+        <v>509</v>
+      </c>
+      <c r="N4" s="37">
+        <v>4</v>
+      </c>
+      <c r="O4" s="37" t="s">
+        <v>511</v>
+      </c>
+      <c r="P4" s="37" t="s">
+        <v>512</v>
+      </c>
+      <c r="Q4" s="37" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A5" s="30">
         <v>3</v>
       </c>
@@ -2718,8 +3648,13 @@
       <c r="J5" s="30"/>
       <c r="K5" s="30"/>
       <c r="L5" s="30"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="37"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A6" s="29">
         <v>4</v>
       </c>
@@ -2734,8 +3669,13 @@
       <c r="J6" s="29"/>
       <c r="K6" s="29"/>
       <c r="L6" s="29"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="37"/>
+      <c r="Q6" s="37"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A7" s="30">
         <v>5</v>
       </c>
@@ -2750,8 +3690,13 @@
       <c r="J7" s="30"/>
       <c r="K7" s="30"/>
       <c r="L7" s="30"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M7" s="37"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="37"/>
+      <c r="P7" s="37"/>
+      <c r="Q7" s="37"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A8" s="29">
         <v>6</v>
       </c>
@@ -2766,8 +3711,13 @@
       <c r="J8" s="29"/>
       <c r="K8" s="29"/>
       <c r="L8" s="29"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M8" s="37"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="37"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A9" s="30">
         <v>7</v>
       </c>
@@ -2782,8 +3732,13 @@
       <c r="J9" s="30"/>
       <c r="K9" s="30"/>
       <c r="L9" s="30"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M9" s="37"/>
+      <c r="N9" s="37"/>
+      <c r="O9" s="37"/>
+      <c r="P9" s="37"/>
+      <c r="Q9" s="37"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A10" s="29">
         <v>8</v>
       </c>
@@ -2798,8 +3753,13 @@
       <c r="J10" s="29"/>
       <c r="K10" s="29"/>
       <c r="L10" s="29"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M10" s="37"/>
+      <c r="N10" s="37"/>
+      <c r="O10" s="37"/>
+      <c r="P10" s="37"/>
+      <c r="Q10" s="37"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A11" s="30">
         <v>9</v>
       </c>
@@ -2814,8 +3774,13 @@
       <c r="J11" s="30"/>
       <c r="K11" s="30"/>
       <c r="L11" s="30"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M11" s="37"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="37"/>
+      <c r="Q11" s="37"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A12" s="29">
         <v>10</v>
       </c>
@@ -2830,8 +3795,13 @@
       <c r="J12" s="29"/>
       <c r="K12" s="29"/>
       <c r="L12" s="29"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M12" s="37"/>
+      <c r="N12" s="37"/>
+      <c r="O12" s="37"/>
+      <c r="P12" s="37"/>
+      <c r="Q12" s="37"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A13" s="30">
         <v>11</v>
       </c>
@@ -2846,8 +3816,13 @@
       <c r="J13" s="30"/>
       <c r="K13" s="30"/>
       <c r="L13" s="30"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M13" s="37"/>
+      <c r="N13" s="37"/>
+      <c r="O13" s="37"/>
+      <c r="P13" s="37"/>
+      <c r="Q13" s="37"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A14" s="29">
         <v>12</v>
       </c>
@@ -2862,8 +3837,13 @@
       <c r="J14" s="29"/>
       <c r="K14" s="29"/>
       <c r="L14" s="29"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M14" s="37"/>
+      <c r="N14" s="37"/>
+      <c r="O14" s="37"/>
+      <c r="P14" s="37"/>
+      <c r="Q14" s="37"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A15" s="30">
         <v>13</v>
       </c>
@@ -2878,8 +3858,13 @@
       <c r="J15" s="30"/>
       <c r="K15" s="30"/>
       <c r="L15" s="30"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M15" s="37"/>
+      <c r="N15" s="37"/>
+      <c r="O15" s="37"/>
+      <c r="P15" s="37"/>
+      <c r="Q15" s="37"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A16" s="29">
         <v>14</v>
       </c>
@@ -2894,8 +3879,13 @@
       <c r="J16" s="29"/>
       <c r="K16" s="29"/>
       <c r="L16" s="29"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M16" s="37"/>
+      <c r="N16" s="37"/>
+      <c r="O16" s="37"/>
+      <c r="P16" s="37"/>
+      <c r="Q16" s="37"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A17" s="30">
         <v>15</v>
       </c>
@@ -2910,8 +3900,13 @@
       <c r="J17" s="30"/>
       <c r="K17" s="30"/>
       <c r="L17" s="30"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M17" s="37"/>
+      <c r="N17" s="37"/>
+      <c r="O17" s="37"/>
+      <c r="P17" s="37"/>
+      <c r="Q17" s="37"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A18" s="29">
         <v>16</v>
       </c>
@@ -2926,8 +3921,13 @@
       <c r="J18" s="29"/>
       <c r="K18" s="29"/>
       <c r="L18" s="29"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M18" s="37"/>
+      <c r="N18" s="37"/>
+      <c r="O18" s="37"/>
+      <c r="P18" s="37"/>
+      <c r="Q18" s="37"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A19" s="30">
         <v>17</v>
       </c>
@@ -2942,8 +3942,13 @@
       <c r="J19" s="30"/>
       <c r="K19" s="30"/>
       <c r="L19" s="30"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M19" s="37"/>
+      <c r="N19" s="37"/>
+      <c r="O19" s="37"/>
+      <c r="P19" s="37"/>
+      <c r="Q19" s="37"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A20" s="29">
         <v>18</v>
       </c>
@@ -2958,8 +3963,13 @@
       <c r="J20" s="29"/>
       <c r="K20" s="29"/>
       <c r="L20" s="29"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M20" s="37"/>
+      <c r="N20" s="37"/>
+      <c r="O20" s="37"/>
+      <c r="P20" s="37"/>
+      <c r="Q20" s="37"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A21" s="30">
         <v>19</v>
       </c>
@@ -2974,8 +3984,13 @@
       <c r="J21" s="30"/>
       <c r="K21" s="30"/>
       <c r="L21" s="30"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M21" s="37"/>
+      <c r="N21" s="37"/>
+      <c r="O21" s="37"/>
+      <c r="P21" s="37"/>
+      <c r="Q21" s="37"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A22" s="29">
         <v>20</v>
       </c>
@@ -2990,9 +4005,14 @@
       <c r="J22" s="29"/>
       <c r="K22" s="29"/>
       <c r="L22" s="29"/>
+      <c r="M22" s="37"/>
+      <c r="N22" s="37"/>
+      <c r="O22" s="37"/>
+      <c r="P22" s="37"/>
+      <c r="Q22" s="37"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="10"/>
+  <phoneticPr fontId="11"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
@@ -3534,7 +4554,7 @@
       <c r="M20" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="10"/>
+  <phoneticPr fontId="11"/>
   <dataValidations count="3">
     <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="D5:M5">
       <formula1>"選択してください,Linux,Windows,VMHost"</formula1>
@@ -5029,7 +6049,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10"/>
+  <phoneticPr fontId="11"/>
   <pageMargins left="0.69930555555555496" right="0.69930555555555496" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -6090,7 +7110,7 @@
       <c r="F61" s="14"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="10"/>
+  <phoneticPr fontId="11"/>
   <pageMargins left="0.69930555555555496" right="0.69930555555555496" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -6723,7 +7743,7 @@
       <c r="F51" s="23"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="10"/>
+  <phoneticPr fontId="11"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
@@ -6737,7 +7757,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:N27"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -7323,7 +8343,7 @@
       <c r="N27" s="25"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="10"/>
+  <phoneticPr fontId="11"/>
   <pageMargins left="0.69930555555555496" right="0.69930555555555496" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -7331,53 +8351,113 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:R27"/>
+  <dimension ref="A1:R26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8" customWidth="1"/>
-    <col min="5" max="5" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="10.625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="25.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A1" s="41" t="s">
+        <v>519</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>518</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>518</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>518</v>
+      </c>
+      <c r="E1" s="41" t="s">
+        <v>510</v>
+      </c>
+      <c r="F1" s="41" t="s">
+        <v>510</v>
+      </c>
+      <c r="G1" s="41" t="s">
+        <v>510</v>
+      </c>
+      <c r="H1" s="41" t="s">
+        <v>510</v>
+      </c>
+      <c r="I1" s="41" t="s">
+        <v>510</v>
+      </c>
+      <c r="J1" s="41" t="s">
+        <v>510</v>
+      </c>
+      <c r="K1" s="41" t="s">
+        <v>510</v>
+      </c>
+      <c r="L1" s="41" t="s">
+        <v>510</v>
+      </c>
+      <c r="M1" s="41" t="s">
+        <v>510</v>
+      </c>
+      <c r="N1" s="41" t="s">
+        <v>510</v>
+      </c>
+      <c r="O1" s="41" t="s">
+        <v>510</v>
+      </c>
+      <c r="P1" s="41" t="s">
+        <v>510</v>
+      </c>
+      <c r="Q1" s="41" t="s">
+        <v>510</v>
+      </c>
+      <c r="R1" s="41" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>516</v>
+      </c>
       <c r="B2" s="11" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E2" s="11" t="s">
+        <v>475</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>474</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>476</v>
+      </c>
+      <c r="H2" s="11" t="s">
         <v>477</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>476</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>478</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>479</v>
       </c>
       <c r="I2" s="11" t="s">
         <v>101</v>
@@ -7386,7 +8466,7 @@
         <v>107</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>506</v>
+        <v>517</v>
       </c>
       <c r="L2" s="11" t="s">
         <v>124</v>
@@ -7395,126 +8475,112 @@
         <v>127</v>
       </c>
       <c r="N2" s="35" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="O2" s="35" t="s">
+        <v>485</v>
+      </c>
+      <c r="P2" s="35" t="s">
         <v>487</v>
       </c>
-      <c r="P2" s="35" t="s">
-        <v>489</v>
-      </c>
       <c r="Q2" s="35" t="s">
+        <v>490</v>
+      </c>
+      <c r="R2" s="39" t="s">
         <v>492</v>
       </c>
-      <c r="R2" s="35" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="3" spans="2:18" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B3" s="11" t="s">
+    </row>
+    <row r="3" spans="1:18" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <f t="shared" ref="A3:A26" si="0">ROW()-ROW(A$2)</f>
+        <v>1</v>
+      </c>
+      <c r="B3" s="11">
+        <v>2</v>
+      </c>
+      <c r="C3" s="11">
+        <v>4</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11" t="s">
         <v>472</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>472</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>472</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>473</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>473</v>
       </c>
-      <c r="G3" s="11" t="s">
-        <v>473</v>
+      <c r="G3" s="11">
+        <v>6.7</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>473</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>473</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>473</v>
+        <v>478</v>
+      </c>
+      <c r="I3" s="11">
+        <v>1</v>
+      </c>
+      <c r="J3" s="11">
+        <v>1</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>473</v>
+        <v>505</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="M3" s="11" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="N3" s="11" t="s">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="O3" s="11" t="s">
-        <v>473</v>
+        <v>486</v>
       </c>
       <c r="P3" s="11" t="s">
-        <v>473</v>
+        <v>488</v>
       </c>
       <c r="Q3" s="11" t="s">
-        <v>473</v>
-      </c>
-      <c r="R3" s="11" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="4" spans="2:18" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B4" s="11">
+        <v>491</v>
+      </c>
+      <c r="R3" s="40" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C4" s="11">
-        <v>4</v>
-      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
       <c r="D4" s="11"/>
-      <c r="E4" s="11" t="s">
-        <v>474</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>475</v>
-      </c>
-      <c r="G4" s="11">
-        <v>6.7</v>
-      </c>
-      <c r="H4" s="11" t="s">
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11" t="s">
         <v>480</v>
       </c>
-      <c r="I4" s="11">
-        <v>1</v>
-      </c>
-      <c r="J4" s="11">
-        <v>1</v>
-      </c>
-      <c r="K4" s="11" t="s">
-        <v>507</v>
-      </c>
-      <c r="L4" s="11" t="s">
-        <v>481</v>
-      </c>
-      <c r="M4" s="11" t="s">
-        <v>483</v>
-      </c>
+      <c r="M4" s="11"/>
       <c r="N4" s="11" t="s">
-        <v>485</v>
-      </c>
-      <c r="O4" s="11" t="s">
-        <v>488</v>
-      </c>
+        <v>484</v>
+      </c>
+      <c r="O4" s="11"/>
       <c r="P4" s="11" t="s">
-        <v>490</v>
-      </c>
-      <c r="Q4" s="11" t="s">
-        <v>493</v>
-      </c>
-      <c r="R4" s="11" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="5" spans="2:18" ht="14.25" x14ac:dyDescent="0.15">
+        <v>489</v>
+      </c>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="40" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
@@ -7525,23 +8591,21 @@
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
       <c r="K5" s="11"/>
-      <c r="L5" s="11" t="s">
-        <v>482</v>
-      </c>
+      <c r="L5" s="11"/>
       <c r="M5" s="11"/>
-      <c r="N5" s="11" t="s">
-        <v>486</v>
-      </c>
+      <c r="N5" s="11"/>
       <c r="O5" s="11"/>
-      <c r="P5" s="11" t="s">
-        <v>491</v>
-      </c>
+      <c r="P5" s="11"/>
       <c r="Q5" s="11"/>
-      <c r="R5" s="11" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="6" spans="2:18" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="R5" s="40" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
@@ -7558,11 +8622,15 @@
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
       <c r="Q6" s="11"/>
-      <c r="R6" s="11" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="7" spans="2:18" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="R6" s="40" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
@@ -7579,11 +8647,15 @@
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
       <c r="Q7" s="11"/>
-      <c r="R7" s="11" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="8" spans="2:18" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="R7" s="40" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
@@ -7600,11 +8672,15 @@
       <c r="O8" s="11"/>
       <c r="P8" s="11"/>
       <c r="Q8" s="11"/>
-      <c r="R8" s="11" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="9" spans="2:18" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="R8" s="40" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
@@ -7621,11 +8697,15 @@
       <c r="O9" s="11"/>
       <c r="P9" s="11"/>
       <c r="Q9" s="11"/>
-      <c r="R9" s="11" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="10" spans="2:18" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="R9" s="40" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -7642,11 +8722,15 @@
       <c r="O10" s="11"/>
       <c r="P10" s="11"/>
       <c r="Q10" s="11"/>
-      <c r="R10" s="11" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="11" spans="2:18" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="R10" s="40" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
@@ -7663,11 +8747,15 @@
       <c r="O11" s="11"/>
       <c r="P11" s="11"/>
       <c r="Q11" s="11"/>
-      <c r="R11" s="11" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="12" spans="2:18" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="R11" s="40" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
@@ -7684,11 +8772,15 @@
       <c r="O12" s="11"/>
       <c r="P12" s="11"/>
       <c r="Q12" s="11"/>
-      <c r="R12" s="11" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="13" spans="2:18" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="R12" s="40" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
@@ -7705,11 +8797,15 @@
       <c r="O13" s="11"/>
       <c r="P13" s="11"/>
       <c r="Q13" s="11"/>
-      <c r="R13" s="11" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="14" spans="2:18" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="R13" s="40" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
@@ -7726,11 +8822,13 @@
       <c r="O14" s="11"/>
       <c r="P14" s="11"/>
       <c r="Q14" s="11"/>
-      <c r="R14" s="11" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="15" spans="2:18" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="R14" s="40"/>
+    </row>
+    <row r="15" spans="1:18" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
@@ -7747,9 +8845,13 @@
       <c r="O15" s="11"/>
       <c r="P15" s="11"/>
       <c r="Q15" s="11"/>
-      <c r="R15" s="11"/>
-    </row>
-    <row r="16" spans="2:18" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="R15" s="40"/>
+    </row>
+    <row r="16" spans="1:18" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
@@ -7766,9 +8868,13 @@
       <c r="O16" s="11"/>
       <c r="P16" s="11"/>
       <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
-    </row>
-    <row r="17" spans="2:18" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="R16" s="40"/>
+    </row>
+    <row r="17" spans="1:18" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
@@ -7785,9 +8891,13 @@
       <c r="O17" s="11"/>
       <c r="P17" s="11"/>
       <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
-    </row>
-    <row r="18" spans="2:18" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="R17" s="40"/>
+    </row>
+    <row r="18" spans="1:18" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
@@ -7804,9 +8914,13 @@
       <c r="O18" s="11"/>
       <c r="P18" s="11"/>
       <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
-    </row>
-    <row r="19" spans="2:18" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="R18" s="40"/>
+    </row>
+    <row r="19" spans="1:18" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
@@ -7823,9 +8937,13 @@
       <c r="O19" s="11"/>
       <c r="P19" s="11"/>
       <c r="Q19" s="11"/>
-      <c r="R19" s="11"/>
-    </row>
-    <row r="20" spans="2:18" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="R19" s="40"/>
+    </row>
+    <row r="20" spans="1:18" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
@@ -7842,9 +8960,13 @@
       <c r="O20" s="11"/>
       <c r="P20" s="11"/>
       <c r="Q20" s="11"/>
-      <c r="R20" s="11"/>
-    </row>
-    <row r="21" spans="2:18" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="R20" s="40"/>
+    </row>
+    <row r="21" spans="1:18" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
@@ -7861,9 +8983,13 @@
       <c r="O21" s="11"/>
       <c r="P21" s="11"/>
       <c r="Q21" s="11"/>
-      <c r="R21" s="11"/>
-    </row>
-    <row r="22" spans="2:18" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="R21" s="40"/>
+    </row>
+    <row r="22" spans="1:18" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
@@ -7880,9 +9006,13 @@
       <c r="O22" s="11"/>
       <c r="P22" s="11"/>
       <c r="Q22" s="11"/>
-      <c r="R22" s="11"/>
-    </row>
-    <row r="23" spans="2:18" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="R22" s="40"/>
+    </row>
+    <row r="23" spans="1:18" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
@@ -7899,9 +9029,13 @@
       <c r="O23" s="11"/>
       <c r="P23" s="11"/>
       <c r="Q23" s="11"/>
-      <c r="R23" s="11"/>
-    </row>
-    <row r="24" spans="2:18" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="R23" s="40"/>
+    </row>
+    <row r="24" spans="1:18" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
@@ -7918,9 +9052,13 @@
       <c r="O24" s="11"/>
       <c r="P24" s="11"/>
       <c r="Q24" s="11"/>
-      <c r="R24" s="11"/>
-    </row>
-    <row r="25" spans="2:18" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="R24" s="40"/>
+    </row>
+    <row r="25" spans="1:18" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
@@ -7937,9 +9075,13 @@
       <c r="O25" s="11"/>
       <c r="P25" s="11"/>
       <c r="Q25" s="11"/>
-      <c r="R25" s="11"/>
-    </row>
-    <row r="26" spans="2:18" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="R25" s="40"/>
+    </row>
+    <row r="26" spans="1:18" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
@@ -7956,29 +9098,13 @@
       <c r="O26" s="11"/>
       <c r="P26" s="11"/>
       <c r="Q26" s="11"/>
-      <c r="R26" s="11"/>
-    </row>
-    <row r="27" spans="2:18" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="11"/>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="11"/>
-      <c r="R27" s="11"/>
+      <c r="R26" s="40"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="10"/>
+  <phoneticPr fontId="11"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/src/test/resources/check_sheet.xlsx
+++ b/src/test/resources/check_sheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15465" windowHeight="5190" tabRatio="755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15465" windowHeight="5190" tabRatio="755" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Target" sheetId="7" r:id="rId1"/>
@@ -19,8 +19,9 @@
     <sheet name="CheckSheet(VMHost)" sheetId="4" r:id="rId5"/>
     <sheet name="Rule" sheetId="5" r:id="rId6"/>
     <sheet name="Template(AP)" sheetId="8" r:id="rId7"/>
+    <sheet name="Template(Win)" sheetId="9" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="528">
   <si>
     <t>Type</t>
   </si>
@@ -1469,43 +1470,43 @@
   </si>
   <si>
     <t>x =~ /Linux/</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>ostrich</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>192.168.10.1</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>192.168.10.2</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>win2012</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>Windows</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>cent7</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>192.168.10.1</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>ostrich</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>Linux</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>#</t>
@@ -1527,98 +1528,98 @@
   </si>
   <si>
     <t>accont_id</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>Test</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>AP</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>2.6.43</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>CentOS</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>OS</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>Kernel</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>OSRelease</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>Arch</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>x86_64</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>eth0</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>eth1</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>192.168.0.254</t>
   </si>
   <si>
     <t>filesystem</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>/:26.5G</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>[swap]:3G</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>users</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>zabbix</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>service</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>kdump:On</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>iptables:Off</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>SELinux</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>Off</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>packages</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>sysstat</t>
@@ -1655,42 +1656,42 @@
   </si>
   <si>
     <t>memory</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>4GB</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>cpu</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>datastore</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>platform</t>
   </si>
   <si>
     <t>Windows</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>Linux</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>VM</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>Test</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>RuleAP</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <r>
@@ -1716,39 +1717,79 @@
     <rPh sb="10" eb="13">
       <t>イジヨウ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>NumCpu</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>#</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>memory2</t>
   </si>
   <si>
     <t>vCenter</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>Platform</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>64ビット</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>pyhis_mem</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>C:40G</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>D:100GB</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>VMTools:On</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>wuauserv:Off</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>Win</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>Windows Server 2012 R2 Standard</t>
+    <phoneticPr fontId="12"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1891,7 +1932,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1977,156 +2018,146 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2135,7 +2166,228 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="2"/>
   </cellStyles>
-  <dxfs count="40">
+  <dxfs count="53">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Meiryo UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Meiryo UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Meiryo UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Meiryo UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Meiryo UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Meiryo UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Meiryo UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Meiryo UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Meiryo UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Meiryo UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Meiryo UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Meiryo UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Meiryo UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2202,20 +2454,6 @@
         <name val="Meiryo UI"/>
         <scheme val="none"/>
       </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -2233,22 +2471,6 @@
         <name val="Meiryo UI"/>
         <scheme val="none"/>
       </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -2266,22 +2488,6 @@
         <name val="Meiryo UI"/>
         <scheme val="none"/>
       </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -2299,22 +2505,6 @@
         <name val="Meiryo UI"/>
         <scheme val="none"/>
       </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -2332,22 +2522,6 @@
         <name val="Meiryo UI"/>
         <scheme val="none"/>
       </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -2365,22 +2539,6 @@
         <name val="Meiryo UI"/>
         <scheme val="none"/>
       </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -2398,22 +2556,6 @@
         <name val="Meiryo UI"/>
         <scheme val="none"/>
       </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -2431,22 +2573,6 @@
         <name val="Meiryo UI"/>
         <scheme val="none"/>
       </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -2464,22 +2590,6 @@
         <name val="Meiryo UI"/>
         <scheme val="none"/>
       </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -2497,22 +2607,6 @@
         <name val="Meiryo UI"/>
         <scheme val="none"/>
       </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -2530,22 +2624,6 @@
         <name val="Meiryo UI"/>
         <scheme val="none"/>
       </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -2563,22 +2641,6 @@
         <name val="Meiryo UI"/>
         <scheme val="none"/>
       </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -2596,22 +2658,6 @@
         <name val="Meiryo UI"/>
         <scheme val="none"/>
       </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -2629,22 +2675,6 @@
         <name val="Meiryo UI"/>
         <scheme val="none"/>
       </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -2662,22 +2692,6 @@
         <name val="Meiryo UI"/>
         <scheme val="none"/>
       </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -2695,22 +2709,6 @@
         <name val="Meiryo UI"/>
         <scheme val="none"/>
       </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -2728,28 +2726,38 @@
         <name val="Meiryo UI"/>
         <scheme val="none"/>
       </font>
-      <border diagonalUp="0" diagonalDown="0">
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Meiryo UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color auto="1"/>
         </left>
         <right style="thin">
           <color auto="1"/>
         </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <right style="thin">
-          <color auto="1"/>
-        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -2769,12 +2777,6 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2832,6 +2834,12 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -3142,55 +3150,79 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="テーブル2" displayName="テーブル2" ref="A2:Q22" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38" tableBorderDxfId="37" dataCellStyle="標準 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="テーブル2" displayName="テーブル2" ref="A2:Q22" totalsRowShown="0" headerRowDxfId="52" dataDxfId="51" tableBorderDxfId="50" dataCellStyle="標準 2">
   <autoFilter ref="A2:Q22"/>
   <tableColumns count="17">
-    <tableColumn id="1" name="#" dataDxfId="36" dataCellStyle="標準 2"/>
-    <tableColumn id="2" name="domain" dataDxfId="35" dataCellStyle="標準 2"/>
-    <tableColumn id="3" name="server_name" dataDxfId="34" dataCellStyle="標準 2"/>
-    <tableColumn id="4" name="ip" dataDxfId="33" dataCellStyle="標準 2"/>
-    <tableColumn id="13" name="accont_id" dataDxfId="32" dataCellStyle="標準 2"/>
-    <tableColumn id="5" name="template_id" dataDxfId="31" dataCellStyle="標準 2"/>
-    <tableColumn id="6" name="remote_alias" dataDxfId="30" dataCellStyle="標準 2"/>
-    <tableColumn id="7" name="compare_server" dataDxfId="29" dataCellStyle="標準 2"/>
-    <tableColumn id="8" name="n_cpu" dataDxfId="28" dataCellStyle="標準 2"/>
-    <tableColumn id="9" name="memory_gb" dataDxfId="27" dataCellStyle="標準 2"/>
-    <tableColumn id="10" name="esxi_host" dataDxfId="26" dataCellStyle="標準 2"/>
-    <tableColumn id="11" name="hdd_type" dataDxfId="25" dataCellStyle="標準 2"/>
-    <tableColumn id="12" name="platform" dataDxfId="24" dataCellStyle="標準 2"/>
-    <tableColumn id="19" name="NumCpu" dataDxfId="20" dataCellStyle="標準 2"/>
-    <tableColumn id="14" name="virtualization" dataDxfId="23" dataCellStyle="標準 2"/>
-    <tableColumn id="15" name="remote_account_id" dataDxfId="22" dataCellStyle="標準 2"/>
-    <tableColumn id="17" name="verify_id" dataDxfId="21" dataCellStyle="標準 2"/>
+    <tableColumn id="1" name="#" dataDxfId="49" dataCellStyle="標準 2"/>
+    <tableColumn id="2" name="domain" dataDxfId="48" dataCellStyle="標準 2"/>
+    <tableColumn id="3" name="server_name" dataDxfId="47" dataCellStyle="標準 2"/>
+    <tableColumn id="4" name="ip" dataDxfId="46" dataCellStyle="標準 2"/>
+    <tableColumn id="13" name="accont_id" dataDxfId="45" dataCellStyle="標準 2"/>
+    <tableColumn id="5" name="template_id" dataDxfId="44" dataCellStyle="標準 2"/>
+    <tableColumn id="6" name="remote_alias" dataDxfId="43" dataCellStyle="標準 2"/>
+    <tableColumn id="7" name="compare_server" dataDxfId="42" dataCellStyle="標準 2"/>
+    <tableColumn id="8" name="n_cpu" dataDxfId="41" dataCellStyle="標準 2"/>
+    <tableColumn id="9" name="memory_gb" dataDxfId="40" dataCellStyle="標準 2"/>
+    <tableColumn id="10" name="esxi_host" dataDxfId="39" dataCellStyle="標準 2"/>
+    <tableColumn id="11" name="hdd_type" dataDxfId="38" dataCellStyle="標準 2"/>
+    <tableColumn id="12" name="platform" dataDxfId="37" dataCellStyle="標準 2"/>
+    <tableColumn id="19" name="NumCpu" dataDxfId="36" dataCellStyle="標準 2"/>
+    <tableColumn id="14" name="virtualization" dataDxfId="35" dataCellStyle="標準 2"/>
+    <tableColumn id="15" name="remote_account_id" dataDxfId="34" dataCellStyle="標準 2"/>
+    <tableColumn id="17" name="verify_id" dataDxfId="33" dataCellStyle="標準 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="A2:R26" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" tableBorderDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="A2:R26" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
   <autoFilter ref="A2:R26"/>
   <tableColumns count="18">
     <tableColumn id="1" name="#">
       <calculatedColumnFormula>ROW()-ROW(A$2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="cpu" dataDxfId="18"/>
-    <tableColumn id="3" name="memory" dataDxfId="17"/>
-    <tableColumn id="4" name="datastore" dataDxfId="16"/>
-    <tableColumn id="5" name="Kernel" dataDxfId="15"/>
-    <tableColumn id="6" name="OS" dataDxfId="14"/>
-    <tableColumn id="7" name="OSRelease" dataDxfId="13"/>
-    <tableColumn id="8" name="Arch" dataDxfId="12"/>
-    <tableColumn id="9" name="cpu_total" dataDxfId="11"/>
-    <tableColumn id="10" name="cpu_real" dataDxfId="10"/>
-    <tableColumn id="11" name="memory2" dataDxfId="9"/>
-    <tableColumn id="12" name="net_onboot" dataDxfId="8"/>
-    <tableColumn id="13" name="net_route" dataDxfId="7"/>
-    <tableColumn id="14" name="filesystem" dataDxfId="6"/>
-    <tableColumn id="15" name="users" dataDxfId="5"/>
-    <tableColumn id="16" name="service" dataDxfId="4"/>
-    <tableColumn id="17" name="SELinux" dataDxfId="3"/>
-    <tableColumn id="18" name="packages" dataDxfId="2"/>
+    <tableColumn id="2" name="cpu" dataDxfId="30"/>
+    <tableColumn id="3" name="memory" dataDxfId="29"/>
+    <tableColumn id="4" name="datastore" dataDxfId="28"/>
+    <tableColumn id="5" name="Kernel" dataDxfId="27"/>
+    <tableColumn id="6" name="OS" dataDxfId="26"/>
+    <tableColumn id="7" name="OSRelease" dataDxfId="25"/>
+    <tableColumn id="8" name="Arch" dataDxfId="24"/>
+    <tableColumn id="9" name="cpu_total" dataDxfId="23"/>
+    <tableColumn id="10" name="cpu_real" dataDxfId="22"/>
+    <tableColumn id="11" name="memory2" dataDxfId="21"/>
+    <tableColumn id="12" name="net_onboot" dataDxfId="20"/>
+    <tableColumn id="13" name="net_route" dataDxfId="19"/>
+    <tableColumn id="14" name="filesystem" dataDxfId="18"/>
+    <tableColumn id="15" name="users" dataDxfId="17"/>
+    <tableColumn id="16" name="service" dataDxfId="16"/>
+    <tableColumn id="17" name="SELinux" dataDxfId="15"/>
+    <tableColumn id="18" name="packages" dataDxfId="14"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="テーブル14" displayName="テーブル14" ref="A2:M28" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="A2:M28"/>
+  <tableColumns count="13">
+    <tableColumn id="1" name="#">
+      <calculatedColumnFormula>ROW()-ROW(A$2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" name="cpu" dataDxfId="11"/>
+    <tableColumn id="3" name="memory" dataDxfId="10"/>
+    <tableColumn id="4" name="datastore" dataDxfId="9"/>
+    <tableColumn id="5" name="OS" dataDxfId="8"/>
+    <tableColumn id="8" name="Arch" dataDxfId="7"/>
+    <tableColumn id="9" name="cpu_total" dataDxfId="6"/>
+    <tableColumn id="11" name="pyhis_mem" dataDxfId="5"/>
+    <tableColumn id="12" name="net_onboot" dataDxfId="4"/>
+    <tableColumn id="13" name="net_route" dataDxfId="3"/>
+    <tableColumn id="14" name="filesystem" dataDxfId="2"/>
+    <tableColumn id="15" name="users" dataDxfId="1"/>
+    <tableColumn id="16" name="service" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3461,8 +3493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3487,10 +3519,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="L1" s="36" t="s">
+      <c r="L1" s="35" t="s">
         <v>514</v>
       </c>
-      <c r="M1" s="36"/>
+      <c r="M1" s="35"/>
     </row>
     <row r="2" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="32" t="s">
@@ -3538,10 +3570,10 @@
       <c r="O2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="38" t="s">
+      <c r="P2" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="Q2" s="38" t="s">
+      <c r="Q2" s="37" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3576,19 +3608,19 @@
       </c>
       <c r="K3" s="31"/>
       <c r="L3" s="31"/>
-      <c r="M3" s="37" t="s">
+      <c r="M3" s="36" t="s">
         <v>510</v>
       </c>
-      <c r="N3" s="37">
+      <c r="N3" s="36">
         <v>4</v>
       </c>
-      <c r="O3" s="37" t="s">
+      <c r="O3" s="36" t="s">
         <v>511</v>
       </c>
-      <c r="P3" s="37" t="s">
+      <c r="P3" s="36" t="s">
         <v>512</v>
       </c>
-      <c r="Q3" s="37" t="s">
+      <c r="Q3" s="36" t="s">
         <v>513</v>
       </c>
     </row>
@@ -3608,8 +3640,8 @@
       <c r="E4" s="34" t="s">
         <v>470</v>
       </c>
-      <c r="F4" s="34" t="s">
-        <v>471</v>
+      <c r="F4" s="39" t="s">
+        <v>526</v>
       </c>
       <c r="G4" s="29"/>
       <c r="H4" s="29"/>
@@ -3617,19 +3649,19 @@
       <c r="J4" s="29"/>
       <c r="K4" s="29"/>
       <c r="L4" s="29"/>
-      <c r="M4" s="37" t="s">
+      <c r="M4" s="36" t="s">
         <v>509</v>
       </c>
-      <c r="N4" s="37">
+      <c r="N4" s="36">
         <v>4</v>
       </c>
-      <c r="O4" s="37" t="s">
+      <c r="O4" s="36" t="s">
         <v>511</v>
       </c>
-      <c r="P4" s="37" t="s">
+      <c r="P4" s="36" t="s">
         <v>512</v>
       </c>
-      <c r="Q4" s="37" t="s">
+      <c r="Q4" s="36" t="s">
         <v>513</v>
       </c>
     </row>
@@ -3648,11 +3680,11 @@
       <c r="J5" s="30"/>
       <c r="K5" s="30"/>
       <c r="L5" s="30"/>
-      <c r="M5" s="37"/>
-      <c r="N5" s="37"/>
-      <c r="O5" s="37"/>
-      <c r="P5" s="37"/>
-      <c r="Q5" s="37"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A6" s="29">
@@ -3669,11 +3701,11 @@
       <c r="J6" s="29"/>
       <c r="K6" s="29"/>
       <c r="L6" s="29"/>
-      <c r="M6" s="37"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="37"/>
-      <c r="P6" s="37"/>
-      <c r="Q6" s="37"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A7" s="30">
@@ -3690,11 +3722,11 @@
       <c r="J7" s="30"/>
       <c r="K7" s="30"/>
       <c r="L7" s="30"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="37"/>
-      <c r="P7" s="37"/>
-      <c r="Q7" s="37"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A8" s="29">
@@ -3711,11 +3743,11 @@
       <c r="J8" s="29"/>
       <c r="K8" s="29"/>
       <c r="L8" s="29"/>
-      <c r="M8" s="37"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="37"/>
-      <c r="P8" s="37"/>
-      <c r="Q8" s="37"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="36"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A9" s="30">
@@ -3732,11 +3764,11 @@
       <c r="J9" s="30"/>
       <c r="K9" s="30"/>
       <c r="L9" s="30"/>
-      <c r="M9" s="37"/>
-      <c r="N9" s="37"/>
-      <c r="O9" s="37"/>
-      <c r="P9" s="37"/>
-      <c r="Q9" s="37"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A10" s="29">
@@ -3753,11 +3785,11 @@
       <c r="J10" s="29"/>
       <c r="K10" s="29"/>
       <c r="L10" s="29"/>
-      <c r="M10" s="37"/>
-      <c r="N10" s="37"/>
-      <c r="O10" s="37"/>
-      <c r="P10" s="37"/>
-      <c r="Q10" s="37"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="36"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A11" s="30">
@@ -3774,11 +3806,11 @@
       <c r="J11" s="30"/>
       <c r="K11" s="30"/>
       <c r="L11" s="30"/>
-      <c r="M11" s="37"/>
-      <c r="N11" s="37"/>
-      <c r="O11" s="37"/>
-      <c r="P11" s="37"/>
-      <c r="Q11" s="37"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="36"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A12" s="29">
@@ -3795,11 +3827,11 @@
       <c r="J12" s="29"/>
       <c r="K12" s="29"/>
       <c r="L12" s="29"/>
-      <c r="M12" s="37"/>
-      <c r="N12" s="37"/>
-      <c r="O12" s="37"/>
-      <c r="P12" s="37"/>
-      <c r="Q12" s="37"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="36"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A13" s="30">
@@ -3816,11 +3848,11 @@
       <c r="J13" s="30"/>
       <c r="K13" s="30"/>
       <c r="L13" s="30"/>
-      <c r="M13" s="37"/>
-      <c r="N13" s="37"/>
-      <c r="O13" s="37"/>
-      <c r="P13" s="37"/>
-      <c r="Q13" s="37"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="36"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A14" s="29">
@@ -3837,11 +3869,11 @@
       <c r="J14" s="29"/>
       <c r="K14" s="29"/>
       <c r="L14" s="29"/>
-      <c r="M14" s="37"/>
-      <c r="N14" s="37"/>
-      <c r="O14" s="37"/>
-      <c r="P14" s="37"/>
-      <c r="Q14" s="37"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="36"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A15" s="30">
@@ -3858,11 +3890,11 @@
       <c r="J15" s="30"/>
       <c r="K15" s="30"/>
       <c r="L15" s="30"/>
-      <c r="M15" s="37"/>
-      <c r="N15" s="37"/>
-      <c r="O15" s="37"/>
-      <c r="P15" s="37"/>
-      <c r="Q15" s="37"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="36"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A16" s="29">
@@ -3879,11 +3911,11 @@
       <c r="J16" s="29"/>
       <c r="K16" s="29"/>
       <c r="L16" s="29"/>
-      <c r="M16" s="37"/>
-      <c r="N16" s="37"/>
-      <c r="O16" s="37"/>
-      <c r="P16" s="37"/>
-      <c r="Q16" s="37"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="36"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A17" s="30">
@@ -3900,11 +3932,11 @@
       <c r="J17" s="30"/>
       <c r="K17" s="30"/>
       <c r="L17" s="30"/>
-      <c r="M17" s="37"/>
-      <c r="N17" s="37"/>
-      <c r="O17" s="37"/>
-      <c r="P17" s="37"/>
-      <c r="Q17" s="37"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="36"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A18" s="29">
@@ -3921,11 +3953,11 @@
       <c r="J18" s="29"/>
       <c r="K18" s="29"/>
       <c r="L18" s="29"/>
-      <c r="M18" s="37"/>
-      <c r="N18" s="37"/>
-      <c r="O18" s="37"/>
-      <c r="P18" s="37"/>
-      <c r="Q18" s="37"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="36"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A19" s="30">
@@ -3942,11 +3974,11 @@
       <c r="J19" s="30"/>
       <c r="K19" s="30"/>
       <c r="L19" s="30"/>
-      <c r="M19" s="37"/>
-      <c r="N19" s="37"/>
-      <c r="O19" s="37"/>
-      <c r="P19" s="37"/>
-      <c r="Q19" s="37"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="36"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A20" s="29">
@@ -3963,11 +3995,11 @@
       <c r="J20" s="29"/>
       <c r="K20" s="29"/>
       <c r="L20" s="29"/>
-      <c r="M20" s="37"/>
-      <c r="N20" s="37"/>
-      <c r="O20" s="37"/>
-      <c r="P20" s="37"/>
-      <c r="Q20" s="37"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="36"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A21" s="30">
@@ -3984,11 +4016,11 @@
       <c r="J21" s="30"/>
       <c r="K21" s="30"/>
       <c r="L21" s="30"/>
-      <c r="M21" s="37"/>
-      <c r="N21" s="37"/>
-      <c r="O21" s="37"/>
-      <c r="P21" s="37"/>
-      <c r="Q21" s="37"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="36"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A22" s="29">
@@ -4005,14 +4037,14 @@
       <c r="J22" s="29"/>
       <c r="K22" s="29"/>
       <c r="L22" s="29"/>
-      <c r="M22" s="37"/>
-      <c r="N22" s="37"/>
-      <c r="O22" s="37"/>
-      <c r="P22" s="37"/>
-      <c r="Q22" s="37"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="36"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="11"/>
+  <phoneticPr fontId="12"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
@@ -4554,7 +4586,7 @@
       <c r="M20" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="11"/>
+  <phoneticPr fontId="12"/>
   <dataValidations count="3">
     <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="D5:M5">
       <formula1>"選択してください,Linux,Windows,VMHost"</formula1>
@@ -6049,7 +6081,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11"/>
+  <phoneticPr fontId="12"/>
   <pageMargins left="0.69930555555555496" right="0.69930555555555496" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -7110,7 +7142,7 @@
       <c r="F61" s="14"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="11"/>
+  <phoneticPr fontId="12"/>
   <pageMargins left="0.69930555555555496" right="0.69930555555555496" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -7743,7 +7775,7 @@
       <c r="F51" s="23"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="11"/>
+  <phoneticPr fontId="12"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
@@ -8343,7 +8375,7 @@
       <c r="N27" s="25"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="11"/>
+  <phoneticPr fontId="12"/>
   <pageMargins left="0.69930555555555496" right="0.69930555555555496" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -8379,729 +8411,1341 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="38" t="s">
         <v>519</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="38" t="s">
         <v>518</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="38" t="s">
         <v>518</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="38" t="s">
         <v>518</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="38" t="s">
         <v>510</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="38" t="s">
         <v>510</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="G1" s="38" t="s">
         <v>510</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="H1" s="38" t="s">
         <v>510</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="I1" s="38" t="s">
         <v>510</v>
       </c>
-      <c r="J1" s="41" t="s">
+      <c r="J1" s="38" t="s">
         <v>510</v>
       </c>
-      <c r="K1" s="41" t="s">
+      <c r="K1" s="38" t="s">
         <v>510</v>
       </c>
-      <c r="L1" s="41" t="s">
+      <c r="L1" s="38" t="s">
         <v>510</v>
       </c>
-      <c r="M1" s="41" t="s">
+      <c r="M1" s="38" t="s">
         <v>510</v>
       </c>
-      <c r="N1" s="41" t="s">
+      <c r="N1" s="38" t="s">
         <v>510</v>
       </c>
-      <c r="O1" s="41" t="s">
+      <c r="O1" s="38" t="s">
         <v>510</v>
       </c>
-      <c r="P1" s="41" t="s">
+      <c r="P1" s="38" t="s">
         <v>510</v>
       </c>
-      <c r="Q1" s="41" t="s">
+      <c r="Q1" s="38" t="s">
         <v>510</v>
       </c>
-      <c r="R1" s="41" t="s">
+      <c r="R1" s="38" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+      <c r="A2" s="40" t="s">
         <v>516</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="41" t="s">
         <v>506</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="41" t="s">
         <v>504</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="41" t="s">
         <v>507</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="41" t="s">
         <v>475</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="41" t="s">
         <v>474</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="41" t="s">
         <v>476</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="41" t="s">
         <v>477</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="41" t="s">
         <v>517</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="M2" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="N2" s="35" t="s">
+      <c r="N2" s="42" t="s">
         <v>482</v>
       </c>
-      <c r="O2" s="35" t="s">
+      <c r="O2" s="42" t="s">
         <v>485</v>
       </c>
-      <c r="P2" s="35" t="s">
+      <c r="P2" s="42" t="s">
         <v>487</v>
       </c>
-      <c r="Q2" s="35" t="s">
+      <c r="Q2" s="42" t="s">
         <v>490</v>
       </c>
-      <c r="R2" s="39" t="s">
+      <c r="R2" s="42" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A3">
+      <c r="A3" s="40">
         <f t="shared" ref="A3:A26" si="0">ROW()-ROW(A$2)</f>
         <v>1</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="41">
         <v>2</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="41">
         <v>4</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11" t="s">
+      <c r="D3" s="41"/>
+      <c r="E3" s="41" t="s">
         <v>472</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="41" t="s">
         <v>473</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="41">
         <v>6.7</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="41" t="s">
         <v>478</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="41">
         <v>1</v>
       </c>
-      <c r="J3" s="11">
+      <c r="J3" s="41">
         <v>1</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="41" t="s">
         <v>505</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="41" t="s">
         <v>479</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="M3" s="41" t="s">
         <v>481</v>
       </c>
-      <c r="N3" s="11" t="s">
+      <c r="N3" s="41" t="s">
         <v>483</v>
       </c>
-      <c r="O3" s="11" t="s">
+      <c r="O3" s="41" t="s">
         <v>486</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="P3" s="41" t="s">
         <v>488</v>
       </c>
-      <c r="Q3" s="11" t="s">
+      <c r="Q3" s="41" t="s">
         <v>491</v>
       </c>
-      <c r="R3" s="40" t="s">
+      <c r="R3" s="41" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A4">
+      <c r="A4" s="40">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11" t="s">
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41" t="s">
         <v>480</v>
       </c>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11" t="s">
+      <c r="M4" s="41"/>
+      <c r="N4" s="41" t="s">
         <v>484</v>
       </c>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11" t="s">
+      <c r="O4" s="41"/>
+      <c r="P4" s="41" t="s">
         <v>489</v>
       </c>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="40" t="s">
+      <c r="Q4" s="41"/>
+      <c r="R4" s="41" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A5">
+      <c r="A5" s="40">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="40" t="s">
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="41"/>
+      <c r="Q5" s="41"/>
+      <c r="R5" s="41" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A6">
+      <c r="A6" s="40">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="40" t="s">
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="41"/>
+      <c r="P6" s="41"/>
+      <c r="Q6" s="41"/>
+      <c r="R6" s="41" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A7">
+      <c r="A7" s="40">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="40" t="s">
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="41"/>
+      <c r="P7" s="41"/>
+      <c r="Q7" s="41"/>
+      <c r="R7" s="41" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A8">
+      <c r="A8" s="40">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="40" t="s">
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="41"/>
+      <c r="N8" s="41"/>
+      <c r="O8" s="41"/>
+      <c r="P8" s="41"/>
+      <c r="Q8" s="41"/>
+      <c r="R8" s="41" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A9">
+      <c r="A9" s="40">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="40" t="s">
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="41"/>
+      <c r="N9" s="41"/>
+      <c r="O9" s="41"/>
+      <c r="P9" s="41"/>
+      <c r="Q9" s="41"/>
+      <c r="R9" s="41" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A10">
+      <c r="A10" s="40">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="40" t="s">
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="41"/>
+      <c r="N10" s="41"/>
+      <c r="O10" s="41"/>
+      <c r="P10" s="41"/>
+      <c r="Q10" s="41"/>
+      <c r="R10" s="41" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A11">
+      <c r="A11" s="40">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="40" t="s">
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="41"/>
+      <c r="N11" s="41"/>
+      <c r="O11" s="41"/>
+      <c r="P11" s="41"/>
+      <c r="Q11" s="41"/>
+      <c r="R11" s="41" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A12">
+      <c r="A12" s="40">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="40" t="s">
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="41"/>
+      <c r="N12" s="41"/>
+      <c r="O12" s="41"/>
+      <c r="P12" s="41"/>
+      <c r="Q12" s="41"/>
+      <c r="R12" s="41" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A13">
+      <c r="A13" s="40">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="40" t="s">
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="41"/>
+      <c r="N13" s="41"/>
+      <c r="O13" s="41"/>
+      <c r="P13" s="41"/>
+      <c r="Q13" s="41"/>
+      <c r="R13" s="41" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A14">
+      <c r="A14" s="40">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="40"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="41"/>
+      <c r="O14" s="41"/>
+      <c r="P14" s="41"/>
+      <c r="Q14" s="41"/>
+      <c r="R14" s="41"/>
     </row>
     <row r="15" spans="1:18" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A15">
+      <c r="A15" s="40">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="40"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="41"/>
+      <c r="O15" s="41"/>
+      <c r="P15" s="41"/>
+      <c r="Q15" s="41"/>
+      <c r="R15" s="41"/>
     </row>
     <row r="16" spans="1:18" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A16">
+      <c r="A16" s="40">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="40"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="41"/>
+      <c r="N16" s="41"/>
+      <c r="O16" s="41"/>
+      <c r="P16" s="41"/>
+      <c r="Q16" s="41"/>
+      <c r="R16" s="41"/>
     </row>
     <row r="17" spans="1:18" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A17">
+      <c r="A17" s="40">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="40"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="41"/>
+      <c r="N17" s="41"/>
+      <c r="O17" s="41"/>
+      <c r="P17" s="41"/>
+      <c r="Q17" s="41"/>
+      <c r="R17" s="41"/>
     </row>
     <row r="18" spans="1:18" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A18">
+      <c r="A18" s="40">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="40"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="41"/>
+      <c r="O18" s="41"/>
+      <c r="P18" s="41"/>
+      <c r="Q18" s="41"/>
+      <c r="R18" s="41"/>
     </row>
     <row r="19" spans="1:18" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A19">
+      <c r="A19" s="40">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="40"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="41"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="41"/>
+      <c r="O19" s="41"/>
+      <c r="P19" s="41"/>
+      <c r="Q19" s="41"/>
+      <c r="R19" s="41"/>
     </row>
     <row r="20" spans="1:18" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A20">
+      <c r="A20" s="40">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="40"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="41"/>
+      <c r="M20" s="41"/>
+      <c r="N20" s="41"/>
+      <c r="O20" s="41"/>
+      <c r="P20" s="41"/>
+      <c r="Q20" s="41"/>
+      <c r="R20" s="41"/>
     </row>
     <row r="21" spans="1:18" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A21">
+      <c r="A21" s="40">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="40"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="41"/>
+      <c r="M21" s="41"/>
+      <c r="N21" s="41"/>
+      <c r="O21" s="41"/>
+      <c r="P21" s="41"/>
+      <c r="Q21" s="41"/>
+      <c r="R21" s="41"/>
     </row>
     <row r="22" spans="1:18" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A22">
+      <c r="A22" s="40">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="40"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="41"/>
+      <c r="O22" s="41"/>
+      <c r="P22" s="41"/>
+      <c r="Q22" s="41"/>
+      <c r="R22" s="41"/>
     </row>
     <row r="23" spans="1:18" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A23">
+      <c r="A23" s="40">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="11"/>
-      <c r="R23" s="40"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="41"/>
+      <c r="M23" s="41"/>
+      <c r="N23" s="41"/>
+      <c r="O23" s="41"/>
+      <c r="P23" s="41"/>
+      <c r="Q23" s="41"/>
+      <c r="R23" s="41"/>
     </row>
     <row r="24" spans="1:18" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A24">
+      <c r="A24" s="40">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="11"/>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="11"/>
-      <c r="R24" s="40"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="41"/>
+      <c r="M24" s="41"/>
+      <c r="N24" s="41"/>
+      <c r="O24" s="41"/>
+      <c r="P24" s="41"/>
+      <c r="Q24" s="41"/>
+      <c r="R24" s="41"/>
     </row>
     <row r="25" spans="1:18" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A25">
+      <c r="A25" s="40">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="11"/>
-      <c r="R25" s="40"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="41"/>
+      <c r="O25" s="41"/>
+      <c r="P25" s="41"/>
+      <c r="Q25" s="41"/>
+      <c r="R25" s="41"/>
     </row>
     <row r="26" spans="1:18" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A26">
+      <c r="A26" s="40">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="11"/>
-      <c r="R26" s="40"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="41"/>
+      <c r="M26" s="41"/>
+      <c r="N26" s="41"/>
+      <c r="O26" s="41"/>
+      <c r="P26" s="41"/>
+      <c r="Q26" s="41"/>
+      <c r="R26" s="41"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="11"/>
+  <phoneticPr fontId="12"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A1" s="38" t="s">
+        <v>519</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>518</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>518</v>
+      </c>
+      <c r="D1" s="38" t="s">
+        <v>518</v>
+      </c>
+      <c r="E1" s="38" t="s">
+        <v>509</v>
+      </c>
+      <c r="F1" s="38" t="s">
+        <v>509</v>
+      </c>
+      <c r="G1" s="38" t="s">
+        <v>509</v>
+      </c>
+      <c r="H1" s="38" t="s">
+        <v>509</v>
+      </c>
+      <c r="I1" s="38" t="s">
+        <v>509</v>
+      </c>
+      <c r="J1" s="38" t="s">
+        <v>509</v>
+      </c>
+      <c r="K1" s="38" t="s">
+        <v>509</v>
+      </c>
+      <c r="L1" s="38" t="s">
+        <v>509</v>
+      </c>
+      <c r="M1" s="38" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A2" s="40" t="s">
+        <v>516</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>506</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>504</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>507</v>
+      </c>
+      <c r="E2" s="41" t="s">
+        <v>474</v>
+      </c>
+      <c r="F2" s="41" t="s">
+        <v>477</v>
+      </c>
+      <c r="G2" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="H2" s="41" t="s">
+        <v>521</v>
+      </c>
+      <c r="I2" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="J2" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="K2" s="42" t="s">
+        <v>482</v>
+      </c>
+      <c r="L2" s="42" t="s">
+        <v>485</v>
+      </c>
+      <c r="M2" s="42" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A3" s="40">
+        <f t="shared" ref="A3:A28" si="0">ROW()-ROW(A$2)</f>
+        <v>1</v>
+      </c>
+      <c r="B3" s="41">
+        <v>2</v>
+      </c>
+      <c r="C3" s="41">
+        <v>2</v>
+      </c>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41" t="s">
+        <v>527</v>
+      </c>
+      <c r="F3" s="41" t="s">
+        <v>520</v>
+      </c>
+      <c r="G3" s="41">
+        <v>2</v>
+      </c>
+      <c r="H3" s="41">
+        <v>2096692</v>
+      </c>
+      <c r="I3" s="41" t="s">
+        <v>479</v>
+      </c>
+      <c r="J3" s="41" t="s">
+        <v>481</v>
+      </c>
+      <c r="K3" s="41" t="s">
+        <v>522</v>
+      </c>
+      <c r="L3" s="41" t="s">
+        <v>486</v>
+      </c>
+      <c r="M3" s="41" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A4" s="40">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41" t="s">
+        <v>480</v>
+      </c>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41" t="s">
+        <v>523</v>
+      </c>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A5" s="40">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+    </row>
+    <row r="6" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A6" s="40">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
+    </row>
+    <row r="7" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A7" s="40">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+    </row>
+    <row r="8" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A8" s="40">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="41"/>
+    </row>
+    <row r="9" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A9" s="40">
+        <f>ROW()-ROW(A$2)</f>
+        <v>7</v>
+      </c>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="41"/>
+    </row>
+    <row r="10" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A10" s="40">
+        <f>ROW()-ROW(A$2)</f>
+        <v>8</v>
+      </c>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="41"/>
+    </row>
+    <row r="11" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A11" s="40">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="41"/>
+    </row>
+    <row r="12" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A12" s="40">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="41"/>
+    </row>
+    <row r="13" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A13" s="40">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="41"/>
+    </row>
+    <row r="14" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A14" s="40">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="41"/>
+    </row>
+    <row r="15" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A15" s="40">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="41"/>
+    </row>
+    <row r="16" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A16" s="40">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="41"/>
+    </row>
+    <row r="17" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A17" s="40">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="41"/>
+    </row>
+    <row r="18" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A18" s="40">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="41"/>
+    </row>
+    <row r="19" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A19" s="40">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="41"/>
+      <c r="M19" s="41"/>
+    </row>
+    <row r="20" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A20" s="40">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="41"/>
+      <c r="M20" s="41"/>
+    </row>
+    <row r="21" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A21" s="40">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B21" s="41"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="41"/>
+      <c r="M21" s="41"/>
+    </row>
+    <row r="22" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A22" s="40">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="41"/>
+    </row>
+    <row r="23" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A23" s="40">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="41"/>
+      <c r="M23" s="41"/>
+    </row>
+    <row r="24" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A24" s="40">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="41"/>
+      <c r="M24" s="41"/>
+    </row>
+    <row r="25" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A25" s="40">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="41"/>
+    </row>
+    <row r="26" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A26" s="40">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B26" s="41"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="41"/>
+      <c r="M26" s="41"/>
+    </row>
+    <row r="27" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A27" s="40">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B27" s="41"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="41"/>
+      <c r="M27" s="41"/>
+    </row>
+    <row r="28" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A28" s="40">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B28" s="41"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="41"/>
+      <c r="K28" s="41"/>
+      <c r="L28" s="41"/>
+      <c r="M28" s="41"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="12"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/src/test/resources/check_sheet.xlsx
+++ b/src/test/resources/check_sheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15465" windowHeight="5190" tabRatio="755" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15465" windowHeight="5190" tabRatio="755" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Target" sheetId="7" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="530">
   <si>
     <t>Type</t>
   </si>
@@ -1470,43 +1470,43 @@
   </si>
   <si>
     <t>x =~ /Linux/</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>ostrich</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>192.168.10.1</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>192.168.10.2</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>win2012</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>Windows</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>cent7</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>192.168.10.1</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>ostrich</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>Linux</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>#</t>
@@ -1528,98 +1528,78 @@
   </si>
   <si>
     <t>accont_id</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>Test</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>AP</t>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t>2.6.43</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>CentOS</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>OS</t>
-    <phoneticPr fontId="12"/>
-  </si>
-  <si>
-    <t>Kernel</t>
-    <phoneticPr fontId="12"/>
-  </si>
-  <si>
-    <t>OSRelease</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>Arch</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>x86_64</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>eth0</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>eth1</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>192.168.0.254</t>
   </si>
   <si>
     <t>filesystem</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>/:26.5G</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>[swap]:3G</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>users</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>zabbix</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>service</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>kdump:On</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>iptables:Off</t>
-    <phoneticPr fontId="12"/>
-  </si>
-  <si>
-    <t>SELinux</t>
-    <phoneticPr fontId="12"/>
-  </si>
-  <si>
-    <t>Off</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>packages</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>sysstat</t>
@@ -1656,42 +1636,42 @@
   </si>
   <si>
     <t>memory</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>4GB</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>cpu</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>datastore</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>platform</t>
   </si>
   <si>
     <t>Windows</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>Linux</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>VM</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>Test</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>RuleAP</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <r>
@@ -1717,71 +1697,107 @@
     <rPh sb="10" eb="13">
       <t>イジヨウ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>NumCpu</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>#</t>
-    <phoneticPr fontId="12"/>
-  </si>
-  <si>
-    <t>memory2</t>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>vCenter</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>Platform</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>64ビット</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>pyhis_mem</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>C:40G</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>D:100GB</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>VMTools:On</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>wuauserv:Off</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>Win</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>Windows Server 2012 R2 Standard</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>kernel</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>os</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>os_release</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>arch</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>mem_total</t>
+  </si>
+  <si>
+    <t>user</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>sestatus</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>enabled</t>
+    <phoneticPr fontId="13"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2023,10 +2039,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2034,130 +2050,130 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3185,19 +3201,19 @@
     <tableColumn id="2" name="cpu" dataDxfId="30"/>
     <tableColumn id="3" name="memory" dataDxfId="29"/>
     <tableColumn id="4" name="datastore" dataDxfId="28"/>
-    <tableColumn id="5" name="Kernel" dataDxfId="27"/>
-    <tableColumn id="6" name="OS" dataDxfId="26"/>
-    <tableColumn id="7" name="OSRelease" dataDxfId="25"/>
-    <tableColumn id="8" name="Arch" dataDxfId="24"/>
+    <tableColumn id="5" name="kernel" dataDxfId="27"/>
+    <tableColumn id="6" name="os" dataDxfId="26"/>
+    <tableColumn id="7" name="os_release" dataDxfId="25"/>
+    <tableColumn id="8" name="arch" dataDxfId="24"/>
     <tableColumn id="9" name="cpu_total" dataDxfId="23"/>
     <tableColumn id="10" name="cpu_real" dataDxfId="22"/>
-    <tableColumn id="11" name="memory2" dataDxfId="21"/>
+    <tableColumn id="11" name="mem_total" dataDxfId="21"/>
     <tableColumn id="12" name="net_onboot" dataDxfId="20"/>
     <tableColumn id="13" name="net_route" dataDxfId="19"/>
     <tableColumn id="14" name="filesystem" dataDxfId="18"/>
-    <tableColumn id="15" name="users" dataDxfId="17"/>
+    <tableColumn id="15" name="user" dataDxfId="17"/>
     <tableColumn id="16" name="service" dataDxfId="16"/>
-    <tableColumn id="17" name="SELinux" dataDxfId="15"/>
+    <tableColumn id="17" name="sestatus" dataDxfId="15"/>
     <tableColumn id="18" name="packages" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3520,7 +3536,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.15">
       <c r="L1" s="35" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="M1" s="35"/>
     </row>
@@ -3562,10 +3578,10 @@
         <v>468</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>9</v>
@@ -3609,19 +3625,19 @@
       <c r="K3" s="31"/>
       <c r="L3" s="31"/>
       <c r="M3" s="36" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="N3" s="36">
         <v>4</v>
       </c>
       <c r="O3" s="36" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="P3" s="36" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="Q3" s="36" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
@@ -3641,7 +3657,7 @@
         <v>470</v>
       </c>
       <c r="F4" s="39" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="G4" s="29"/>
       <c r="H4" s="29"/>
@@ -3650,19 +3666,19 @@
       <c r="K4" s="29"/>
       <c r="L4" s="29"/>
       <c r="M4" s="36" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="N4" s="36">
         <v>4</v>
       </c>
       <c r="O4" s="36" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="P4" s="36" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="Q4" s="36" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
@@ -4044,7 +4060,7 @@
       <c r="Q22" s="36"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="12"/>
+  <phoneticPr fontId="13"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
@@ -4586,7 +4602,7 @@
       <c r="M20" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="12"/>
+  <phoneticPr fontId="13"/>
   <dataValidations count="3">
     <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="D5:M5">
       <formula1>"選択してください,Linux,Windows,VMHost"</formula1>
@@ -4610,8 +4626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F85"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B86" sqref="B86"/>
+    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6081,7 +6097,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="12"/>
+  <phoneticPr fontId="13"/>
   <pageMargins left="0.69930555555555496" right="0.69930555555555496" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -6091,8 +6107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D60" sqref="A5:D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7142,7 +7158,7 @@
       <c r="F61" s="14"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="12"/>
+  <phoneticPr fontId="13"/>
   <pageMargins left="0.69930555555555496" right="0.69930555555555496" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -7152,7 +7168,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D25" sqref="A5:D25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -7775,7 +7793,7 @@
       <c r="F51" s="23"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="12"/>
+  <phoneticPr fontId="13"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
@@ -8375,7 +8393,7 @@
       <c r="N27" s="25"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="12"/>
+  <phoneticPr fontId="13"/>
   <pageMargins left="0.69930555555555496" right="0.69930555555555496" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -8385,8 +8403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8401,7 +8419,7 @@
     <col min="8" max="8" width="7.75" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.75" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.5" bestFit="1" customWidth="1"/>
@@ -8412,84 +8430,84 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A1" s="38" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="B1" s="38" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="C1" s="38" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="D1" s="38" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="E1" s="38" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="F1" s="38" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="G1" s="38" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="H1" s="38" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="I1" s="38" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="J1" s="38" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="K1" s="38" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="L1" s="38" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="M1" s="38" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="N1" s="38" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="O1" s="38" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="P1" s="38" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="Q1" s="38" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="R1" s="38" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="40" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="C2" s="41" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="D2" s="41" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="E2" s="41" t="s">
-        <v>475</v>
+        <v>522</v>
       </c>
       <c r="F2" s="41" t="s">
-        <v>474</v>
+        <v>523</v>
       </c>
       <c r="G2" s="41" t="s">
-        <v>476</v>
+        <v>524</v>
       </c>
       <c r="H2" s="41" t="s">
-        <v>477</v>
+        <v>525</v>
       </c>
       <c r="I2" s="41" t="s">
         <v>101</v>
@@ -8498,7 +8516,7 @@
         <v>107</v>
       </c>
       <c r="K2" s="41" t="s">
-        <v>517</v>
+        <v>526</v>
       </c>
       <c r="L2" s="41" t="s">
         <v>124</v>
@@ -8507,19 +8525,19 @@
         <v>127</v>
       </c>
       <c r="N2" s="42" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="O2" s="42" t="s">
-        <v>485</v>
+        <v>527</v>
       </c>
       <c r="P2" s="42" t="s">
+        <v>484</v>
+      </c>
+      <c r="Q2" s="42" t="s">
+        <v>528</v>
+      </c>
+      <c r="R2" s="42" t="s">
         <v>487</v>
-      </c>
-      <c r="Q2" s="42" t="s">
-        <v>490</v>
-      </c>
-      <c r="R2" s="42" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="14.25" x14ac:dyDescent="0.15">
@@ -8534,17 +8552,17 @@
         <v>4</v>
       </c>
       <c r="D3" s="41"/>
-      <c r="E3" s="41" t="s">
+      <c r="E3" s="41">
+        <v>2.6</v>
+      </c>
+      <c r="F3" s="41" t="s">
         <v>472</v>
-      </c>
-      <c r="F3" s="41" t="s">
-        <v>473</v>
       </c>
       <c r="G3" s="41">
         <v>6.7</v>
       </c>
       <c r="H3" s="41" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="I3" s="41">
         <v>1</v>
@@ -8553,28 +8571,28 @@
         <v>1</v>
       </c>
       <c r="K3" s="41" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="L3" s="41" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="M3" s="41" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="N3" s="41" t="s">
+        <v>480</v>
+      </c>
+      <c r="O3" s="41" t="s">
         <v>483</v>
       </c>
-      <c r="O3" s="41" t="s">
-        <v>486</v>
-      </c>
       <c r="P3" s="41" t="s">
+        <v>485</v>
+      </c>
+      <c r="Q3" s="41" t="s">
+        <v>529</v>
+      </c>
+      <c r="R3" s="41" t="s">
         <v>488</v>
-      </c>
-      <c r="Q3" s="41" t="s">
-        <v>491</v>
-      </c>
-      <c r="R3" s="41" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="14.25" x14ac:dyDescent="0.15">
@@ -8593,19 +8611,19 @@
       <c r="J4" s="41"/>
       <c r="K4" s="41"/>
       <c r="L4" s="41" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="M4" s="41"/>
       <c r="N4" s="41" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="O4" s="41"/>
       <c r="P4" s="41" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="Q4" s="41"/>
       <c r="R4" s="41" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="14.25" x14ac:dyDescent="0.15">
@@ -8630,7 +8648,7 @@
       <c r="P5" s="41"/>
       <c r="Q5" s="41"/>
       <c r="R5" s="41" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="14.25" x14ac:dyDescent="0.15">
@@ -8655,7 +8673,7 @@
       <c r="P6" s="41"/>
       <c r="Q6" s="41"/>
       <c r="R6" s="41" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="14.25" x14ac:dyDescent="0.15">
@@ -8680,7 +8698,7 @@
       <c r="P7" s="41"/>
       <c r="Q7" s="41"/>
       <c r="R7" s="41" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="14.25" x14ac:dyDescent="0.15">
@@ -8705,7 +8723,7 @@
       <c r="P8" s="41"/>
       <c r="Q8" s="41"/>
       <c r="R8" s="41" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="14.25" x14ac:dyDescent="0.15">
@@ -8730,7 +8748,7 @@
       <c r="P9" s="41"/>
       <c r="Q9" s="41"/>
       <c r="R9" s="41" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="14.25" x14ac:dyDescent="0.15">
@@ -8755,7 +8773,7 @@
       <c r="P10" s="41"/>
       <c r="Q10" s="41"/>
       <c r="R10" s="41" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="14.25" x14ac:dyDescent="0.15">
@@ -8780,7 +8798,7 @@
       <c r="P11" s="41"/>
       <c r="Q11" s="41"/>
       <c r="R11" s="41" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="14.25" x14ac:dyDescent="0.15">
@@ -8805,7 +8823,7 @@
       <c r="P12" s="41"/>
       <c r="Q12" s="41"/>
       <c r="R12" s="41" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="14.25" x14ac:dyDescent="0.15">
@@ -8830,7 +8848,7 @@
       <c r="P13" s="41"/>
       <c r="Q13" s="41"/>
       <c r="R13" s="41" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="14.25" x14ac:dyDescent="0.15">
@@ -9133,10 +9151,11 @@
       <c r="R26" s="41"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="12"/>
+  <phoneticPr fontId="13"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -9145,7 +9164,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -9168,69 +9187,69 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="38" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="B1" s="38" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="C1" s="38" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="D1" s="38" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="E1" s="38" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="F1" s="38" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="G1" s="38" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="H1" s="38" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="I1" s="38" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="J1" s="38" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="K1" s="38" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="L1" s="38" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="M1" s="38" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="40" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="C2" s="41" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="D2" s="41" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="E2" s="41" t="s">
+        <v>473</v>
+      </c>
+      <c r="F2" s="41" t="s">
         <v>474</v>
-      </c>
-      <c r="F2" s="41" t="s">
-        <v>477</v>
       </c>
       <c r="G2" s="41" t="s">
         <v>101</v>
       </c>
       <c r="H2" s="41" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="I2" s="41" t="s">
         <v>124</v>
@@ -9239,13 +9258,13 @@
         <v>127</v>
       </c>
       <c r="K2" s="42" t="s">
+        <v>479</v>
+      </c>
+      <c r="L2" s="42" t="s">
         <v>482</v>
       </c>
-      <c r="L2" s="42" t="s">
-        <v>485</v>
-      </c>
       <c r="M2" s="42" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
@@ -9261,10 +9280,10 @@
       </c>
       <c r="D3" s="41"/>
       <c r="E3" s="41" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="F3" s="41" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G3" s="41">
         <v>2</v>
@@ -9273,19 +9292,19 @@
         <v>2096692</v>
       </c>
       <c r="I3" s="41" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="J3" s="41" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="K3" s="41" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="L3" s="41" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="M3" s="41" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
@@ -9301,15 +9320,15 @@
       <c r="G4" s="41"/>
       <c r="H4" s="41"/>
       <c r="I4" s="41" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="J4" s="41"/>
       <c r="K4" s="41" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="L4" s="41"/>
       <c r="M4" s="41" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
@@ -9745,7 +9764,7 @@
       <c r="M28" s="41"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="12"/>
+  <phoneticPr fontId="13"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/src/test/resources/check_sheet.xlsx
+++ b/src/test/resources/check_sheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="872"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="872" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Target" sheetId="1" r:id="rId1"/>
@@ -20,8 +20,9 @@
     <sheet name="Rule" sheetId="6" r:id="rId6"/>
     <sheet name="Template(AP)" sheetId="7" r:id="rId7"/>
     <sheet name="Template(Win)" sheetId="8" r:id="rId8"/>
+    <sheet name="Design" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="562">
   <si>
     <t>旧設定(テスト互換性維持用)</t>
   </si>
@@ -1599,67 +1600,389 @@
   </si>
   <si>
     <t>net_ip</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>192.168.0.14,192.168.0.254,255.255.255.0</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>C:40</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>VMTools:Running</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>wuauserv:Stopped</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>NumCpu</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>MemoryGB</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>VMHost</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>esx</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>64 ビット</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>mem_total</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>cpu_total</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>account_id</t>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>verify</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>NG</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>WARNING</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>MATCH</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>UNMATCH</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>value</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>same as x</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>Failed</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>statusがWARNINGなら黄色</t>
+    <rPh sb="16" eb="18">
+      <t>キイロ</t>
+    </rPh>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>statusが「なし」なら赤字フォント</t>
+    <rPh sb="13" eb="15">
+      <t>アカジ</t>
+    </rPh>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>statusがnullなら灰色</t>
+    <rPh sb="13" eb="15">
+      <t>ハイイロ</t>
+    </rPh>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>statusがOKでverifyがnullなら「標準」</t>
+    <rPh sb="24" eb="26">
+      <t>ヒョウジュン</t>
+    </rPh>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>statusがOKでverifyがOKなら緑色</t>
+    <rPh sb="21" eb="23">
+      <t>ミドリイロ</t>
+    </rPh>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>verifyがNGなら赤色</t>
+    <rPh sb="11" eb="13">
+      <t>アカイロ</t>
+    </rPh>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>matching</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>matchingがMATCHなら水色</t>
+    <rPh sb="16" eb="18">
+      <t>ミズイロ</t>
+    </rPh>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>配色</t>
+    <rPh sb="0" eb="2">
+      <t>ハイショク</t>
+    </rPh>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>定義</t>
+    <rPh sb="0" eb="2">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>優先度</t>
+    <rPh sb="0" eb="3">
+      <t>ユウセンド</t>
+    </rPh>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>検査シート読み込み</t>
+  </si>
+  <si>
+    <t>検査実行</t>
+  </si>
+  <si>
+    <t>検査結果JSON書き込み()</t>
+  </si>
+  <si>
+    <t>データ比較(オプション)</t>
+  </si>
+  <si>
+    <t>データ比較、比較結果セット</t>
+  </si>
+  <si>
+    <t>サマリシート作成</t>
+  </si>
+  <si>
+    <t>ドメインシートスキャン、開始列確認</t>
+  </si>
+  <si>
+    <t>ターゲットの順に列登録</t>
+  </si>
+  <si>
+    <t>デバイスシート作成</t>
+  </si>
+  <si>
+    <t>JSON結果読み込み(オプション)</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>比較対象読み込み</t>
+    <rPh sb="0" eb="2">
+      <t>ヒカク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>データ比較</t>
+    <rPh sb="3" eb="5">
+      <t>ヒカク</t>
+    </rPh>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>シート追加</t>
+    <rPh sb="3" eb="5">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>作業計画作成</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>処理</t>
+    <rPh sb="0" eb="2">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>メソッド</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>分類</t>
+    <rPh sb="0" eb="2">
+      <t>ブンルイ</t>
+    </rPh>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>処理2</t>
+    <rPh sb="0" eb="2">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>処理3</t>
+    <rPh sb="0" eb="2">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>&lt;別だし、TestScheduler&gt;&lt;JSON読み込みに替える&gt;</t>
+    <rPh sb="1" eb="2">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>test_scenario解析</t>
+    <rPh sb="13" eb="15">
+      <t>カイセキ</t>
+    </rPh>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>TestResultWriterに別だし</t>
+    <rPh sb="17" eb="18">
+      <t>ベツ</t>
+    </rPh>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>&lt;保留&gt;</t>
+    <rPh sb="1" eb="3">
+      <t>ホリュウ</t>
+    </rPh>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>evidence_sheet コピー</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  target_lists(domain-&gt;target-&gt;platform) 結果作成</t>
+    <rPh sb="41" eb="43">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  device_lists(platform-&gt;metric-&gt;target) 結果作成</t>
+    <rPh sb="41" eb="43">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>チェックシートメタ情報作成</t>
+    <rPh sb="9" eb="11">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>チェックシート更新、レイアウト変更</t>
+    <rPh sb="7" eb="9">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>順に登録</t>
+    <rPh sb="0" eb="1">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="13"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -1746,8 +2069,55 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1766,8 +2136,47 @@
         <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99FFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1853,38 +2262,79 @@
         <color auto="1"/>
       </diagonal>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1893,105 +2343,349 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="7" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="8" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="8" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="9" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="6">
+    <cellStyle name="20% - アクセント 1" xfId="5" builtinId="30"/>
+    <cellStyle name="どちらでもない" xfId="4" builtinId="28"/>
+    <cellStyle name="悪い" xfId="3" builtinId="27"/>
     <cellStyle name="説明文" xfId="1" builtinId="53" customBuiltin="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="良い" xfId="2" builtinId="26"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="14">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="hair">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="hair">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="hair">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="hair">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="hair">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="hair">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -2060,6 +2754,11 @@
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
     </indexedColors>
+    <mruColors>
+      <color rgb="FFCCFFFF"/>
+      <color rgb="FF99FFCC"/>
+      <color rgb="FF66FFFF"/>
+    </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2143,6 +2842,56 @@
     <tableColumn id="13" name="service"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="テーブル4" displayName="テーブル4" ref="A2:G15" totalsRowShown="0" headerRowDxfId="13">
+  <autoFilter ref="A2:G15">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+    <filterColumn colId="6" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="7">
+    <tableColumn id="1" name="#" dataDxfId="12">
+      <calculatedColumnFormula>ROW()-ROW(A$2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" name="status" dataDxfId="11"/>
+    <tableColumn id="3" name="verify" dataDxfId="10"/>
+    <tableColumn id="4" name="matching" dataDxfId="8"/>
+    <tableColumn id="5" name="配色" dataDxfId="9"/>
+    <tableColumn id="6" name="定義" dataDxfId="7"/>
+    <tableColumn id="7" name="優先度" dataDxfId="6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="テーブル5" displayName="テーブル5" ref="A18:F34" totalsRowShown="0">
+  <autoFilter ref="A18:F34">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="6">
+    <tableColumn id="1" name="#" dataDxfId="5">
+      <calculatedColumnFormula>ROW()-ROW(A$18)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" name="分類" dataDxfId="4"/>
+    <tableColumn id="3" name="処理" dataDxfId="3"/>
+    <tableColumn id="4" name="処理2" dataDxfId="2"/>
+    <tableColumn id="5" name="処理3" dataDxfId="1"/>
+    <tableColumn id="6" name="メソッド" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -2411,7 +3160,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -2961,11 +3710,11 @@
       <c r="Q22" s="7"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="12"/>
+  <phoneticPr fontId="13"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -3503,7 +4252,7 @@
       <c r="M20" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="12"/>
+  <phoneticPr fontId="13"/>
   <dataValidations count="3">
     <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="D5:M5">
       <formula1>"選択してください,Linux,Windows,VMHost"</formula1>
@@ -4998,7 +5747,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="12"/>
+  <phoneticPr fontId="13"/>
   <pageMargins left="0.69930555555555496" right="0.69930555555555496" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -6059,7 +6808,7 @@
       <c r="F61" s="22"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="12"/>
+  <phoneticPr fontId="13"/>
   <pageMargins left="0.69930555555555496" right="0.69930555555555496" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -6694,7 +7443,7 @@
       <c r="F51" s="31"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="12"/>
+  <phoneticPr fontId="13"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
@@ -7294,7 +8043,7 @@
       <c r="N27" s="33"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="12"/>
+  <phoneticPr fontId="13"/>
   <pageMargins left="0.69930555555555496" right="0.69930555555555496" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -8054,7 +8803,7 @@
       <c r="R26" s="38"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="12"/>
+  <phoneticPr fontId="13"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <tableParts count="1">
@@ -8631,11 +9380,614 @@
       <c r="L28" s="38"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="12"/>
+  <phoneticPr fontId="13"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:G34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="10.625" customWidth="1"/>
+    <col min="6" max="6" width="46.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="41" t="s">
+        <v>531</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>509</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>510</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>527</v>
+      </c>
+      <c r="E2" s="41" t="s">
+        <v>529</v>
+      </c>
+      <c r="F2" s="41" t="s">
+        <v>530</v>
+      </c>
+      <c r="G2" s="41" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="54">
+        <f>ROW()-ROW(A$2)</f>
+        <v>1</v>
+      </c>
+      <c r="B3" s="54" t="s">
+        <v>511</v>
+      </c>
+      <c r="C3" s="54" t="s">
+        <v>511</v>
+      </c>
+      <c r="D3" s="54" t="s">
+        <v>517</v>
+      </c>
+      <c r="E3" s="43" t="s">
+        <v>518</v>
+      </c>
+      <c r="F3" s="42" t="s">
+        <v>525</v>
+      </c>
+      <c r="G3" s="54">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="49">
+        <f t="shared" ref="A4:A15" si="0">ROW()-ROW(A$2)</f>
+        <v>2</v>
+      </c>
+      <c r="B4" s="49" t="s">
+        <v>511</v>
+      </c>
+      <c r="C4" s="49" t="s">
+        <v>512</v>
+      </c>
+      <c r="D4" s="49" t="s">
+        <v>517</v>
+      </c>
+      <c r="E4" s="45" t="s">
+        <v>518</v>
+      </c>
+      <c r="F4" s="44" t="s">
+        <v>526</v>
+      </c>
+      <c r="G4" s="49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="49">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B5" s="49" t="s">
+        <v>513</v>
+      </c>
+      <c r="C5" s="55" t="s">
+        <v>515</v>
+      </c>
+      <c r="D5" s="49" t="s">
+        <v>517</v>
+      </c>
+      <c r="E5" s="46" t="s">
+        <v>518</v>
+      </c>
+      <c r="F5" s="44" t="s">
+        <v>521</v>
+      </c>
+      <c r="G5" s="49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="49">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B6" s="49" t="s">
+        <v>511</v>
+      </c>
+      <c r="C6" s="49" t="s">
+        <v>511</v>
+      </c>
+      <c r="D6" s="49" t="s">
+        <v>516</v>
+      </c>
+      <c r="E6" s="47" t="s">
+        <v>519</v>
+      </c>
+      <c r="F6" s="44" t="s">
+        <v>528</v>
+      </c>
+      <c r="G6" s="49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="49">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B7" s="49" t="s">
+        <v>511</v>
+      </c>
+      <c r="C7" s="49" t="s">
+        <v>512</v>
+      </c>
+      <c r="D7" s="49" t="s">
+        <v>516</v>
+      </c>
+      <c r="E7" s="47" t="s">
+        <v>519</v>
+      </c>
+      <c r="F7" s="44" t="s">
+        <v>528</v>
+      </c>
+      <c r="G7" s="49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="49">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B8" s="49" t="s">
+        <v>513</v>
+      </c>
+      <c r="C8" s="55" t="s">
+        <v>515</v>
+      </c>
+      <c r="D8" s="49" t="s">
+        <v>516</v>
+      </c>
+      <c r="E8" s="47" t="s">
+        <v>519</v>
+      </c>
+      <c r="F8" s="44" t="s">
+        <v>528</v>
+      </c>
+      <c r="G8" s="49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="49">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B9" s="49" t="s">
+        <v>511</v>
+      </c>
+      <c r="C9" s="49" t="s">
+        <v>511</v>
+      </c>
+      <c r="D9" s="49" t="s">
+        <v>514</v>
+      </c>
+      <c r="E9" s="48" t="s">
+        <v>518</v>
+      </c>
+      <c r="F9" s="44" t="s">
+        <v>525</v>
+      </c>
+      <c r="G9" s="49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="49">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B10" s="49" t="s">
+        <v>511</v>
+      </c>
+      <c r="C10" s="49" t="s">
+        <v>512</v>
+      </c>
+      <c r="D10" s="49" t="s">
+        <v>514</v>
+      </c>
+      <c r="E10" s="45" t="s">
+        <v>518</v>
+      </c>
+      <c r="F10" s="44" t="s">
+        <v>526</v>
+      </c>
+      <c r="G10" s="49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="49">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B11" s="49" t="s">
+        <v>513</v>
+      </c>
+      <c r="C11" s="55" t="s">
+        <v>515</v>
+      </c>
+      <c r="D11" s="49" t="s">
+        <v>514</v>
+      </c>
+      <c r="E11" s="46" t="s">
+        <v>518</v>
+      </c>
+      <c r="F11" s="44" t="s">
+        <v>521</v>
+      </c>
+      <c r="G11" s="49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="49">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="49" t="s">
+        <v>511</v>
+      </c>
+      <c r="C12" s="55" t="s">
+        <v>514</v>
+      </c>
+      <c r="D12" s="49" t="s">
+        <v>517</v>
+      </c>
+      <c r="E12" s="49" t="s">
+        <v>518</v>
+      </c>
+      <c r="F12" s="44" t="s">
+        <v>524</v>
+      </c>
+      <c r="G12" s="49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="49">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B13" s="55" t="s">
+        <v>515</v>
+      </c>
+      <c r="C13" s="55" t="s">
+        <v>515</v>
+      </c>
+      <c r="D13" s="49" t="s">
+        <v>516</v>
+      </c>
+      <c r="E13" s="50" t="s">
+        <v>519</v>
+      </c>
+      <c r="F13" s="44" t="s">
+        <v>528</v>
+      </c>
+      <c r="G13" s="49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="49">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="49" t="s">
+        <v>512</v>
+      </c>
+      <c r="C14" s="55" t="s">
+        <v>515</v>
+      </c>
+      <c r="D14" s="55" t="s">
+        <v>515</v>
+      </c>
+      <c r="E14" s="51" t="s">
+        <v>520</v>
+      </c>
+      <c r="F14" s="44" t="s">
+        <v>522</v>
+      </c>
+      <c r="G14" s="49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="56">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B15" s="56" t="s">
+        <v>514</v>
+      </c>
+      <c r="C15" s="57" t="s">
+        <v>515</v>
+      </c>
+      <c r="D15" s="57" t="s">
+        <v>515</v>
+      </c>
+      <c r="E15" s="53"/>
+      <c r="F15" s="52" t="s">
+        <v>523</v>
+      </c>
+      <c r="G15" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>531</v>
+      </c>
+      <c r="B18" t="s">
+        <v>549</v>
+      </c>
+      <c r="C18" t="s">
+        <v>547</v>
+      </c>
+      <c r="D18" t="s">
+        <v>550</v>
+      </c>
+      <c r="E18" t="s">
+        <v>551</v>
+      </c>
+      <c r="F18" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" s="42">
+        <f>ROW()-ROW(A$18)</f>
+        <v>1</v>
+      </c>
+      <c r="B19" s="42" t="s">
+        <v>533</v>
+      </c>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20" s="44">
+        <f t="shared" ref="A20:A34" si="1">ROW()-ROW(A$18)</f>
+        <v>2</v>
+      </c>
+      <c r="B20" s="44"/>
+      <c r="C20" s="44" t="s">
+        <v>546</v>
+      </c>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21" s="44">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B21" s="44"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22" s="44">
+        <f>ROW()-ROW(A$18)</f>
+        <v>4</v>
+      </c>
+      <c r="B22" s="44"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23" s="44">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B23" s="44" t="s">
+        <v>534</v>
+      </c>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A24" s="44">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B24" s="44" t="s">
+        <v>535</v>
+      </c>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A25" s="44">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B25" s="44" t="s">
+        <v>536</v>
+      </c>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A26" s="44">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B26" s="44"/>
+      <c r="C26" s="44" t="s">
+        <v>542</v>
+      </c>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A27" s="44">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B27" s="44"/>
+      <c r="C27" s="44" t="s">
+        <v>537</v>
+      </c>
+      <c r="D27" s="44"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="44"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A28" s="44">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B28" s="44"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="44" t="s">
+        <v>543</v>
+      </c>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A29" s="44">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B29" s="44"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="44" t="s">
+        <v>544</v>
+      </c>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A30" s="44">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B30" s="44" t="s">
+        <v>538</v>
+      </c>
+      <c r="C30" s="44"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="44" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A31" s="44">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B31" s="44"/>
+      <c r="C31" s="44" t="s">
+        <v>539</v>
+      </c>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A32" s="44">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B32" s="44"/>
+      <c r="C32" s="44" t="s">
+        <v>540</v>
+      </c>
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A33" s="44">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B33" s="44" t="s">
+        <v>541</v>
+      </c>
+      <c r="C33" s="44"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A34" s="52">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B34" s="52"/>
+      <c r="C34" s="52" t="s">
+        <v>545</v>
+      </c>
+      <c r="D34" s="52"/>
+      <c r="E34" s="52"/>
+      <c r="F34" s="52" t="s">
+        <v>561</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="13"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/src/test/resources/check_sheet.xlsx
+++ b/src/test/resources/check_sheet.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="452">
   <si>
     <t xml:space="preserve">共通設定</t>
   </si>
@@ -117,7 +117,7 @@
     <t xml:space="preserve">Linux</t>
   </si>
   <si>
-    <t xml:space="preserve">ostrich1</t>
+    <t xml:space="preserve">ostrich</t>
   </si>
   <si>
     <t xml:space="preserve">Test</t>
@@ -127,6 +127,9 @@
   </si>
   <si>
     <t xml:space="preserve">ostrich2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alpaca1</t>
   </si>
   <si>
     <t xml:space="preserve">Windows</t>
@@ -1609,7 +1612,7 @@
   <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1740,7 +1743,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
         <v>1</v>
       </c>
@@ -1759,7 +1762,9 @@
       <c r="F4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="H4" s="2" t="s">
         <v>32</v>
       </c>
@@ -1791,7 +1796,9 @@
       <c r="F5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="H5" s="2" t="s">
         <v>32</v>
       </c>
@@ -1809,19 +1816,19 @@
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -2171,7 +2178,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="33.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="68.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="7" style="0" width="8.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.62"/>
@@ -2182,37 +2189,37 @@
         <v>31</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2221,30 +2228,30 @@
         <v>27</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2253,346 +2260,346 @@
         <v>28</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4"/>
       <c r="B20" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4"/>
       <c r="B21" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4"/>
       <c r="B23" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4"/>
       <c r="B24" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4"/>
       <c r="B26" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2601,82 +2608,82 @@
         <v>23</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4"/>
       <c r="B29" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4"/>
       <c r="B30" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2685,1004 +2692,1004 @@
         <v>24</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4"/>
       <c r="B34" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4"/>
       <c r="B36" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="31.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="4"/>
       <c r="B43" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E43" s="4"/>
       <c r="F43" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="4"/>
       <c r="B44" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E44" s="4"/>
       <c r="F44" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="4"/>
       <c r="B45" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E45" s="4"/>
       <c r="F45" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E46" s="4"/>
       <c r="F46" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="4"/>
       <c r="B49" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E49" s="4"/>
       <c r="F49" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E50" s="4"/>
       <c r="F50" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E51" s="4"/>
       <c r="F51" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E52" s="4"/>
       <c r="F52" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="4"/>
       <c r="B54" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E54" s="4"/>
       <c r="F54" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="4"/>
       <c r="B55" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E55" s="4"/>
       <c r="F55" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="4"/>
       <c r="B56" s="4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E56" s="4"/>
       <c r="F56" s="4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="4"/>
       <c r="B57" s="4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E57" s="4"/>
       <c r="F57" s="4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="4"/>
       <c r="B58" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E58" s="4"/>
       <c r="F58" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="4"/>
       <c r="B59" s="4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E59" s="4"/>
       <c r="F59" s="4" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="4"/>
       <c r="B60" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E60" s="4"/>
       <c r="F60" s="4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="4"/>
       <c r="B61" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E61" s="4"/>
       <c r="F61" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D62" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="4"/>
       <c r="B63" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E63" s="4"/>
       <c r="F63" s="4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="4"/>
       <c r="B64" s="4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E64" s="4"/>
       <c r="F64" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="4"/>
       <c r="B65" s="4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E65" s="4"/>
       <c r="F65" s="4" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="4"/>
       <c r="B66" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E66" s="4"/>
       <c r="F66" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="4"/>
       <c r="B67" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E67" s="4"/>
       <c r="F67" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="21.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="4"/>
       <c r="B68" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E68" s="4"/>
       <c r="F68" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="4"/>
       <c r="B69" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E69" s="4"/>
       <c r="F69" s="5" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="4"/>
       <c r="B70" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D70" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E70" s="4"/>
       <c r="F70" s="5" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="4"/>
       <c r="B71" s="4" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D71" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E71" s="4"/>
       <c r="F71" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="4"/>
       <c r="B72" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D72" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E72" s="4"/>
       <c r="F72" s="5" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E73" s="4"/>
       <c r="F73" s="4" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E74" s="4"/>
       <c r="F74" s="4" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E75" s="4"/>
       <c r="F75" s="4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D76" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E76" s="4"/>
       <c r="F76" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D77" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E77" s="4"/>
       <c r="F77" s="5" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D78" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E78" s="4"/>
       <c r="F78" s="5" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="4"/>
       <c r="B79" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D79" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E79" s="4"/>
       <c r="F79" s="4" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D80" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E80" s="4"/>
       <c r="F80" s="4" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D81" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E81" s="4"/>
       <c r="F81" s="4" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D82" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E82" s="4"/>
       <c r="F82" s="4" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D83" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E83" s="4"/>
       <c r="F83" s="4" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D84" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E84" s="4"/>
       <c r="F84" s="4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D85" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E85" s="4"/>
       <c r="F85" s="4" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D86" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E86" s="4"/>
       <c r="F86" s="4" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="4"/>
       <c r="B87" s="4" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D87" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E87" s="4"/>
       <c r="F87" s="4" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D88" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D89" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E89" s="4"/>
       <c r="F89" s="4" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D90" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E90" s="4"/>
       <c r="F90" s="4" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>
@@ -3723,37 +3730,37 @@
         <v>31</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3762,30 +3769,30 @@
         <v>27</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3794,210 +3801,210 @@
         <v>28</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4006,708 +4013,708 @@
         <v>23</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2"/>
       <c r="B22" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2"/>
       <c r="B23" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2"/>
       <c r="B25" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2"/>
       <c r="B26" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2"/>
       <c r="B27" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2"/>
       <c r="B28" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2"/>
       <c r="B30" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2"/>
       <c r="B31" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2"/>
       <c r="B32" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2"/>
       <c r="B33" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2"/>
       <c r="B36" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2"/>
       <c r="B37" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2"/>
       <c r="B41" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2"/>
       <c r="B42" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2"/>
       <c r="B46" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2"/>
       <c r="B47" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
   </sheetData>
@@ -4746,7 +4753,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="8.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="10.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="7.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="25.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="25.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="12.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="14.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="16" style="0" width="12"/>
@@ -4759,16 +4766,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>29</v>
@@ -4836,61 +4843,61 @@
         <v>28</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>23</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K2" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P2" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="S2" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="T2" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="U2" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="V2" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4904,19 +4911,19 @@
         <v>2</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E3" s="9" t="n">
         <v>2.6</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="G3" s="9" t="n">
         <v>6.7</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="I3" s="9" t="n">
         <v>1</v>
@@ -4928,37 +4935,37 @@
         <v>2000</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="P3" s="11" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Q3" s="9" t="n">
         <v>26</v>
       </c>
       <c r="R3" s="9" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="S3" s="9" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="T3" s="9" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="U3" s="9" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="V3" s="9" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4977,29 +4984,29 @@
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
       <c r="L4" s="10" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="M4" s="10" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="N4" s="9"/>
       <c r="O4" s="9"/>
       <c r="P4" s="11" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="Q4" s="9" t="n">
         <v>3</v>
       </c>
       <c r="R4" s="9"/>
       <c r="S4" s="9" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="T4" s="9" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="U4" s="9"/>
       <c r="V4" s="9" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5028,7 +5035,7 @@
       <c r="T5" s="9"/>
       <c r="U5" s="9"/>
       <c r="V5" s="9" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5057,7 +5064,7 @@
       <c r="T6" s="9"/>
       <c r="U6" s="9"/>
       <c r="V6" s="9" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5086,7 +5093,7 @@
       <c r="T7" s="9"/>
       <c r="U7" s="9"/>
       <c r="V7" s="9" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5115,7 +5122,7 @@
       <c r="T8" s="9"/>
       <c r="U8" s="9"/>
       <c r="V8" s="9" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5144,7 +5151,7 @@
       <c r="T9" s="9"/>
       <c r="U9" s="9"/>
       <c r="V9" s="9" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5173,7 +5180,7 @@
       <c r="T10" s="9"/>
       <c r="U10" s="9"/>
       <c r="V10" s="9" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5202,7 +5209,7 @@
       <c r="T11" s="9"/>
       <c r="U11" s="9"/>
       <c r="V11" s="9" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5231,7 +5238,7 @@
       <c r="T12" s="9"/>
       <c r="U12" s="9"/>
       <c r="V12" s="9" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5260,7 +5267,7 @@
       <c r="T13" s="9"/>
       <c r="U13" s="9"/>
       <c r="V13" s="9" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7711,49 +7718,49 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7767,40 +7774,40 @@
         <v>28</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7814,13 +7821,13 @@
         <v>4</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="G3" s="9" t="n">
         <v>1</v>
@@ -7829,25 +7836,25 @@
         <v>2000000</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="L3" s="9" t="n">
         <v>40</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7868,10 +7875,10 @@
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
       <c r="N4" s="9" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9883,16 +9890,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E1" s="12" t="s">
         <v>29</v>
@@ -9957,58 +9964,58 @@
         <v>28</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>23</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K2" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="P2" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="S2" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="T2" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="U2" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10022,19 +10029,19 @@
         <v>2</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E3" s="9" t="n">
         <v>2.6</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="G3" s="9" t="n">
         <v>6.7</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="I3" s="9" t="n">
         <v>1</v>
@@ -10046,34 +10053,34 @@
         <v>2000</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="O3" s="11" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="P3" s="9" t="n">
         <v>26</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="R3" s="9" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="S3" s="9" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="T3" s="9" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="U3" s="9" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10095,21 +10102,21 @@
       <c r="M4" s="9"/>
       <c r="N4" s="9"/>
       <c r="O4" s="11" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="P4" s="9" t="n">
         <v>3</v>
       </c>
       <c r="Q4" s="9"/>
       <c r="R4" s="9" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="S4" s="9" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="T4" s="9"/>
       <c r="U4" s="9" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10137,7 +10144,7 @@
       <c r="S5" s="9"/>
       <c r="T5" s="9"/>
       <c r="U5" s="9" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10165,7 +10172,7 @@
       <c r="S6" s="9"/>
       <c r="T6" s="9"/>
       <c r="U6" s="9" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10193,7 +10200,7 @@
       <c r="S7" s="9"/>
       <c r="T7" s="9"/>
       <c r="U7" s="9" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10221,7 +10228,7 @@
       <c r="S8" s="9"/>
       <c r="T8" s="9"/>
       <c r="U8" s="9" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10249,7 +10256,7 @@
       <c r="S9" s="9"/>
       <c r="T9" s="9"/>
       <c r="U9" s="9" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10277,7 +10284,7 @@
       <c r="S10" s="9"/>
       <c r="T10" s="9"/>
       <c r="U10" s="9" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10305,7 +10312,7 @@
       <c r="S11" s="9"/>
       <c r="T11" s="9"/>
       <c r="U11" s="9" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10333,7 +10340,7 @@
       <c r="S12" s="9"/>
       <c r="T12" s="9"/>
       <c r="U12" s="9" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10361,7 +10368,7 @@
       <c r="S13" s="9"/>
       <c r="T13" s="9"/>
       <c r="U13" s="9" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/src/test/resources/check_sheet.xlsx
+++ b/src/test/resources/check_sheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="検査対象" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="509">
   <si>
     <t>共通設定</t>
   </si>
@@ -1601,6 +1601,10 @@
   </si>
   <si>
     <t>cent7</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Y0</t>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -2133,7 +2137,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
@@ -3088,8 +3092,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:F91"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3133,7 +3137,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
-        <v>58</v>
+        <v>508</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>59</v>

--- a/src/test/resources/check_sheet.xlsx
+++ b/src/test/resources/check_sheet.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\work\gradle\gradle-server-acceptance\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\work\gradle-server-acceptance\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="検査対象" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="テンプレート(RH7)" sheetId="6" r:id="rId7"/>
     <sheet name="テンプレート(Windows)" sheetId="7" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="515">
   <si>
     <t>共通設定</t>
   </si>
@@ -1605,6 +1605,39 @@
   </si>
   <si>
     <t>Y0</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>OS名</t>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>CPU数</t>
+    <rPh sb="3" eb="4">
+      <t>カズ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>MEM容量</t>
+    <rPh sb="3" eb="5">
+      <t>ヨウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>_redmine:IAサーバ</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>_redmine:ポートリスト</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>ネットワーク</t>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -2685,10 +2718,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:N15"/>
+  <dimension ref="A3:N17"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD11"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2700,7 +2733,7 @@
     <col min="9" max="11" width="16.625" customWidth="1"/>
     <col min="12" max="12" width="12.25" customWidth="1"/>
     <col min="13" max="13" width="24.75" customWidth="1"/>
-    <col min="14" max="14" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.375" bestFit="1" customWidth="1"/>
     <col min="15" max="1025" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2748,7 +2781,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" s="13" t="s">
         <v>493</v>
       </c>
@@ -2778,7 +2811,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="13" t="s">
         <v>493</v>
       </c>
@@ -2786,139 +2819,157 @@
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13" t="s">
-        <v>480</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>481</v>
-      </c>
+        <v>509</v>
+      </c>
+      <c r="F5" s="13"/>
       <c r="G5" s="13" t="s">
-        <v>482</v>
+        <v>510</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>483</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>484</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>485</v>
-      </c>
+        <v>511</v>
+      </c>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
       <c r="K5" s="13"/>
       <c r="L5" s="13"/>
       <c r="M5" s="13"/>
       <c r="N5" s="14" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="13" t="s">
         <v>493</v>
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
-      <c r="E6" s="13" t="s">
-        <v>486</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>487</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>482</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>488</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>484</v>
-      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
       <c r="J6" s="13" t="s">
-        <v>489</v>
-      </c>
-      <c r="K6" s="13"/>
+        <v>514</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>514</v>
+      </c>
       <c r="L6" s="13"/>
       <c r="M6" s="13"/>
       <c r="N6" s="14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="13" t="s">
         <v>493</v>
       </c>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13" t="s">
-        <v>490</v>
-      </c>
+      <c r="E7" s="13" t="s">
+        <v>480</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>481</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>482</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>483</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>484</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>485</v>
+      </c>
+      <c r="K7" s="13"/>
       <c r="L7" s="13"/>
       <c r="M7" s="13"/>
       <c r="N7" s="14" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A8" s="13" t="s">
+        <v>493</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13" t="s">
+        <v>486</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>487</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>482</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>488</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>484</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>489</v>
+      </c>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A9" s="13" t="s">
+        <v>493</v>
+      </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13" t="s">
+        <v>490</v>
+      </c>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="14" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="8" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="15" t="s">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A10" s="15" t="s">
         <v>493</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15" t="s">
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15" t="s">
         <v>491</v>
       </c>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="16" t="s">
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="16" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="9" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-    </row>
-    <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-    </row>
-    <row r="11" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11" s="17"/>
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
@@ -2935,36 +2986,36 @@
       <c r="N11" s="17"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14" s="3"/>
@@ -2997,6 +3048,38 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8"/>
@@ -3092,7 +3175,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:F91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>

--- a/src/test/resources/check_sheet.xlsx
+++ b/src/test/resources/check_sheet.xlsx
@@ -21,6 +21,9 @@
     <sheet name="テンプレート(RH7)" sheetId="6" r:id="rId7"/>
     <sheet name="テンプレート(Windows)" sheetId="7" r:id="rId8"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">検査レポート!$A$3:$N$9</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="513">
   <si>
     <t>共通設定</t>
   </si>
@@ -1630,14 +1633,6 @@
   </si>
   <si>
     <t>_redmine:IAサーバ</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>_redmine:ポートリスト</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>ネットワーク</t>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -2718,10 +2713,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:N17"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A3:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2844,21 +2842,29 @@
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
+      <c r="E6" s="13" t="s">
+        <v>480</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>481</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>482</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>483</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>484</v>
+      </c>
       <c r="J6" s="13" t="s">
-        <v>514</v>
-      </c>
-      <c r="K6" s="13" t="s">
-        <v>514</v>
-      </c>
+        <v>485</v>
+      </c>
+      <c r="K6" s="13"/>
       <c r="L6" s="13"/>
       <c r="M6" s="13"/>
       <c r="N6" s="14" t="s">
-        <v>513</v>
+        <v>476</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
@@ -2869,28 +2875,28 @@
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
       <c r="E7" s="13" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="G7" s="13" t="s">
         <v>482</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="I7" s="13" t="s">
         <v>484</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="K7" s="13"/>
       <c r="L7" s="13"/>
       <c r="M7" s="13"/>
       <c r="N7" s="14" t="s">
-        <v>476</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
@@ -2900,74 +2906,58 @@
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
-      <c r="E8" s="13" t="s">
-        <v>486</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>487</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>482</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>488</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>484</v>
-      </c>
-      <c r="J8" s="13" t="s">
-        <v>489</v>
-      </c>
-      <c r="K8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13" t="s">
+        <v>490</v>
+      </c>
       <c r="L8" s="13"/>
       <c r="M8" s="13"/>
       <c r="N8" s="14" t="s">
-        <v>36</v>
+        <v>477</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="15" t="s">
         <v>493</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13" t="s">
-        <v>490</v>
-      </c>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="14" t="s">
-        <v>477</v>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15" t="s">
+        <v>491</v>
+      </c>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="16" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A10" s="15" t="s">
-        <v>493</v>
-      </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15" t="s">
-        <v>491</v>
-      </c>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="16" t="s">
-        <v>478</v>
-      </c>
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11" s="17"/>
@@ -3002,20 +2992,20 @@
       <c r="N12" s="17"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14" s="3"/>
@@ -3065,26 +3055,10 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="8"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="69" firstPageNumber="0" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
